--- a/service-system/target/classes/static/构造深度-5车道.xlsx
+++ b/service-system/target/classes/static/构造深度-5车道.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26731"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\work\jjgys\jjgys-parent\service-system\src\main\resources\static\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\12910\Desktop\static\static\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E571165A-3DF8-4258-B043-9889E63FA7CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{528F637C-850A-48BC-BE4E-FB03B0EA2A8A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="784" firstSheet="6" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="784" firstSheet="6" activeTab="17" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="右幅-混凝土桥" sheetId="459" state="hidden" r:id="rId1"/>
@@ -409,6 +409,9 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="177" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -492,9 +495,6 @@
     </xf>
     <xf numFmtId="180" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -821,30 +821,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
-      <c r="E1" s="18"/>
-      <c r="F1" s="18"/>
-      <c r="G1" s="18"/>
-      <c r="H1" s="18"/>
-      <c r="I1" s="18"/>
-      <c r="J1" s="18"/>
-      <c r="K1" s="18"/>
-      <c r="L1" s="18"/>
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
+      <c r="F1" s="19"/>
+      <c r="G1" s="19"/>
+      <c r="H1" s="19"/>
+      <c r="I1" s="19"/>
+      <c r="J1" s="19"/>
+      <c r="K1" s="19"/>
+      <c r="L1" s="19"/>
     </row>
     <row r="2" spans="1:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="19" t="s">
+      <c r="A2" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="19"/>
-      <c r="C2" s="19" t="s">
-        <v>2</v>
-      </c>
-      <c r="D2" s="19"/>
+      <c r="B2" s="20"/>
+      <c r="C2" s="20" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="20"/>
       <c r="E2" t="s">
         <v>2</v>
       </c>
@@ -863,110 +863,110 @@
       <c r="J2" t="s">
         <v>3</v>
       </c>
-      <c r="K2" s="19" t="s">
+      <c r="K2" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="L2" s="19"/>
+      <c r="L2" s="20"/>
     </row>
     <row r="3" spans="1:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="20" t="s">
+      <c r="A3" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="20"/>
-      <c r="C3" s="20"/>
-      <c r="D3" s="20"/>
-      <c r="E3" s="20" t="s">
+      <c r="B3" s="21"/>
+      <c r="C3" s="21"/>
+      <c r="D3" s="21"/>
+      <c r="E3" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="F3" s="20"/>
-      <c r="G3" s="20" t="s">
+      <c r="F3" s="21"/>
+      <c r="G3" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="H3" s="20"/>
-      <c r="I3" s="20"/>
+      <c r="H3" s="21"/>
+      <c r="I3" s="21"/>
       <c r="J3" t="s">
         <v>8</v>
       </c>
-      <c r="K3" s="20" t="s">
-        <v>2</v>
-      </c>
-      <c r="L3" s="20"/>
+      <c r="K3" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="L3" s="21"/>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A4" s="11" t="s">
+      <c r="A4" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="9" t="s">
+      <c r="B4" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="17"/>
-      <c r="D4" s="11" t="s">
+      <c r="C4" s="18"/>
+      <c r="D4" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="E4" s="9" t="s">
+      <c r="E4" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="F4" s="17"/>
-      <c r="G4" s="11" t="s">
+      <c r="F4" s="18"/>
+      <c r="G4" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="H4" s="9" t="s">
+      <c r="H4" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="I4" s="17"/>
-      <c r="J4" s="11" t="s">
+      <c r="I4" s="18"/>
+      <c r="J4" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="K4" s="11" t="s">
+      <c r="K4" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="L4" s="11"/>
+      <c r="L4" s="12"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A5" s="11"/>
-      <c r="B5" s="9" t="s">
+      <c r="A5" s="12"/>
+      <c r="B5" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="10"/>
-      <c r="D5" s="11"/>
-      <c r="E5" s="9" t="s">
+      <c r="C5" s="11"/>
+      <c r="D5" s="12"/>
+      <c r="E5" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="F5" s="10"/>
-      <c r="G5" s="11"/>
-      <c r="H5" s="9" t="s">
+      <c r="F5" s="11"/>
+      <c r="G5" s="12"/>
+      <c r="H5" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="I5" s="10"/>
-      <c r="J5" s="11"/>
-      <c r="K5" s="11" t="s">
+      <c r="I5" s="11"/>
+      <c r="J5" s="12"/>
+      <c r="K5" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="L5" s="11"/>
+      <c r="L5" s="12"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A6" s="11"/>
+      <c r="A6" s="12"/>
       <c r="B6" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D6" s="11"/>
+      <c r="D6" s="12"/>
       <c r="E6" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F6" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="G6" s="11"/>
+      <c r="G6" s="12"/>
       <c r="H6" s="2" t="s">
         <v>12</v>
       </c>
       <c r="I6" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="J6" s="11"/>
+      <c r="J6" s="12"/>
       <c r="K6" s="2" t="s">
         <v>12</v>
       </c>
@@ -1270,11 +1270,11 @@
       <c r="G27" s="5"/>
       <c r="H27" s="2"/>
       <c r="I27" s="2"/>
-      <c r="J27" s="12" t="s">
+      <c r="J27" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="K27" s="13"/>
-      <c r="L27" s="14"/>
+      <c r="K27" s="14"/>
+      <c r="L27" s="15"/>
     </row>
     <row r="28" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="5"/>
@@ -1289,10 +1289,10 @@
       <c r="J28" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="K28" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="L28" s="10"/>
+      <c r="K28" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="L28" s="11"/>
     </row>
     <row r="29" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="5"/>
@@ -1307,10 +1307,10 @@
       <c r="J29" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="K29" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="L29" s="10"/>
+      <c r="K29" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="L29" s="11"/>
     </row>
     <row r="30" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="5"/>
@@ -1325,10 +1325,10 @@
       <c r="J30" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="K30" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="L30" s="16"/>
+      <c r="K30" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="L30" s="17"/>
     </row>
     <row r="31" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="5"/>
@@ -1343,10 +1343,10 @@
       <c r="J31" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="K31" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="L31" s="10"/>
+      <c r="K31" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="L31" s="11"/>
     </row>
     <row r="32" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="5"/>
@@ -1361,10 +1361,10 @@
       <c r="J32" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="K32" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="L32" s="10"/>
+      <c r="K32" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="L32" s="11"/>
     </row>
     <row r="33" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="5"/>
@@ -1379,10 +1379,10 @@
       <c r="J33" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="K33" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="L33" s="10"/>
+      <c r="K33" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="L33" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="28">
@@ -1433,7 +1433,7 @@
   <dimension ref="A1:X33"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="S26" sqref="S26:X33"/>
+      <selection activeCell="N24" sqref="N24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1449,43 +1449,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" ht="24.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
-      <c r="E1" s="18"/>
-      <c r="F1" s="18"/>
-      <c r="G1" s="18"/>
-      <c r="H1" s="18"/>
-      <c r="I1" s="18"/>
-      <c r="J1" s="18"/>
-      <c r="K1" s="18"/>
-      <c r="L1" s="18"/>
-      <c r="M1" s="18"/>
-      <c r="N1" s="18"/>
-      <c r="O1" s="18"/>
-      <c r="P1" s="18"/>
-      <c r="Q1" s="18"/>
-      <c r="R1" s="18"/>
-      <c r="S1" s="18"/>
-      <c r="T1" s="18"/>
-      <c r="U1" s="18"/>
-      <c r="V1" s="18"/>
-      <c r="W1" s="18"/>
-      <c r="X1" s="18"/>
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
+      <c r="F1" s="19"/>
+      <c r="G1" s="19"/>
+      <c r="H1" s="19"/>
+      <c r="I1" s="19"/>
+      <c r="J1" s="19"/>
+      <c r="K1" s="19"/>
+      <c r="L1" s="19"/>
+      <c r="M1" s="19"/>
+      <c r="N1" s="19"/>
+      <c r="O1" s="19"/>
+      <c r="P1" s="19"/>
+      <c r="Q1" s="19"/>
+      <c r="R1" s="19"/>
+      <c r="S1" s="19"/>
+      <c r="T1" s="19"/>
+      <c r="U1" s="19"/>
+      <c r="V1" s="19"/>
+      <c r="W1" s="19"/>
+      <c r="X1" s="19"/>
     </row>
     <row r="2" spans="1:24" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="19" t="s">
+      <c r="A2" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="19"/>
-      <c r="C2" s="19"/>
-      <c r="D2" s="19"/>
-      <c r="E2" s="19"/>
-      <c r="F2" s="19"/>
-      <c r="G2" s="19"/>
+      <c r="B2" s="20"/>
+      <c r="C2" s="20"/>
+      <c r="D2" s="20"/>
+      <c r="E2" s="20"/>
+      <c r="F2" s="20"/>
+      <c r="G2" s="20"/>
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
       <c r="J2" s="1"/>
@@ -1500,128 +1500,128 @@
       <c r="S2" t="s">
         <v>3</v>
       </c>
-      <c r="T2" s="19" t="s">
+      <c r="T2" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="U2" s="19"/>
-      <c r="V2" s="19"/>
-      <c r="W2" s="19"/>
-      <c r="X2" s="19"/>
+      <c r="U2" s="20"/>
+      <c r="V2" s="20"/>
+      <c r="W2" s="20"/>
+      <c r="X2" s="20"/>
     </row>
     <row r="3" spans="1:24" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="20" t="s">
+      <c r="A3" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="20"/>
-      <c r="C3" s="20"/>
-      <c r="D3" s="20"/>
-      <c r="E3" s="20"/>
-      <c r="F3" s="20"/>
-      <c r="G3" s="20"/>
-      <c r="H3" s="20" t="s">
+      <c r="B3" s="21"/>
+      <c r="C3" s="21"/>
+      <c r="D3" s="21"/>
+      <c r="E3" s="21"/>
+      <c r="F3" s="21"/>
+      <c r="G3" s="21"/>
+      <c r="H3" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="I3" s="20"/>
-      <c r="J3" s="20"/>
-      <c r="K3" s="20"/>
-      <c r="L3" s="20"/>
-      <c r="M3" s="20" t="s">
+      <c r="I3" s="21"/>
+      <c r="J3" s="21"/>
+      <c r="K3" s="21"/>
+      <c r="L3" s="21"/>
+      <c r="M3" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="N3" s="20"/>
-      <c r="O3" s="20"/>
-      <c r="P3" s="20"/>
-      <c r="Q3" s="20"/>
-      <c r="R3" s="20"/>
+      <c r="N3" s="21"/>
+      <c r="O3" s="21"/>
+      <c r="P3" s="21"/>
+      <c r="Q3" s="21"/>
+      <c r="R3" s="21"/>
       <c r="S3" t="s">
         <v>8</v>
       </c>
-      <c r="T3" s="20" t="s">
-        <v>2</v>
-      </c>
-      <c r="U3" s="20"/>
-      <c r="V3" s="20"/>
-      <c r="W3" s="20"/>
-      <c r="X3" s="20"/>
+      <c r="T3" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="U3" s="21"/>
+      <c r="V3" s="21"/>
+      <c r="W3" s="21"/>
+      <c r="X3" s="21"/>
     </row>
     <row r="4" spans="1:24" x14ac:dyDescent="0.15">
-      <c r="A4" s="11" t="s">
+      <c r="A4" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="9" t="s">
+      <c r="B4" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="17"/>
-      <c r="D4" s="17"/>
-      <c r="E4" s="17"/>
-      <c r="F4" s="17"/>
-      <c r="G4" s="11" t="s">
+      <c r="C4" s="18"/>
+      <c r="D4" s="18"/>
+      <c r="E4" s="18"/>
+      <c r="F4" s="18"/>
+      <c r="G4" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="H4" s="9" t="s">
+      <c r="H4" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="I4" s="17"/>
-      <c r="J4" s="17"/>
-      <c r="K4" s="17"/>
-      <c r="L4" s="17"/>
-      <c r="M4" s="24" t="s">
+      <c r="I4" s="18"/>
+      <c r="J4" s="18"/>
+      <c r="K4" s="18"/>
+      <c r="L4" s="18"/>
+      <c r="M4" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="N4" s="9" t="s">
+      <c r="N4" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="17"/>
-      <c r="P4" s="17"/>
-      <c r="Q4" s="17"/>
-      <c r="R4" s="17"/>
-      <c r="S4" s="11" t="s">
+      <c r="O4" s="18"/>
+      <c r="P4" s="18"/>
+      <c r="Q4" s="18"/>
+      <c r="R4" s="18"/>
+      <c r="S4" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="T4" s="11" t="s">
+      <c r="T4" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="U4" s="11"/>
-      <c r="V4" s="11"/>
-      <c r="W4" s="11"/>
-      <c r="X4" s="11"/>
+      <c r="U4" s="12"/>
+      <c r="V4" s="12"/>
+      <c r="W4" s="12"/>
+      <c r="X4" s="12"/>
     </row>
     <row r="5" spans="1:24" x14ac:dyDescent="0.15">
-      <c r="A5" s="11"/>
-      <c r="B5" s="9" t="s">
+      <c r="A5" s="12"/>
+      <c r="B5" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="C5" s="17"/>
-      <c r="D5" s="17"/>
-      <c r="E5" s="17"/>
-      <c r="F5" s="10"/>
-      <c r="G5" s="11"/>
-      <c r="H5" s="9" t="s">
+      <c r="C5" s="18"/>
+      <c r="D5" s="18"/>
+      <c r="E5" s="18"/>
+      <c r="F5" s="11"/>
+      <c r="G5" s="12"/>
+      <c r="H5" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="I5" s="17"/>
-      <c r="J5" s="17"/>
-      <c r="K5" s="17"/>
-      <c r="L5" s="10"/>
-      <c r="M5" s="25"/>
-      <c r="N5" s="9" t="s">
+      <c r="I5" s="18"/>
+      <c r="J5" s="18"/>
+      <c r="K5" s="18"/>
+      <c r="L5" s="11"/>
+      <c r="M5" s="26"/>
+      <c r="N5" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="O5" s="17"/>
-      <c r="P5" s="17"/>
-      <c r="Q5" s="17"/>
-      <c r="R5" s="10"/>
-      <c r="S5" s="11"/>
-      <c r="T5" s="9" t="s">
+      <c r="O5" s="18"/>
+      <c r="P5" s="18"/>
+      <c r="Q5" s="18"/>
+      <c r="R5" s="11"/>
+      <c r="S5" s="12"/>
+      <c r="T5" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="U5" s="17"/>
-      <c r="V5" s="17"/>
-      <c r="W5" s="17"/>
-      <c r="X5" s="10"/>
+      <c r="U5" s="18"/>
+      <c r="V5" s="18"/>
+      <c r="W5" s="18"/>
+      <c r="X5" s="11"/>
     </row>
     <row r="6" spans="1:24" x14ac:dyDescent="0.15">
-      <c r="A6" s="11"/>
+      <c r="A6" s="12"/>
       <c r="B6" s="2" t="s">
         <v>12</v>
       </c>
@@ -1637,7 +1637,7 @@
       <c r="F6" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="G6" s="11"/>
+      <c r="G6" s="12"/>
       <c r="H6" s="2" t="s">
         <v>12</v>
       </c>
@@ -1653,7 +1653,7 @@
       <c r="L6" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="M6" s="26"/>
+      <c r="M6" s="27"/>
       <c r="N6" s="2" t="s">
         <v>12</v>
       </c>
@@ -1669,7 +1669,7 @@
       <c r="R6" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="S6" s="11"/>
+      <c r="S6" s="12"/>
       <c r="T6" s="2" t="s">
         <v>12</v>
       </c>
@@ -2199,15 +2199,15 @@
       <c r="P26" s="4"/>
       <c r="Q26" s="4"/>
       <c r="R26" s="4"/>
-      <c r="S26" s="37" t="s">
+      <c r="S26" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="T26" s="34" t="s">
+      <c r="T26" s="35" t="s">
         <v>15</v>
       </c>
-      <c r="U26" s="35"/>
-      <c r="V26" s="35"/>
-      <c r="W26" s="36"/>
+      <c r="U26" s="36"/>
+      <c r="V26" s="36"/>
+      <c r="W26" s="37"/>
       <c r="X26" s="4" t="s">
         <v>2</v>
       </c>
@@ -2231,14 +2231,14 @@
       <c r="P27" s="4"/>
       <c r="Q27" s="4"/>
       <c r="R27" s="4"/>
-      <c r="S27" s="27" t="s">
+      <c r="S27" s="28" t="s">
         <v>16</v>
       </c>
-      <c r="T27" s="28"/>
-      <c r="U27" s="28"/>
-      <c r="V27" s="28"/>
-      <c r="W27" s="28"/>
-      <c r="X27" s="29"/>
+      <c r="T27" s="29"/>
+      <c r="U27" s="29"/>
+      <c r="V27" s="29"/>
+      <c r="W27" s="29"/>
+      <c r="X27" s="30"/>
     </row>
     <row r="28" spans="1:24" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="3"/>
@@ -2259,16 +2259,16 @@
       <c r="P28" s="4"/>
       <c r="Q28" s="4"/>
       <c r="R28" s="4"/>
-      <c r="S28" s="37" t="s">
+      <c r="S28" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="T28" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="U28" s="30"/>
-      <c r="V28" s="30"/>
-      <c r="W28" s="30"/>
-      <c r="X28" s="16"/>
+      <c r="T28" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="U28" s="31"/>
+      <c r="V28" s="31"/>
+      <c r="W28" s="31"/>
+      <c r="X28" s="17"/>
     </row>
     <row r="29" spans="1:24" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="3"/>
@@ -2289,16 +2289,16 @@
       <c r="P29" s="4"/>
       <c r="Q29" s="4"/>
       <c r="R29" s="4"/>
-      <c r="S29" s="37" t="s">
+      <c r="S29" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="T29" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="U29" s="30"/>
-      <c r="V29" s="30"/>
-      <c r="W29" s="30"/>
-      <c r="X29" s="16"/>
+      <c r="T29" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="U29" s="31"/>
+      <c r="V29" s="31"/>
+      <c r="W29" s="31"/>
+      <c r="X29" s="17"/>
     </row>
     <row r="30" spans="1:24" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="3"/>
@@ -2319,16 +2319,16 @@
       <c r="P30" s="4"/>
       <c r="Q30" s="4"/>
       <c r="R30" s="4"/>
-      <c r="S30" s="37" t="s">
+      <c r="S30" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="T30" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="U30" s="30"/>
-      <c r="V30" s="30"/>
-      <c r="W30" s="30"/>
-      <c r="X30" s="16"/>
+      <c r="T30" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="U30" s="31"/>
+      <c r="V30" s="31"/>
+      <c r="W30" s="31"/>
+      <c r="X30" s="17"/>
     </row>
     <row r="31" spans="1:24" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="3"/>
@@ -2349,16 +2349,16 @@
       <c r="P31" s="4"/>
       <c r="Q31" s="4"/>
       <c r="R31" s="4"/>
-      <c r="S31" s="37" t="s">
+      <c r="S31" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="T31" s="31" t="s">
-        <v>2</v>
-      </c>
-      <c r="U31" s="32"/>
-      <c r="V31" s="32"/>
-      <c r="W31" s="32"/>
-      <c r="X31" s="33"/>
+      <c r="T31" s="32" t="s">
+        <v>2</v>
+      </c>
+      <c r="U31" s="33"/>
+      <c r="V31" s="33"/>
+      <c r="W31" s="33"/>
+      <c r="X31" s="34"/>
     </row>
     <row r="32" spans="1:24" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="3"/>
@@ -2379,16 +2379,16 @@
       <c r="P32" s="4"/>
       <c r="Q32" s="4"/>
       <c r="R32" s="4"/>
-      <c r="S32" s="37" t="s">
+      <c r="S32" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="T32" s="21" t="s">
-        <v>2</v>
-      </c>
-      <c r="U32" s="22"/>
-      <c r="V32" s="22"/>
-      <c r="W32" s="22"/>
-      <c r="X32" s="23"/>
+      <c r="T32" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="U32" s="23"/>
+      <c r="V32" s="23"/>
+      <c r="W32" s="23"/>
+      <c r="X32" s="24"/>
     </row>
     <row r="33" spans="1:24" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="3"/>
@@ -2409,16 +2409,16 @@
       <c r="P33" s="4"/>
       <c r="Q33" s="4"/>
       <c r="R33" s="4"/>
-      <c r="S33" s="37" t="s">
+      <c r="S33" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="T33" s="21" t="s">
-        <v>2</v>
-      </c>
-      <c r="U33" s="22"/>
-      <c r="V33" s="22"/>
-      <c r="W33" s="22"/>
-      <c r="X33" s="23"/>
+      <c r="T33" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="U33" s="23"/>
+      <c r="V33" s="23"/>
+      <c r="W33" s="23"/>
+      <c r="X33" s="24"/>
     </row>
   </sheetData>
   <mergeCells count="29">
@@ -2472,7 +2472,7 @@
   <dimension ref="A1:X33"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="S26" sqref="S26:X33"/>
+      <selection activeCell="O23" sqref="O23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2488,43 +2488,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" ht="24.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="19" t="s">
         <v>32</v>
       </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
-      <c r="E1" s="18"/>
-      <c r="F1" s="18"/>
-      <c r="G1" s="18"/>
-      <c r="H1" s="18"/>
-      <c r="I1" s="18"/>
-      <c r="J1" s="18"/>
-      <c r="K1" s="18"/>
-      <c r="L1" s="18"/>
-      <c r="M1" s="18"/>
-      <c r="N1" s="18"/>
-      <c r="O1" s="18"/>
-      <c r="P1" s="18"/>
-      <c r="Q1" s="18"/>
-      <c r="R1" s="18"/>
-      <c r="S1" s="18"/>
-      <c r="T1" s="18"/>
-      <c r="U1" s="18"/>
-      <c r="V1" s="18"/>
-      <c r="W1" s="18"/>
-      <c r="X1" s="18"/>
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
+      <c r="F1" s="19"/>
+      <c r="G1" s="19"/>
+      <c r="H1" s="19"/>
+      <c r="I1" s="19"/>
+      <c r="J1" s="19"/>
+      <c r="K1" s="19"/>
+      <c r="L1" s="19"/>
+      <c r="M1" s="19"/>
+      <c r="N1" s="19"/>
+      <c r="O1" s="19"/>
+      <c r="P1" s="19"/>
+      <c r="Q1" s="19"/>
+      <c r="R1" s="19"/>
+      <c r="S1" s="19"/>
+      <c r="T1" s="19"/>
+      <c r="U1" s="19"/>
+      <c r="V1" s="19"/>
+      <c r="W1" s="19"/>
+      <c r="X1" s="19"/>
     </row>
     <row r="2" spans="1:24" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="19" t="s">
+      <c r="A2" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="19"/>
-      <c r="C2" s="19"/>
-      <c r="D2" s="19"/>
-      <c r="E2" s="19"/>
-      <c r="F2" s="19"/>
-      <c r="G2" s="19"/>
+      <c r="B2" s="20"/>
+      <c r="C2" s="20"/>
+      <c r="D2" s="20"/>
+      <c r="E2" s="20"/>
+      <c r="F2" s="20"/>
+      <c r="G2" s="20"/>
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
       <c r="J2" s="1"/>
@@ -2539,128 +2539,128 @@
       <c r="S2" t="s">
         <v>3</v>
       </c>
-      <c r="T2" s="19" t="s">
+      <c r="T2" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="U2" s="19"/>
-      <c r="V2" s="19"/>
-      <c r="W2" s="19"/>
-      <c r="X2" s="19"/>
+      <c r="U2" s="20"/>
+      <c r="V2" s="20"/>
+      <c r="W2" s="20"/>
+      <c r="X2" s="20"/>
     </row>
     <row r="3" spans="1:24" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="20" t="s">
+      <c r="A3" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="20"/>
-      <c r="C3" s="20"/>
-      <c r="D3" s="20"/>
-      <c r="E3" s="20"/>
-      <c r="F3" s="20"/>
-      <c r="G3" s="20"/>
-      <c r="H3" s="20" t="s">
+      <c r="B3" s="21"/>
+      <c r="C3" s="21"/>
+      <c r="D3" s="21"/>
+      <c r="E3" s="21"/>
+      <c r="F3" s="21"/>
+      <c r="G3" s="21"/>
+      <c r="H3" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="I3" s="20"/>
-      <c r="J3" s="20"/>
-      <c r="K3" s="20"/>
-      <c r="L3" s="20"/>
-      <c r="M3" s="20" t="s">
+      <c r="I3" s="21"/>
+      <c r="J3" s="21"/>
+      <c r="K3" s="21"/>
+      <c r="L3" s="21"/>
+      <c r="M3" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="N3" s="20"/>
-      <c r="O3" s="20"/>
-      <c r="P3" s="20"/>
-      <c r="Q3" s="20"/>
-      <c r="R3" s="20"/>
+      <c r="N3" s="21"/>
+      <c r="O3" s="21"/>
+      <c r="P3" s="21"/>
+      <c r="Q3" s="21"/>
+      <c r="R3" s="21"/>
       <c r="S3" t="s">
         <v>8</v>
       </c>
-      <c r="T3" s="20" t="s">
-        <v>2</v>
-      </c>
-      <c r="U3" s="20"/>
-      <c r="V3" s="20"/>
-      <c r="W3" s="20"/>
-      <c r="X3" s="20"/>
+      <c r="T3" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="U3" s="21"/>
+      <c r="V3" s="21"/>
+      <c r="W3" s="21"/>
+      <c r="X3" s="21"/>
     </row>
     <row r="4" spans="1:24" x14ac:dyDescent="0.15">
-      <c r="A4" s="11" t="s">
+      <c r="A4" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="9" t="s">
+      <c r="B4" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="17"/>
-      <c r="D4" s="17"/>
-      <c r="E4" s="17"/>
-      <c r="F4" s="17"/>
-      <c r="G4" s="11" t="s">
+      <c r="C4" s="18"/>
+      <c r="D4" s="18"/>
+      <c r="E4" s="18"/>
+      <c r="F4" s="18"/>
+      <c r="G4" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="H4" s="9" t="s">
+      <c r="H4" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="I4" s="17"/>
-      <c r="J4" s="17"/>
-      <c r="K4" s="17"/>
-      <c r="L4" s="17"/>
-      <c r="M4" s="24" t="s">
+      <c r="I4" s="18"/>
+      <c r="J4" s="18"/>
+      <c r="K4" s="18"/>
+      <c r="L4" s="18"/>
+      <c r="M4" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="N4" s="9" t="s">
+      <c r="N4" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="17"/>
-      <c r="P4" s="17"/>
-      <c r="Q4" s="17"/>
-      <c r="R4" s="17"/>
-      <c r="S4" s="11" t="s">
+      <c r="O4" s="18"/>
+      <c r="P4" s="18"/>
+      <c r="Q4" s="18"/>
+      <c r="R4" s="18"/>
+      <c r="S4" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="T4" s="11" t="s">
+      <c r="T4" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="U4" s="11"/>
-      <c r="V4" s="11"/>
-      <c r="W4" s="11"/>
-      <c r="X4" s="11"/>
+      <c r="U4" s="12"/>
+      <c r="V4" s="12"/>
+      <c r="W4" s="12"/>
+      <c r="X4" s="12"/>
     </row>
     <row r="5" spans="1:24" x14ac:dyDescent="0.15">
-      <c r="A5" s="11"/>
-      <c r="B5" s="9" t="s">
+      <c r="A5" s="12"/>
+      <c r="B5" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="C5" s="17"/>
-      <c r="D5" s="17"/>
-      <c r="E5" s="17"/>
-      <c r="F5" s="10"/>
-      <c r="G5" s="11"/>
-      <c r="H5" s="9" t="s">
+      <c r="C5" s="18"/>
+      <c r="D5" s="18"/>
+      <c r="E5" s="18"/>
+      <c r="F5" s="11"/>
+      <c r="G5" s="12"/>
+      <c r="H5" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="I5" s="17"/>
-      <c r="J5" s="17"/>
-      <c r="K5" s="17"/>
-      <c r="L5" s="10"/>
-      <c r="M5" s="25"/>
-      <c r="N5" s="9" t="s">
+      <c r="I5" s="18"/>
+      <c r="J5" s="18"/>
+      <c r="K5" s="18"/>
+      <c r="L5" s="11"/>
+      <c r="M5" s="26"/>
+      <c r="N5" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="O5" s="17"/>
-      <c r="P5" s="17"/>
-      <c r="Q5" s="17"/>
-      <c r="R5" s="10"/>
-      <c r="S5" s="11"/>
-      <c r="T5" s="9" t="s">
+      <c r="O5" s="18"/>
+      <c r="P5" s="18"/>
+      <c r="Q5" s="18"/>
+      <c r="R5" s="11"/>
+      <c r="S5" s="12"/>
+      <c r="T5" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="U5" s="17"/>
-      <c r="V5" s="17"/>
-      <c r="W5" s="17"/>
-      <c r="X5" s="10"/>
+      <c r="U5" s="18"/>
+      <c r="V5" s="18"/>
+      <c r="W5" s="18"/>
+      <c r="X5" s="11"/>
     </row>
     <row r="6" spans="1:24" x14ac:dyDescent="0.15">
-      <c r="A6" s="11"/>
+      <c r="A6" s="12"/>
       <c r="B6" s="2" t="s">
         <v>12</v>
       </c>
@@ -2676,7 +2676,7 @@
       <c r="F6" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="G6" s="11"/>
+      <c r="G6" s="12"/>
       <c r="H6" s="2" t="s">
         <v>12</v>
       </c>
@@ -2692,7 +2692,7 @@
       <c r="L6" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="M6" s="26"/>
+      <c r="M6" s="27"/>
       <c r="N6" s="2" t="s">
         <v>12</v>
       </c>
@@ -2708,7 +2708,7 @@
       <c r="R6" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="S6" s="11"/>
+      <c r="S6" s="12"/>
       <c r="T6" s="2" t="s">
         <v>12</v>
       </c>
@@ -3238,15 +3238,15 @@
       <c r="P26" s="4"/>
       <c r="Q26" s="4"/>
       <c r="R26" s="4"/>
-      <c r="S26" s="37" t="s">
+      <c r="S26" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="T26" s="34" t="s">
+      <c r="T26" s="35" t="s">
         <v>15</v>
       </c>
-      <c r="U26" s="35"/>
-      <c r="V26" s="35"/>
-      <c r="W26" s="36"/>
+      <c r="U26" s="36"/>
+      <c r="V26" s="36"/>
+      <c r="W26" s="37"/>
       <c r="X26" s="4" t="s">
         <v>2</v>
       </c>
@@ -3270,14 +3270,14 @@
       <c r="P27" s="4"/>
       <c r="Q27" s="4"/>
       <c r="R27" s="4"/>
-      <c r="S27" s="27" t="s">
+      <c r="S27" s="28" t="s">
         <v>16</v>
       </c>
-      <c r="T27" s="28"/>
-      <c r="U27" s="28"/>
-      <c r="V27" s="28"/>
-      <c r="W27" s="28"/>
-      <c r="X27" s="29"/>
+      <c r="T27" s="29"/>
+      <c r="U27" s="29"/>
+      <c r="V27" s="29"/>
+      <c r="W27" s="29"/>
+      <c r="X27" s="30"/>
     </row>
     <row r="28" spans="1:24" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="3"/>
@@ -3298,16 +3298,16 @@
       <c r="P28" s="4"/>
       <c r="Q28" s="4"/>
       <c r="R28" s="4"/>
-      <c r="S28" s="37" t="s">
+      <c r="S28" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="T28" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="U28" s="30"/>
-      <c r="V28" s="30"/>
-      <c r="W28" s="30"/>
-      <c r="X28" s="16"/>
+      <c r="T28" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="U28" s="31"/>
+      <c r="V28" s="31"/>
+      <c r="W28" s="31"/>
+      <c r="X28" s="17"/>
     </row>
     <row r="29" spans="1:24" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="3"/>
@@ -3328,16 +3328,16 @@
       <c r="P29" s="4"/>
       <c r="Q29" s="4"/>
       <c r="R29" s="4"/>
-      <c r="S29" s="37" t="s">
+      <c r="S29" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="T29" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="U29" s="30"/>
-      <c r="V29" s="30"/>
-      <c r="W29" s="30"/>
-      <c r="X29" s="16"/>
+      <c r="T29" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="U29" s="31"/>
+      <c r="V29" s="31"/>
+      <c r="W29" s="31"/>
+      <c r="X29" s="17"/>
     </row>
     <row r="30" spans="1:24" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="3"/>
@@ -3358,16 +3358,16 @@
       <c r="P30" s="4"/>
       <c r="Q30" s="4"/>
       <c r="R30" s="4"/>
-      <c r="S30" s="37" t="s">
+      <c r="S30" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="T30" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="U30" s="30"/>
-      <c r="V30" s="30"/>
-      <c r="W30" s="30"/>
-      <c r="X30" s="16"/>
+      <c r="T30" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="U30" s="31"/>
+      <c r="V30" s="31"/>
+      <c r="W30" s="31"/>
+      <c r="X30" s="17"/>
     </row>
     <row r="31" spans="1:24" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="3"/>
@@ -3388,16 +3388,16 @@
       <c r="P31" s="4"/>
       <c r="Q31" s="4"/>
       <c r="R31" s="4"/>
-      <c r="S31" s="37" t="s">
+      <c r="S31" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="T31" s="31" t="s">
-        <v>2</v>
-      </c>
-      <c r="U31" s="32"/>
-      <c r="V31" s="32"/>
-      <c r="W31" s="32"/>
-      <c r="X31" s="33"/>
+      <c r="T31" s="32" t="s">
+        <v>2</v>
+      </c>
+      <c r="U31" s="33"/>
+      <c r="V31" s="33"/>
+      <c r="W31" s="33"/>
+      <c r="X31" s="34"/>
     </row>
     <row r="32" spans="1:24" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="3"/>
@@ -3418,16 +3418,16 @@
       <c r="P32" s="4"/>
       <c r="Q32" s="4"/>
       <c r="R32" s="4"/>
-      <c r="S32" s="37" t="s">
+      <c r="S32" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="T32" s="21" t="s">
-        <v>2</v>
-      </c>
-      <c r="U32" s="22"/>
-      <c r="V32" s="22"/>
-      <c r="W32" s="22"/>
-      <c r="X32" s="23"/>
+      <c r="T32" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="U32" s="23"/>
+      <c r="V32" s="23"/>
+      <c r="W32" s="23"/>
+      <c r="X32" s="24"/>
     </row>
     <row r="33" spans="1:24" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="3"/>
@@ -3448,16 +3448,16 @@
       <c r="P33" s="4"/>
       <c r="Q33" s="4"/>
       <c r="R33" s="4"/>
-      <c r="S33" s="37" t="s">
+      <c r="S33" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="T33" s="21" t="s">
-        <v>2</v>
-      </c>
-      <c r="U33" s="22"/>
-      <c r="V33" s="22"/>
-      <c r="W33" s="22"/>
-      <c r="X33" s="23"/>
+      <c r="T33" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="U33" s="23"/>
+      <c r="V33" s="23"/>
+      <c r="W33" s="23"/>
+      <c r="X33" s="24"/>
     </row>
   </sheetData>
   <mergeCells count="29">
@@ -3511,7 +3511,7 @@
   <dimension ref="A1:X33"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="S26" sqref="S26:X33"/>
+      <selection activeCell="M38" sqref="M38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3527,43 +3527,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" ht="24.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="19" t="s">
         <v>32</v>
       </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
-      <c r="E1" s="18"/>
-      <c r="F1" s="18"/>
-      <c r="G1" s="18"/>
-      <c r="H1" s="18"/>
-      <c r="I1" s="18"/>
-      <c r="J1" s="18"/>
-      <c r="K1" s="18"/>
-      <c r="L1" s="18"/>
-      <c r="M1" s="18"/>
-      <c r="N1" s="18"/>
-      <c r="O1" s="18"/>
-      <c r="P1" s="18"/>
-      <c r="Q1" s="18"/>
-      <c r="R1" s="18"/>
-      <c r="S1" s="18"/>
-      <c r="T1" s="18"/>
-      <c r="U1" s="18"/>
-      <c r="V1" s="18"/>
-      <c r="W1" s="18"/>
-      <c r="X1" s="18"/>
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
+      <c r="F1" s="19"/>
+      <c r="G1" s="19"/>
+      <c r="H1" s="19"/>
+      <c r="I1" s="19"/>
+      <c r="J1" s="19"/>
+      <c r="K1" s="19"/>
+      <c r="L1" s="19"/>
+      <c r="M1" s="19"/>
+      <c r="N1" s="19"/>
+      <c r="O1" s="19"/>
+      <c r="P1" s="19"/>
+      <c r="Q1" s="19"/>
+      <c r="R1" s="19"/>
+      <c r="S1" s="19"/>
+      <c r="T1" s="19"/>
+      <c r="U1" s="19"/>
+      <c r="V1" s="19"/>
+      <c r="W1" s="19"/>
+      <c r="X1" s="19"/>
     </row>
     <row r="2" spans="1:24" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="19" t="s">
+      <c r="A2" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="19"/>
-      <c r="C2" s="19"/>
-      <c r="D2" s="19"/>
-      <c r="E2" s="19"/>
-      <c r="F2" s="19"/>
-      <c r="G2" s="19"/>
+      <c r="B2" s="20"/>
+      <c r="C2" s="20"/>
+      <c r="D2" s="20"/>
+      <c r="E2" s="20"/>
+      <c r="F2" s="20"/>
+      <c r="G2" s="20"/>
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
       <c r="J2" s="1"/>
@@ -3578,128 +3578,128 @@
       <c r="S2" t="s">
         <v>3</v>
       </c>
-      <c r="T2" s="19" t="s">
+      <c r="T2" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="U2" s="19"/>
-      <c r="V2" s="19"/>
-      <c r="W2" s="19"/>
-      <c r="X2" s="19"/>
+      <c r="U2" s="20"/>
+      <c r="V2" s="20"/>
+      <c r="W2" s="20"/>
+      <c r="X2" s="20"/>
     </row>
     <row r="3" spans="1:24" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="20" t="s">
+      <c r="A3" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="20"/>
-      <c r="C3" s="20"/>
-      <c r="D3" s="20"/>
-      <c r="E3" s="20"/>
-      <c r="F3" s="20"/>
-      <c r="G3" s="20"/>
-      <c r="H3" s="20" t="s">
+      <c r="B3" s="21"/>
+      <c r="C3" s="21"/>
+      <c r="D3" s="21"/>
+      <c r="E3" s="21"/>
+      <c r="F3" s="21"/>
+      <c r="G3" s="21"/>
+      <c r="H3" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="I3" s="20"/>
-      <c r="J3" s="20"/>
-      <c r="K3" s="20"/>
-      <c r="L3" s="20"/>
-      <c r="M3" s="20" t="s">
+      <c r="I3" s="21"/>
+      <c r="J3" s="21"/>
+      <c r="K3" s="21"/>
+      <c r="L3" s="21"/>
+      <c r="M3" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="N3" s="20"/>
-      <c r="O3" s="20"/>
-      <c r="P3" s="20"/>
-      <c r="Q3" s="20"/>
-      <c r="R3" s="20"/>
+      <c r="N3" s="21"/>
+      <c r="O3" s="21"/>
+      <c r="P3" s="21"/>
+      <c r="Q3" s="21"/>
+      <c r="R3" s="21"/>
       <c r="S3" t="s">
         <v>8</v>
       </c>
-      <c r="T3" s="20" t="s">
-        <v>2</v>
-      </c>
-      <c r="U3" s="20"/>
-      <c r="V3" s="20"/>
-      <c r="W3" s="20"/>
-      <c r="X3" s="20"/>
+      <c r="T3" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="U3" s="21"/>
+      <c r="V3" s="21"/>
+      <c r="W3" s="21"/>
+      <c r="X3" s="21"/>
     </row>
     <row r="4" spans="1:24" x14ac:dyDescent="0.15">
-      <c r="A4" s="11" t="s">
+      <c r="A4" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="9" t="s">
+      <c r="B4" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="17"/>
-      <c r="D4" s="17"/>
-      <c r="E4" s="17"/>
-      <c r="F4" s="17"/>
-      <c r="G4" s="11" t="s">
+      <c r="C4" s="18"/>
+      <c r="D4" s="18"/>
+      <c r="E4" s="18"/>
+      <c r="F4" s="18"/>
+      <c r="G4" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="H4" s="9" t="s">
+      <c r="H4" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="I4" s="17"/>
-      <c r="J4" s="17"/>
-      <c r="K4" s="17"/>
-      <c r="L4" s="17"/>
-      <c r="M4" s="24" t="s">
+      <c r="I4" s="18"/>
+      <c r="J4" s="18"/>
+      <c r="K4" s="18"/>
+      <c r="L4" s="18"/>
+      <c r="M4" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="N4" s="9" t="s">
+      <c r="N4" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="17"/>
-      <c r="P4" s="17"/>
-      <c r="Q4" s="17"/>
-      <c r="R4" s="17"/>
-      <c r="S4" s="11" t="s">
+      <c r="O4" s="18"/>
+      <c r="P4" s="18"/>
+      <c r="Q4" s="18"/>
+      <c r="R4" s="18"/>
+      <c r="S4" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="T4" s="11" t="s">
+      <c r="T4" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="U4" s="11"/>
-      <c r="V4" s="11"/>
-      <c r="W4" s="11"/>
-      <c r="X4" s="11"/>
+      <c r="U4" s="12"/>
+      <c r="V4" s="12"/>
+      <c r="W4" s="12"/>
+      <c r="X4" s="12"/>
     </row>
     <row r="5" spans="1:24" x14ac:dyDescent="0.15">
-      <c r="A5" s="11"/>
-      <c r="B5" s="9" t="s">
+      <c r="A5" s="12"/>
+      <c r="B5" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="C5" s="17"/>
-      <c r="D5" s="17"/>
-      <c r="E5" s="17"/>
-      <c r="F5" s="10"/>
-      <c r="G5" s="11"/>
-      <c r="H5" s="9" t="s">
+      <c r="C5" s="18"/>
+      <c r="D5" s="18"/>
+      <c r="E5" s="18"/>
+      <c r="F5" s="11"/>
+      <c r="G5" s="12"/>
+      <c r="H5" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="I5" s="17"/>
-      <c r="J5" s="17"/>
-      <c r="K5" s="17"/>
-      <c r="L5" s="10"/>
-      <c r="M5" s="25"/>
-      <c r="N5" s="9" t="s">
+      <c r="I5" s="18"/>
+      <c r="J5" s="18"/>
+      <c r="K5" s="18"/>
+      <c r="L5" s="11"/>
+      <c r="M5" s="26"/>
+      <c r="N5" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="O5" s="17"/>
-      <c r="P5" s="17"/>
-      <c r="Q5" s="17"/>
-      <c r="R5" s="10"/>
-      <c r="S5" s="11"/>
-      <c r="T5" s="9" t="s">
+      <c r="O5" s="18"/>
+      <c r="P5" s="18"/>
+      <c r="Q5" s="18"/>
+      <c r="R5" s="11"/>
+      <c r="S5" s="12"/>
+      <c r="T5" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="U5" s="17"/>
-      <c r="V5" s="17"/>
-      <c r="W5" s="17"/>
-      <c r="X5" s="10"/>
+      <c r="U5" s="18"/>
+      <c r="V5" s="18"/>
+      <c r="W5" s="18"/>
+      <c r="X5" s="11"/>
     </row>
     <row r="6" spans="1:24" x14ac:dyDescent="0.15">
-      <c r="A6" s="11"/>
+      <c r="A6" s="12"/>
       <c r="B6" s="2" t="s">
         <v>12</v>
       </c>
@@ -3715,7 +3715,7 @@
       <c r="F6" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="G6" s="11"/>
+      <c r="G6" s="12"/>
       <c r="H6" s="2" t="s">
         <v>12</v>
       </c>
@@ -3731,7 +3731,7 @@
       <c r="L6" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="M6" s="26"/>
+      <c r="M6" s="27"/>
       <c r="N6" s="2" t="s">
         <v>12</v>
       </c>
@@ -3747,7 +3747,7 @@
       <c r="R6" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="S6" s="11"/>
+      <c r="S6" s="12"/>
       <c r="T6" s="2" t="s">
         <v>12</v>
       </c>
@@ -4277,15 +4277,15 @@
       <c r="P26" s="4"/>
       <c r="Q26" s="4"/>
       <c r="R26" s="4"/>
-      <c r="S26" s="37" t="s">
+      <c r="S26" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="T26" s="34" t="s">
+      <c r="T26" s="35" t="s">
         <v>15</v>
       </c>
-      <c r="U26" s="35"/>
-      <c r="V26" s="35"/>
-      <c r="W26" s="36"/>
+      <c r="U26" s="36"/>
+      <c r="V26" s="36"/>
+      <c r="W26" s="37"/>
       <c r="X26" s="4" t="s">
         <v>2</v>
       </c>
@@ -4309,14 +4309,14 @@
       <c r="P27" s="4"/>
       <c r="Q27" s="4"/>
       <c r="R27" s="4"/>
-      <c r="S27" s="27" t="s">
+      <c r="S27" s="28" t="s">
         <v>16</v>
       </c>
-      <c r="T27" s="28"/>
-      <c r="U27" s="28"/>
-      <c r="V27" s="28"/>
-      <c r="W27" s="28"/>
-      <c r="X27" s="29"/>
+      <c r="T27" s="29"/>
+      <c r="U27" s="29"/>
+      <c r="V27" s="29"/>
+      <c r="W27" s="29"/>
+      <c r="X27" s="30"/>
     </row>
     <row r="28" spans="1:24" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="3"/>
@@ -4337,16 +4337,16 @@
       <c r="P28" s="4"/>
       <c r="Q28" s="4"/>
       <c r="R28" s="4"/>
-      <c r="S28" s="37" t="s">
+      <c r="S28" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="T28" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="U28" s="30"/>
-      <c r="V28" s="30"/>
-      <c r="W28" s="30"/>
-      <c r="X28" s="16"/>
+      <c r="T28" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="U28" s="31"/>
+      <c r="V28" s="31"/>
+      <c r="W28" s="31"/>
+      <c r="X28" s="17"/>
     </row>
     <row r="29" spans="1:24" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="3"/>
@@ -4367,16 +4367,16 @@
       <c r="P29" s="4"/>
       <c r="Q29" s="4"/>
       <c r="R29" s="4"/>
-      <c r="S29" s="37" t="s">
+      <c r="S29" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="T29" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="U29" s="30"/>
-      <c r="V29" s="30"/>
-      <c r="W29" s="30"/>
-      <c r="X29" s="16"/>
+      <c r="T29" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="U29" s="31"/>
+      <c r="V29" s="31"/>
+      <c r="W29" s="31"/>
+      <c r="X29" s="17"/>
     </row>
     <row r="30" spans="1:24" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="3"/>
@@ -4397,16 +4397,16 @@
       <c r="P30" s="4"/>
       <c r="Q30" s="4"/>
       <c r="R30" s="4"/>
-      <c r="S30" s="37" t="s">
+      <c r="S30" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="T30" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="U30" s="30"/>
-      <c r="V30" s="30"/>
-      <c r="W30" s="30"/>
-      <c r="X30" s="16"/>
+      <c r="T30" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="U30" s="31"/>
+      <c r="V30" s="31"/>
+      <c r="W30" s="31"/>
+      <c r="X30" s="17"/>
     </row>
     <row r="31" spans="1:24" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="3"/>
@@ -4427,16 +4427,16 @@
       <c r="P31" s="4"/>
       <c r="Q31" s="4"/>
       <c r="R31" s="4"/>
-      <c r="S31" s="37" t="s">
+      <c r="S31" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="T31" s="31" t="s">
-        <v>2</v>
-      </c>
-      <c r="U31" s="32"/>
-      <c r="V31" s="32"/>
-      <c r="W31" s="32"/>
-      <c r="X31" s="33"/>
+      <c r="T31" s="32" t="s">
+        <v>2</v>
+      </c>
+      <c r="U31" s="33"/>
+      <c r="V31" s="33"/>
+      <c r="W31" s="33"/>
+      <c r="X31" s="34"/>
     </row>
     <row r="32" spans="1:24" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="3"/>
@@ -4457,16 +4457,16 @@
       <c r="P32" s="4"/>
       <c r="Q32" s="4"/>
       <c r="R32" s="4"/>
-      <c r="S32" s="37" t="s">
+      <c r="S32" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="T32" s="21" t="s">
-        <v>2</v>
-      </c>
-      <c r="U32" s="22"/>
-      <c r="V32" s="22"/>
-      <c r="W32" s="22"/>
-      <c r="X32" s="23"/>
+      <c r="T32" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="U32" s="23"/>
+      <c r="V32" s="23"/>
+      <c r="W32" s="23"/>
+      <c r="X32" s="24"/>
     </row>
     <row r="33" spans="1:24" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="3"/>
@@ -4487,16 +4487,16 @@
       <c r="P33" s="4"/>
       <c r="Q33" s="4"/>
       <c r="R33" s="4"/>
-      <c r="S33" s="37" t="s">
+      <c r="S33" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="T33" s="21" t="s">
-        <v>2</v>
-      </c>
-      <c r="U33" s="22"/>
-      <c r="V33" s="22"/>
-      <c r="W33" s="22"/>
-      <c r="X33" s="23"/>
+      <c r="T33" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="U33" s="23"/>
+      <c r="V33" s="23"/>
+      <c r="W33" s="23"/>
+      <c r="X33" s="24"/>
     </row>
   </sheetData>
   <mergeCells count="29">
@@ -4550,7 +4550,7 @@
   <dimension ref="A1:X33"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="S26" sqref="S26:X33"/>
+      <selection activeCell="P24" sqref="P24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -4566,43 +4566,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" ht="24.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
-      <c r="E1" s="18"/>
-      <c r="F1" s="18"/>
-      <c r="G1" s="18"/>
-      <c r="H1" s="18"/>
-      <c r="I1" s="18"/>
-      <c r="J1" s="18"/>
-      <c r="K1" s="18"/>
-      <c r="L1" s="18"/>
-      <c r="M1" s="18"/>
-      <c r="N1" s="18"/>
-      <c r="O1" s="18"/>
-      <c r="P1" s="18"/>
-      <c r="Q1" s="18"/>
-      <c r="R1" s="18"/>
-      <c r="S1" s="18"/>
-      <c r="T1" s="18"/>
-      <c r="U1" s="18"/>
-      <c r="V1" s="18"/>
-      <c r="W1" s="18"/>
-      <c r="X1" s="18"/>
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
+      <c r="F1" s="19"/>
+      <c r="G1" s="19"/>
+      <c r="H1" s="19"/>
+      <c r="I1" s="19"/>
+      <c r="J1" s="19"/>
+      <c r="K1" s="19"/>
+      <c r="L1" s="19"/>
+      <c r="M1" s="19"/>
+      <c r="N1" s="19"/>
+      <c r="O1" s="19"/>
+      <c r="P1" s="19"/>
+      <c r="Q1" s="19"/>
+      <c r="R1" s="19"/>
+      <c r="S1" s="19"/>
+      <c r="T1" s="19"/>
+      <c r="U1" s="19"/>
+      <c r="V1" s="19"/>
+      <c r="W1" s="19"/>
+      <c r="X1" s="19"/>
     </row>
     <row r="2" spans="1:24" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="19" t="s">
+      <c r="A2" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="19"/>
-      <c r="C2" s="19"/>
-      <c r="D2" s="19"/>
-      <c r="E2" s="19"/>
-      <c r="F2" s="19"/>
-      <c r="G2" s="19"/>
+      <c r="B2" s="20"/>
+      <c r="C2" s="20"/>
+      <c r="D2" s="20"/>
+      <c r="E2" s="20"/>
+      <c r="F2" s="20"/>
+      <c r="G2" s="20"/>
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
       <c r="J2" s="1"/>
@@ -4617,128 +4617,128 @@
       <c r="S2" t="s">
         <v>3</v>
       </c>
-      <c r="T2" s="19" t="s">
+      <c r="T2" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="U2" s="19"/>
-      <c r="V2" s="19"/>
-      <c r="W2" s="19"/>
-      <c r="X2" s="19"/>
+      <c r="U2" s="20"/>
+      <c r="V2" s="20"/>
+      <c r="W2" s="20"/>
+      <c r="X2" s="20"/>
     </row>
     <row r="3" spans="1:24" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="20" t="s">
+      <c r="A3" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="20"/>
-      <c r="C3" s="20"/>
-      <c r="D3" s="20"/>
-      <c r="E3" s="20"/>
-      <c r="F3" s="20"/>
-      <c r="G3" s="20"/>
-      <c r="H3" s="20" t="s">
+      <c r="B3" s="21"/>
+      <c r="C3" s="21"/>
+      <c r="D3" s="21"/>
+      <c r="E3" s="21"/>
+      <c r="F3" s="21"/>
+      <c r="G3" s="21"/>
+      <c r="H3" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="I3" s="20"/>
-      <c r="J3" s="20"/>
-      <c r="K3" s="20"/>
-      <c r="L3" s="20"/>
-      <c r="M3" s="20" t="s">
+      <c r="I3" s="21"/>
+      <c r="J3" s="21"/>
+      <c r="K3" s="21"/>
+      <c r="L3" s="21"/>
+      <c r="M3" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="N3" s="20"/>
-      <c r="O3" s="20"/>
-      <c r="P3" s="20"/>
-      <c r="Q3" s="20"/>
-      <c r="R3" s="20"/>
+      <c r="N3" s="21"/>
+      <c r="O3" s="21"/>
+      <c r="P3" s="21"/>
+      <c r="Q3" s="21"/>
+      <c r="R3" s="21"/>
       <c r="S3" t="s">
         <v>8</v>
       </c>
-      <c r="T3" s="20" t="s">
-        <v>2</v>
-      </c>
-      <c r="U3" s="20"/>
-      <c r="V3" s="20"/>
-      <c r="W3" s="20"/>
-      <c r="X3" s="20"/>
+      <c r="T3" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="U3" s="21"/>
+      <c r="V3" s="21"/>
+      <c r="W3" s="21"/>
+      <c r="X3" s="21"/>
     </row>
     <row r="4" spans="1:24" x14ac:dyDescent="0.15">
-      <c r="A4" s="11" t="s">
+      <c r="A4" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="9" t="s">
+      <c r="B4" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="17"/>
-      <c r="D4" s="17"/>
-      <c r="E4" s="17"/>
-      <c r="F4" s="17"/>
-      <c r="G4" s="11" t="s">
+      <c r="C4" s="18"/>
+      <c r="D4" s="18"/>
+      <c r="E4" s="18"/>
+      <c r="F4" s="18"/>
+      <c r="G4" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="H4" s="9" t="s">
+      <c r="H4" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="I4" s="17"/>
-      <c r="J4" s="17"/>
-      <c r="K4" s="17"/>
-      <c r="L4" s="17"/>
-      <c r="M4" s="24" t="s">
+      <c r="I4" s="18"/>
+      <c r="J4" s="18"/>
+      <c r="K4" s="18"/>
+      <c r="L4" s="18"/>
+      <c r="M4" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="N4" s="9" t="s">
+      <c r="N4" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="17"/>
-      <c r="P4" s="17"/>
-      <c r="Q4" s="17"/>
-      <c r="R4" s="17"/>
-      <c r="S4" s="11" t="s">
+      <c r="O4" s="18"/>
+      <c r="P4" s="18"/>
+      <c r="Q4" s="18"/>
+      <c r="R4" s="18"/>
+      <c r="S4" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="T4" s="11" t="s">
+      <c r="T4" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="U4" s="11"/>
-      <c r="V4" s="11"/>
-      <c r="W4" s="11"/>
-      <c r="X4" s="11"/>
+      <c r="U4" s="12"/>
+      <c r="V4" s="12"/>
+      <c r="W4" s="12"/>
+      <c r="X4" s="12"/>
     </row>
     <row r="5" spans="1:24" x14ac:dyDescent="0.15">
-      <c r="A5" s="11"/>
-      <c r="B5" s="9" t="s">
+      <c r="A5" s="12"/>
+      <c r="B5" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="C5" s="17"/>
-      <c r="D5" s="17"/>
-      <c r="E5" s="17"/>
-      <c r="F5" s="10"/>
-      <c r="G5" s="11"/>
-      <c r="H5" s="9" t="s">
+      <c r="C5" s="18"/>
+      <c r="D5" s="18"/>
+      <c r="E5" s="18"/>
+      <c r="F5" s="11"/>
+      <c r="G5" s="12"/>
+      <c r="H5" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="I5" s="17"/>
-      <c r="J5" s="17"/>
-      <c r="K5" s="17"/>
-      <c r="L5" s="10"/>
-      <c r="M5" s="25"/>
-      <c r="N5" s="9" t="s">
+      <c r="I5" s="18"/>
+      <c r="J5" s="18"/>
+      <c r="K5" s="18"/>
+      <c r="L5" s="11"/>
+      <c r="M5" s="26"/>
+      <c r="N5" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="O5" s="17"/>
-      <c r="P5" s="17"/>
-      <c r="Q5" s="17"/>
-      <c r="R5" s="10"/>
-      <c r="S5" s="11"/>
-      <c r="T5" s="9" t="s">
+      <c r="O5" s="18"/>
+      <c r="P5" s="18"/>
+      <c r="Q5" s="18"/>
+      <c r="R5" s="11"/>
+      <c r="S5" s="12"/>
+      <c r="T5" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="U5" s="17"/>
-      <c r="V5" s="17"/>
-      <c r="W5" s="17"/>
-      <c r="X5" s="10"/>
+      <c r="U5" s="18"/>
+      <c r="V5" s="18"/>
+      <c r="W5" s="18"/>
+      <c r="X5" s="11"/>
     </row>
     <row r="6" spans="1:24" x14ac:dyDescent="0.15">
-      <c r="A6" s="11"/>
+      <c r="A6" s="12"/>
       <c r="B6" s="2" t="s">
         <v>12</v>
       </c>
@@ -4754,7 +4754,7 @@
       <c r="F6" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="G6" s="11"/>
+      <c r="G6" s="12"/>
       <c r="H6" s="2" t="s">
         <v>12</v>
       </c>
@@ -4770,7 +4770,7 @@
       <c r="L6" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="M6" s="26"/>
+      <c r="M6" s="27"/>
       <c r="N6" s="2" t="s">
         <v>12</v>
       </c>
@@ -4786,7 +4786,7 @@
       <c r="R6" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="S6" s="11"/>
+      <c r="S6" s="12"/>
       <c r="T6" s="2" t="s">
         <v>12</v>
       </c>
@@ -5316,15 +5316,15 @@
       <c r="P26" s="4"/>
       <c r="Q26" s="4"/>
       <c r="R26" s="4"/>
-      <c r="S26" s="37" t="s">
+      <c r="S26" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="T26" s="34" t="s">
+      <c r="T26" s="35" t="s">
         <v>15</v>
       </c>
-      <c r="U26" s="35"/>
-      <c r="V26" s="35"/>
-      <c r="W26" s="36"/>
+      <c r="U26" s="36"/>
+      <c r="V26" s="36"/>
+      <c r="W26" s="37"/>
       <c r="X26" s="4" t="s">
         <v>2</v>
       </c>
@@ -5348,14 +5348,14 @@
       <c r="P27" s="4"/>
       <c r="Q27" s="4"/>
       <c r="R27" s="4"/>
-      <c r="S27" s="27" t="s">
+      <c r="S27" s="28" t="s">
         <v>16</v>
       </c>
-      <c r="T27" s="28"/>
-      <c r="U27" s="28"/>
-      <c r="V27" s="28"/>
-      <c r="W27" s="28"/>
-      <c r="X27" s="29"/>
+      <c r="T27" s="29"/>
+      <c r="U27" s="29"/>
+      <c r="V27" s="29"/>
+      <c r="W27" s="29"/>
+      <c r="X27" s="30"/>
     </row>
     <row r="28" spans="1:24" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="3"/>
@@ -5376,16 +5376,16 @@
       <c r="P28" s="4"/>
       <c r="Q28" s="4"/>
       <c r="R28" s="4"/>
-      <c r="S28" s="37" t="s">
+      <c r="S28" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="T28" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="U28" s="30"/>
-      <c r="V28" s="30"/>
-      <c r="W28" s="30"/>
-      <c r="X28" s="16"/>
+      <c r="T28" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="U28" s="31"/>
+      <c r="V28" s="31"/>
+      <c r="W28" s="31"/>
+      <c r="X28" s="17"/>
     </row>
     <row r="29" spans="1:24" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="3"/>
@@ -5406,16 +5406,16 @@
       <c r="P29" s="4"/>
       <c r="Q29" s="4"/>
       <c r="R29" s="4"/>
-      <c r="S29" s="37" t="s">
+      <c r="S29" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="T29" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="U29" s="30"/>
-      <c r="V29" s="30"/>
-      <c r="W29" s="30"/>
-      <c r="X29" s="16"/>
+      <c r="T29" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="U29" s="31"/>
+      <c r="V29" s="31"/>
+      <c r="W29" s="31"/>
+      <c r="X29" s="17"/>
     </row>
     <row r="30" spans="1:24" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="3"/>
@@ -5436,16 +5436,16 @@
       <c r="P30" s="4"/>
       <c r="Q30" s="4"/>
       <c r="R30" s="4"/>
-      <c r="S30" s="37" t="s">
+      <c r="S30" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="T30" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="U30" s="30"/>
-      <c r="V30" s="30"/>
-      <c r="W30" s="30"/>
-      <c r="X30" s="16"/>
+      <c r="T30" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="U30" s="31"/>
+      <c r="V30" s="31"/>
+      <c r="W30" s="31"/>
+      <c r="X30" s="17"/>
     </row>
     <row r="31" spans="1:24" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="3"/>
@@ -5466,16 +5466,16 @@
       <c r="P31" s="4"/>
       <c r="Q31" s="4"/>
       <c r="R31" s="4"/>
-      <c r="S31" s="37" t="s">
+      <c r="S31" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="T31" s="31" t="s">
-        <v>2</v>
-      </c>
-      <c r="U31" s="32"/>
-      <c r="V31" s="32"/>
-      <c r="W31" s="32"/>
-      <c r="X31" s="33"/>
+      <c r="T31" s="32" t="s">
+        <v>2</v>
+      </c>
+      <c r="U31" s="33"/>
+      <c r="V31" s="33"/>
+      <c r="W31" s="33"/>
+      <c r="X31" s="34"/>
     </row>
     <row r="32" spans="1:24" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="3"/>
@@ -5496,16 +5496,16 @@
       <c r="P32" s="4"/>
       <c r="Q32" s="4"/>
       <c r="R32" s="4"/>
-      <c r="S32" s="37" t="s">
+      <c r="S32" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="T32" s="21" t="s">
-        <v>2</v>
-      </c>
-      <c r="U32" s="22"/>
-      <c r="V32" s="22"/>
-      <c r="W32" s="22"/>
-      <c r="X32" s="23"/>
+      <c r="T32" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="U32" s="23"/>
+      <c r="V32" s="23"/>
+      <c r="W32" s="23"/>
+      <c r="X32" s="24"/>
     </row>
     <row r="33" spans="1:24" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="3"/>
@@ -5526,16 +5526,16 @@
       <c r="P33" s="4"/>
       <c r="Q33" s="4"/>
       <c r="R33" s="4"/>
-      <c r="S33" s="37" t="s">
+      <c r="S33" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="T33" s="21" t="s">
-        <v>2</v>
-      </c>
-      <c r="U33" s="22"/>
-      <c r="V33" s="22"/>
-      <c r="W33" s="22"/>
-      <c r="X33" s="23"/>
+      <c r="T33" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="U33" s="23"/>
+      <c r="V33" s="23"/>
+      <c r="W33" s="23"/>
+      <c r="X33" s="24"/>
     </row>
   </sheetData>
   <mergeCells count="29">
@@ -5589,7 +5589,7 @@
   <dimension ref="A1:X33"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="S26" sqref="S26:X33"/>
+      <selection activeCell="P20" sqref="P20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -5605,43 +5605,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" ht="24.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
-      <c r="E1" s="18"/>
-      <c r="F1" s="18"/>
-      <c r="G1" s="18"/>
-      <c r="H1" s="18"/>
-      <c r="I1" s="18"/>
-      <c r="J1" s="18"/>
-      <c r="K1" s="18"/>
-      <c r="L1" s="18"/>
-      <c r="M1" s="18"/>
-      <c r="N1" s="18"/>
-      <c r="O1" s="18"/>
-      <c r="P1" s="18"/>
-      <c r="Q1" s="18"/>
-      <c r="R1" s="18"/>
-      <c r="S1" s="18"/>
-      <c r="T1" s="18"/>
-      <c r="U1" s="18"/>
-      <c r="V1" s="18"/>
-      <c r="W1" s="18"/>
-      <c r="X1" s="18"/>
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
+      <c r="F1" s="19"/>
+      <c r="G1" s="19"/>
+      <c r="H1" s="19"/>
+      <c r="I1" s="19"/>
+      <c r="J1" s="19"/>
+      <c r="K1" s="19"/>
+      <c r="L1" s="19"/>
+      <c r="M1" s="19"/>
+      <c r="N1" s="19"/>
+      <c r="O1" s="19"/>
+      <c r="P1" s="19"/>
+      <c r="Q1" s="19"/>
+      <c r="R1" s="19"/>
+      <c r="S1" s="19"/>
+      <c r="T1" s="19"/>
+      <c r="U1" s="19"/>
+      <c r="V1" s="19"/>
+      <c r="W1" s="19"/>
+      <c r="X1" s="19"/>
     </row>
     <row r="2" spans="1:24" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="19" t="s">
+      <c r="A2" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="19"/>
-      <c r="C2" s="19"/>
-      <c r="D2" s="19"/>
-      <c r="E2" s="19"/>
-      <c r="F2" s="19"/>
-      <c r="G2" s="19"/>
+      <c r="B2" s="20"/>
+      <c r="C2" s="20"/>
+      <c r="D2" s="20"/>
+      <c r="E2" s="20"/>
+      <c r="F2" s="20"/>
+      <c r="G2" s="20"/>
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
       <c r="J2" s="1"/>
@@ -5656,128 +5656,128 @@
       <c r="S2" t="s">
         <v>3</v>
       </c>
-      <c r="T2" s="19" t="s">
+      <c r="T2" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="U2" s="19"/>
-      <c r="V2" s="19"/>
-      <c r="W2" s="19"/>
-      <c r="X2" s="19"/>
+      <c r="U2" s="20"/>
+      <c r="V2" s="20"/>
+      <c r="W2" s="20"/>
+      <c r="X2" s="20"/>
     </row>
     <row r="3" spans="1:24" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="20" t="s">
+      <c r="A3" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="20"/>
-      <c r="C3" s="20"/>
-      <c r="D3" s="20"/>
-      <c r="E3" s="20"/>
-      <c r="F3" s="20"/>
-      <c r="G3" s="20"/>
-      <c r="H3" s="20" t="s">
+      <c r="B3" s="21"/>
+      <c r="C3" s="21"/>
+      <c r="D3" s="21"/>
+      <c r="E3" s="21"/>
+      <c r="F3" s="21"/>
+      <c r="G3" s="21"/>
+      <c r="H3" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="I3" s="20"/>
-      <c r="J3" s="20"/>
-      <c r="K3" s="20"/>
-      <c r="L3" s="20"/>
-      <c r="M3" s="20" t="s">
+      <c r="I3" s="21"/>
+      <c r="J3" s="21"/>
+      <c r="K3" s="21"/>
+      <c r="L3" s="21"/>
+      <c r="M3" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="N3" s="20"/>
-      <c r="O3" s="20"/>
-      <c r="P3" s="20"/>
-      <c r="Q3" s="20"/>
-      <c r="R3" s="20"/>
+      <c r="N3" s="21"/>
+      <c r="O3" s="21"/>
+      <c r="P3" s="21"/>
+      <c r="Q3" s="21"/>
+      <c r="R3" s="21"/>
       <c r="S3" t="s">
         <v>8</v>
       </c>
-      <c r="T3" s="20" t="s">
-        <v>2</v>
-      </c>
-      <c r="U3" s="20"/>
-      <c r="V3" s="20"/>
-      <c r="W3" s="20"/>
-      <c r="X3" s="20"/>
+      <c r="T3" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="U3" s="21"/>
+      <c r="V3" s="21"/>
+      <c r="W3" s="21"/>
+      <c r="X3" s="21"/>
     </row>
     <row r="4" spans="1:24" x14ac:dyDescent="0.15">
-      <c r="A4" s="11" t="s">
+      <c r="A4" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="9" t="s">
+      <c r="B4" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="17"/>
-      <c r="D4" s="17"/>
-      <c r="E4" s="17"/>
-      <c r="F4" s="17"/>
-      <c r="G4" s="11" t="s">
+      <c r="C4" s="18"/>
+      <c r="D4" s="18"/>
+      <c r="E4" s="18"/>
+      <c r="F4" s="18"/>
+      <c r="G4" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="H4" s="9" t="s">
+      <c r="H4" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="I4" s="17"/>
-      <c r="J4" s="17"/>
-      <c r="K4" s="17"/>
-      <c r="L4" s="17"/>
-      <c r="M4" s="24" t="s">
+      <c r="I4" s="18"/>
+      <c r="J4" s="18"/>
+      <c r="K4" s="18"/>
+      <c r="L4" s="18"/>
+      <c r="M4" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="N4" s="9" t="s">
+      <c r="N4" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="17"/>
-      <c r="P4" s="17"/>
-      <c r="Q4" s="17"/>
-      <c r="R4" s="17"/>
-      <c r="S4" s="11" t="s">
+      <c r="O4" s="18"/>
+      <c r="P4" s="18"/>
+      <c r="Q4" s="18"/>
+      <c r="R4" s="18"/>
+      <c r="S4" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="T4" s="11" t="s">
+      <c r="T4" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="U4" s="11"/>
-      <c r="V4" s="11"/>
-      <c r="W4" s="11"/>
-      <c r="X4" s="11"/>
+      <c r="U4" s="12"/>
+      <c r="V4" s="12"/>
+      <c r="W4" s="12"/>
+      <c r="X4" s="12"/>
     </row>
     <row r="5" spans="1:24" x14ac:dyDescent="0.15">
-      <c r="A5" s="11"/>
-      <c r="B5" s="9" t="s">
+      <c r="A5" s="12"/>
+      <c r="B5" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="C5" s="17"/>
-      <c r="D5" s="17"/>
-      <c r="E5" s="17"/>
-      <c r="F5" s="10"/>
-      <c r="G5" s="11"/>
-      <c r="H5" s="9" t="s">
+      <c r="C5" s="18"/>
+      <c r="D5" s="18"/>
+      <c r="E5" s="18"/>
+      <c r="F5" s="11"/>
+      <c r="G5" s="12"/>
+      <c r="H5" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="I5" s="17"/>
-      <c r="J5" s="17"/>
-      <c r="K5" s="17"/>
-      <c r="L5" s="10"/>
-      <c r="M5" s="25"/>
-      <c r="N5" s="9" t="s">
+      <c r="I5" s="18"/>
+      <c r="J5" s="18"/>
+      <c r="K5" s="18"/>
+      <c r="L5" s="11"/>
+      <c r="M5" s="26"/>
+      <c r="N5" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="O5" s="17"/>
-      <c r="P5" s="17"/>
-      <c r="Q5" s="17"/>
-      <c r="R5" s="10"/>
-      <c r="S5" s="11"/>
-      <c r="T5" s="11" t="s">
+      <c r="O5" s="18"/>
+      <c r="P5" s="18"/>
+      <c r="Q5" s="18"/>
+      <c r="R5" s="11"/>
+      <c r="S5" s="12"/>
+      <c r="T5" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="U5" s="11"/>
-      <c r="V5" s="11"/>
-      <c r="W5" s="11"/>
-      <c r="X5" s="11"/>
+      <c r="U5" s="12"/>
+      <c r="V5" s="12"/>
+      <c r="W5" s="12"/>
+      <c r="X5" s="12"/>
     </row>
     <row r="6" spans="1:24" x14ac:dyDescent="0.15">
-      <c r="A6" s="11"/>
+      <c r="A6" s="12"/>
       <c r="B6" s="2" t="s">
         <v>34</v>
       </c>
@@ -5793,7 +5793,7 @@
       <c r="F6" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="G6" s="11"/>
+      <c r="G6" s="12"/>
       <c r="H6" s="2" t="s">
         <v>12</v>
       </c>
@@ -5809,7 +5809,7 @@
       <c r="L6" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="M6" s="26"/>
+      <c r="M6" s="27"/>
       <c r="N6" s="2" t="s">
         <v>12</v>
       </c>
@@ -5825,7 +5825,7 @@
       <c r="R6" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="S6" s="11"/>
+      <c r="S6" s="12"/>
       <c r="T6" s="2" t="s">
         <v>12</v>
       </c>
@@ -6355,15 +6355,15 @@
       <c r="P26" s="4"/>
       <c r="Q26" s="4"/>
       <c r="R26" s="4"/>
-      <c r="S26" s="37" t="s">
+      <c r="S26" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="T26" s="34" t="s">
+      <c r="T26" s="35" t="s">
         <v>15</v>
       </c>
-      <c r="U26" s="35"/>
-      <c r="V26" s="35"/>
-      <c r="W26" s="36"/>
+      <c r="U26" s="36"/>
+      <c r="V26" s="36"/>
+      <c r="W26" s="37"/>
       <c r="X26" s="4" t="s">
         <v>2</v>
       </c>
@@ -6387,14 +6387,14 @@
       <c r="P27" s="4"/>
       <c r="Q27" s="4"/>
       <c r="R27" s="4"/>
-      <c r="S27" s="27" t="s">
+      <c r="S27" s="28" t="s">
         <v>16</v>
       </c>
-      <c r="T27" s="28"/>
-      <c r="U27" s="28"/>
-      <c r="V27" s="28"/>
-      <c r="W27" s="28"/>
-      <c r="X27" s="29"/>
+      <c r="T27" s="29"/>
+      <c r="U27" s="29"/>
+      <c r="V27" s="29"/>
+      <c r="W27" s="29"/>
+      <c r="X27" s="30"/>
     </row>
     <row r="28" spans="1:24" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="3"/>
@@ -6415,16 +6415,16 @@
       <c r="P28" s="4"/>
       <c r="Q28" s="4"/>
       <c r="R28" s="4"/>
-      <c r="S28" s="37" t="s">
+      <c r="S28" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="T28" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="U28" s="30"/>
-      <c r="V28" s="30"/>
-      <c r="W28" s="30"/>
-      <c r="X28" s="16"/>
+      <c r="T28" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="U28" s="31"/>
+      <c r="V28" s="31"/>
+      <c r="W28" s="31"/>
+      <c r="X28" s="17"/>
     </row>
     <row r="29" spans="1:24" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="3"/>
@@ -6445,16 +6445,16 @@
       <c r="P29" s="4"/>
       <c r="Q29" s="4"/>
       <c r="R29" s="4"/>
-      <c r="S29" s="37" t="s">
+      <c r="S29" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="T29" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="U29" s="30"/>
-      <c r="V29" s="30"/>
-      <c r="W29" s="30"/>
-      <c r="X29" s="16"/>
+      <c r="T29" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="U29" s="31"/>
+      <c r="V29" s="31"/>
+      <c r="W29" s="31"/>
+      <c r="X29" s="17"/>
     </row>
     <row r="30" spans="1:24" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="3"/>
@@ -6475,16 +6475,16 @@
       <c r="P30" s="4"/>
       <c r="Q30" s="4"/>
       <c r="R30" s="4"/>
-      <c r="S30" s="37" t="s">
+      <c r="S30" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="T30" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="U30" s="30"/>
-      <c r="V30" s="30"/>
-      <c r="W30" s="30"/>
-      <c r="X30" s="16"/>
+      <c r="T30" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="U30" s="31"/>
+      <c r="V30" s="31"/>
+      <c r="W30" s="31"/>
+      <c r="X30" s="17"/>
     </row>
     <row r="31" spans="1:24" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="3"/>
@@ -6505,16 +6505,16 @@
       <c r="P31" s="4"/>
       <c r="Q31" s="4"/>
       <c r="R31" s="4"/>
-      <c r="S31" s="37" t="s">
+      <c r="S31" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="T31" s="31" t="s">
-        <v>2</v>
-      </c>
-      <c r="U31" s="32"/>
-      <c r="V31" s="32"/>
-      <c r="W31" s="32"/>
-      <c r="X31" s="33"/>
+      <c r="T31" s="32" t="s">
+        <v>2</v>
+      </c>
+      <c r="U31" s="33"/>
+      <c r="V31" s="33"/>
+      <c r="W31" s="33"/>
+      <c r="X31" s="34"/>
     </row>
     <row r="32" spans="1:24" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="3"/>
@@ -6535,16 +6535,16 @@
       <c r="P32" s="4"/>
       <c r="Q32" s="4"/>
       <c r="R32" s="4"/>
-      <c r="S32" s="37" t="s">
+      <c r="S32" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="T32" s="21" t="s">
-        <v>2</v>
-      </c>
-      <c r="U32" s="22"/>
-      <c r="V32" s="22"/>
-      <c r="W32" s="22"/>
-      <c r="X32" s="23"/>
+      <c r="T32" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="U32" s="23"/>
+      <c r="V32" s="23"/>
+      <c r="W32" s="23"/>
+      <c r="X32" s="24"/>
     </row>
     <row r="33" spans="1:24" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="3"/>
@@ -6565,16 +6565,16 @@
       <c r="P33" s="4"/>
       <c r="Q33" s="4"/>
       <c r="R33" s="4"/>
-      <c r="S33" s="37" t="s">
+      <c r="S33" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="T33" s="21" t="s">
-        <v>2</v>
-      </c>
-      <c r="U33" s="22"/>
-      <c r="V33" s="22"/>
-      <c r="W33" s="22"/>
-      <c r="X33" s="23"/>
+      <c r="T33" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="U33" s="23"/>
+      <c r="V33" s="23"/>
+      <c r="W33" s="23"/>
+      <c r="X33" s="24"/>
     </row>
   </sheetData>
   <mergeCells count="29">
@@ -6628,7 +6628,7 @@
   <dimension ref="A1:X33"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="S26" sqref="S26:X33"/>
+      <selection activeCell="O28" sqref="O28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -6644,43 +6644,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" ht="24.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
-      <c r="E1" s="18"/>
-      <c r="F1" s="18"/>
-      <c r="G1" s="18"/>
-      <c r="H1" s="18"/>
-      <c r="I1" s="18"/>
-      <c r="J1" s="18"/>
-      <c r="K1" s="18"/>
-      <c r="L1" s="18"/>
-      <c r="M1" s="18"/>
-      <c r="N1" s="18"/>
-      <c r="O1" s="18"/>
-      <c r="P1" s="18"/>
-      <c r="Q1" s="18"/>
-      <c r="R1" s="18"/>
-      <c r="S1" s="18"/>
-      <c r="T1" s="18"/>
-      <c r="U1" s="18"/>
-      <c r="V1" s="18"/>
-      <c r="W1" s="18"/>
-      <c r="X1" s="18"/>
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
+      <c r="F1" s="19"/>
+      <c r="G1" s="19"/>
+      <c r="H1" s="19"/>
+      <c r="I1" s="19"/>
+      <c r="J1" s="19"/>
+      <c r="K1" s="19"/>
+      <c r="L1" s="19"/>
+      <c r="M1" s="19"/>
+      <c r="N1" s="19"/>
+      <c r="O1" s="19"/>
+      <c r="P1" s="19"/>
+      <c r="Q1" s="19"/>
+      <c r="R1" s="19"/>
+      <c r="S1" s="19"/>
+      <c r="T1" s="19"/>
+      <c r="U1" s="19"/>
+      <c r="V1" s="19"/>
+      <c r="W1" s="19"/>
+      <c r="X1" s="19"/>
     </row>
     <row r="2" spans="1:24" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="19" t="s">
+      <c r="A2" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="19"/>
-      <c r="C2" s="19"/>
-      <c r="D2" s="19"/>
-      <c r="E2" s="19"/>
-      <c r="F2" s="19"/>
-      <c r="G2" s="19"/>
+      <c r="B2" s="20"/>
+      <c r="C2" s="20"/>
+      <c r="D2" s="20"/>
+      <c r="E2" s="20"/>
+      <c r="F2" s="20"/>
+      <c r="G2" s="20"/>
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
       <c r="J2" s="1"/>
@@ -6695,128 +6695,128 @@
       <c r="S2" t="s">
         <v>3</v>
       </c>
-      <c r="T2" s="19" t="s">
+      <c r="T2" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="U2" s="19"/>
-      <c r="V2" s="19"/>
-      <c r="W2" s="19"/>
-      <c r="X2" s="19"/>
+      <c r="U2" s="20"/>
+      <c r="V2" s="20"/>
+      <c r="W2" s="20"/>
+      <c r="X2" s="20"/>
     </row>
     <row r="3" spans="1:24" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="20" t="s">
+      <c r="A3" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="20"/>
-      <c r="C3" s="20"/>
-      <c r="D3" s="20"/>
-      <c r="E3" s="20"/>
-      <c r="F3" s="20"/>
-      <c r="G3" s="20"/>
-      <c r="H3" s="20" t="s">
+      <c r="B3" s="21"/>
+      <c r="C3" s="21"/>
+      <c r="D3" s="21"/>
+      <c r="E3" s="21"/>
+      <c r="F3" s="21"/>
+      <c r="G3" s="21"/>
+      <c r="H3" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="I3" s="20"/>
-      <c r="J3" s="20"/>
-      <c r="K3" s="20"/>
-      <c r="L3" s="20"/>
-      <c r="M3" s="20" t="s">
+      <c r="I3" s="21"/>
+      <c r="J3" s="21"/>
+      <c r="K3" s="21"/>
+      <c r="L3" s="21"/>
+      <c r="M3" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="N3" s="20"/>
-      <c r="O3" s="20"/>
-      <c r="P3" s="20"/>
-      <c r="Q3" s="20"/>
-      <c r="R3" s="20"/>
+      <c r="N3" s="21"/>
+      <c r="O3" s="21"/>
+      <c r="P3" s="21"/>
+      <c r="Q3" s="21"/>
+      <c r="R3" s="21"/>
       <c r="S3" t="s">
         <v>8</v>
       </c>
-      <c r="T3" s="20" t="s">
-        <v>2</v>
-      </c>
-      <c r="U3" s="20"/>
-      <c r="V3" s="20"/>
-      <c r="W3" s="20"/>
-      <c r="X3" s="20"/>
+      <c r="T3" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="U3" s="21"/>
+      <c r="V3" s="21"/>
+      <c r="W3" s="21"/>
+      <c r="X3" s="21"/>
     </row>
     <row r="4" spans="1:24" x14ac:dyDescent="0.15">
-      <c r="A4" s="11" t="s">
+      <c r="A4" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="9" t="s">
+      <c r="B4" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="17"/>
-      <c r="D4" s="17"/>
-      <c r="E4" s="17"/>
-      <c r="F4" s="17"/>
-      <c r="G4" s="11" t="s">
+      <c r="C4" s="18"/>
+      <c r="D4" s="18"/>
+      <c r="E4" s="18"/>
+      <c r="F4" s="18"/>
+      <c r="G4" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="H4" s="9" t="s">
+      <c r="H4" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="I4" s="17"/>
-      <c r="J4" s="17"/>
-      <c r="K4" s="17"/>
-      <c r="L4" s="17"/>
-      <c r="M4" s="24" t="s">
+      <c r="I4" s="18"/>
+      <c r="J4" s="18"/>
+      <c r="K4" s="18"/>
+      <c r="L4" s="18"/>
+      <c r="M4" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="N4" s="9" t="s">
+      <c r="N4" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="17"/>
-      <c r="P4" s="17"/>
-      <c r="Q4" s="17"/>
-      <c r="R4" s="17"/>
-      <c r="S4" s="11" t="s">
+      <c r="O4" s="18"/>
+      <c r="P4" s="18"/>
+      <c r="Q4" s="18"/>
+      <c r="R4" s="18"/>
+      <c r="S4" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="T4" s="11" t="s">
+      <c r="T4" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="U4" s="11"/>
-      <c r="V4" s="11"/>
-      <c r="W4" s="11"/>
-      <c r="X4" s="11"/>
+      <c r="U4" s="12"/>
+      <c r="V4" s="12"/>
+      <c r="W4" s="12"/>
+      <c r="X4" s="12"/>
     </row>
     <row r="5" spans="1:24" x14ac:dyDescent="0.15">
-      <c r="A5" s="11"/>
-      <c r="B5" s="9" t="s">
+      <c r="A5" s="12"/>
+      <c r="B5" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="C5" s="17"/>
-      <c r="D5" s="17"/>
-      <c r="E5" s="17"/>
-      <c r="F5" s="10"/>
-      <c r="G5" s="11"/>
-      <c r="H5" s="9" t="s">
+      <c r="C5" s="18"/>
+      <c r="D5" s="18"/>
+      <c r="E5" s="18"/>
+      <c r="F5" s="11"/>
+      <c r="G5" s="12"/>
+      <c r="H5" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="I5" s="17"/>
-      <c r="J5" s="17"/>
-      <c r="K5" s="17"/>
-      <c r="L5" s="10"/>
-      <c r="M5" s="25"/>
-      <c r="N5" s="9" t="s">
+      <c r="I5" s="18"/>
+      <c r="J5" s="18"/>
+      <c r="K5" s="18"/>
+      <c r="L5" s="11"/>
+      <c r="M5" s="26"/>
+      <c r="N5" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="O5" s="17"/>
-      <c r="P5" s="17"/>
-      <c r="Q5" s="17"/>
-      <c r="R5" s="10"/>
-      <c r="S5" s="11"/>
-      <c r="T5" s="9" t="s">
+      <c r="O5" s="18"/>
+      <c r="P5" s="18"/>
+      <c r="Q5" s="18"/>
+      <c r="R5" s="11"/>
+      <c r="S5" s="12"/>
+      <c r="T5" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="U5" s="17"/>
-      <c r="V5" s="17"/>
-      <c r="W5" s="17"/>
-      <c r="X5" s="10"/>
+      <c r="U5" s="18"/>
+      <c r="V5" s="18"/>
+      <c r="W5" s="18"/>
+      <c r="X5" s="11"/>
     </row>
     <row r="6" spans="1:24" x14ac:dyDescent="0.15">
-      <c r="A6" s="11"/>
+      <c r="A6" s="12"/>
       <c r="B6" s="2" t="s">
         <v>12</v>
       </c>
@@ -6832,7 +6832,7 @@
       <c r="F6" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="G6" s="11"/>
+      <c r="G6" s="12"/>
       <c r="H6" s="2" t="s">
         <v>12</v>
       </c>
@@ -6848,7 +6848,7 @@
       <c r="L6" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="M6" s="26"/>
+      <c r="M6" s="27"/>
       <c r="N6" s="2" t="s">
         <v>12</v>
       </c>
@@ -6864,7 +6864,7 @@
       <c r="R6" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="S6" s="11"/>
+      <c r="S6" s="12"/>
       <c r="T6" s="2" t="s">
         <v>12</v>
       </c>
@@ -7394,15 +7394,15 @@
       <c r="P26" s="4"/>
       <c r="Q26" s="4"/>
       <c r="R26" s="4"/>
-      <c r="S26" s="37" t="s">
+      <c r="S26" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="T26" s="34" t="s">
+      <c r="T26" s="35" t="s">
         <v>15</v>
       </c>
-      <c r="U26" s="35"/>
-      <c r="V26" s="35"/>
-      <c r="W26" s="36"/>
+      <c r="U26" s="36"/>
+      <c r="V26" s="36"/>
+      <c r="W26" s="37"/>
       <c r="X26" s="4" t="s">
         <v>2</v>
       </c>
@@ -7426,14 +7426,14 @@
       <c r="P27" s="4"/>
       <c r="Q27" s="4"/>
       <c r="R27" s="4"/>
-      <c r="S27" s="27" t="s">
+      <c r="S27" s="28" t="s">
         <v>16</v>
       </c>
-      <c r="T27" s="28"/>
-      <c r="U27" s="28"/>
-      <c r="V27" s="28"/>
-      <c r="W27" s="28"/>
-      <c r="X27" s="29"/>
+      <c r="T27" s="29"/>
+      <c r="U27" s="29"/>
+      <c r="V27" s="29"/>
+      <c r="W27" s="29"/>
+      <c r="X27" s="30"/>
     </row>
     <row r="28" spans="1:24" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="3"/>
@@ -7454,16 +7454,16 @@
       <c r="P28" s="4"/>
       <c r="Q28" s="4"/>
       <c r="R28" s="4"/>
-      <c r="S28" s="37" t="s">
+      <c r="S28" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="T28" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="U28" s="30"/>
-      <c r="V28" s="30"/>
-      <c r="W28" s="30"/>
-      <c r="X28" s="16"/>
+      <c r="T28" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="U28" s="31"/>
+      <c r="V28" s="31"/>
+      <c r="W28" s="31"/>
+      <c r="X28" s="17"/>
     </row>
     <row r="29" spans="1:24" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="3"/>
@@ -7484,16 +7484,16 @@
       <c r="P29" s="4"/>
       <c r="Q29" s="4"/>
       <c r="R29" s="4"/>
-      <c r="S29" s="37" t="s">
+      <c r="S29" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="T29" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="U29" s="30"/>
-      <c r="V29" s="30"/>
-      <c r="W29" s="30"/>
-      <c r="X29" s="16"/>
+      <c r="T29" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="U29" s="31"/>
+      <c r="V29" s="31"/>
+      <c r="W29" s="31"/>
+      <c r="X29" s="17"/>
     </row>
     <row r="30" spans="1:24" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="3"/>
@@ -7514,16 +7514,16 @@
       <c r="P30" s="4"/>
       <c r="Q30" s="4"/>
       <c r="R30" s="4"/>
-      <c r="S30" s="37" t="s">
+      <c r="S30" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="T30" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="U30" s="30"/>
-      <c r="V30" s="30"/>
-      <c r="W30" s="30"/>
-      <c r="X30" s="16"/>
+      <c r="T30" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="U30" s="31"/>
+      <c r="V30" s="31"/>
+      <c r="W30" s="31"/>
+      <c r="X30" s="17"/>
     </row>
     <row r="31" spans="1:24" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="3"/>
@@ -7544,16 +7544,16 @@
       <c r="P31" s="4"/>
       <c r="Q31" s="4"/>
       <c r="R31" s="4"/>
-      <c r="S31" s="37" t="s">
+      <c r="S31" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="T31" s="31" t="s">
-        <v>2</v>
-      </c>
-      <c r="U31" s="32"/>
-      <c r="V31" s="32"/>
-      <c r="W31" s="32"/>
-      <c r="X31" s="33"/>
+      <c r="T31" s="32" t="s">
+        <v>2</v>
+      </c>
+      <c r="U31" s="33"/>
+      <c r="V31" s="33"/>
+      <c r="W31" s="33"/>
+      <c r="X31" s="34"/>
     </row>
     <row r="32" spans="1:24" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="3"/>
@@ -7574,16 +7574,16 @@
       <c r="P32" s="4"/>
       <c r="Q32" s="4"/>
       <c r="R32" s="4"/>
-      <c r="S32" s="37" t="s">
+      <c r="S32" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="T32" s="21" t="s">
-        <v>2</v>
-      </c>
-      <c r="U32" s="22"/>
-      <c r="V32" s="22"/>
-      <c r="W32" s="22"/>
-      <c r="X32" s="23"/>
+      <c r="T32" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="U32" s="23"/>
+      <c r="V32" s="23"/>
+      <c r="W32" s="23"/>
+      <c r="X32" s="24"/>
     </row>
     <row r="33" spans="1:24" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="3"/>
@@ -7604,16 +7604,16 @@
       <c r="P33" s="4"/>
       <c r="Q33" s="4"/>
       <c r="R33" s="4"/>
-      <c r="S33" s="37" t="s">
+      <c r="S33" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="T33" s="21" t="s">
-        <v>2</v>
-      </c>
-      <c r="U33" s="22"/>
-      <c r="V33" s="22"/>
-      <c r="W33" s="22"/>
-      <c r="X33" s="23"/>
+      <c r="T33" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="U33" s="23"/>
+      <c r="V33" s="23"/>
+      <c r="W33" s="23"/>
+      <c r="X33" s="24"/>
     </row>
   </sheetData>
   <mergeCells count="29">
@@ -7683,43 +7683,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" ht="24.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
-      <c r="E1" s="18"/>
-      <c r="F1" s="18"/>
-      <c r="G1" s="18"/>
-      <c r="H1" s="18"/>
-      <c r="I1" s="18"/>
-      <c r="J1" s="18"/>
-      <c r="K1" s="18"/>
-      <c r="L1" s="18"/>
-      <c r="M1" s="18"/>
-      <c r="N1" s="18"/>
-      <c r="O1" s="18"/>
-      <c r="P1" s="18"/>
-      <c r="Q1" s="18"/>
-      <c r="R1" s="18"/>
-      <c r="S1" s="18"/>
-      <c r="T1" s="18"/>
-      <c r="U1" s="18"/>
-      <c r="V1" s="18"/>
-      <c r="W1" s="18"/>
-      <c r="X1" s="18"/>
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
+      <c r="F1" s="19"/>
+      <c r="G1" s="19"/>
+      <c r="H1" s="19"/>
+      <c r="I1" s="19"/>
+      <c r="J1" s="19"/>
+      <c r="K1" s="19"/>
+      <c r="L1" s="19"/>
+      <c r="M1" s="19"/>
+      <c r="N1" s="19"/>
+      <c r="O1" s="19"/>
+      <c r="P1" s="19"/>
+      <c r="Q1" s="19"/>
+      <c r="R1" s="19"/>
+      <c r="S1" s="19"/>
+      <c r="T1" s="19"/>
+      <c r="U1" s="19"/>
+      <c r="V1" s="19"/>
+      <c r="W1" s="19"/>
+      <c r="X1" s="19"/>
     </row>
     <row r="2" spans="1:24" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="19" t="s">
+      <c r="A2" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="19"/>
-      <c r="C2" s="19"/>
-      <c r="D2" s="19"/>
-      <c r="E2" s="19"/>
-      <c r="F2" s="19"/>
-      <c r="G2" s="19"/>
+      <c r="B2" s="20"/>
+      <c r="C2" s="20"/>
+      <c r="D2" s="20"/>
+      <c r="E2" s="20"/>
+      <c r="F2" s="20"/>
+      <c r="G2" s="20"/>
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
       <c r="J2" s="1"/>
@@ -7734,128 +7734,128 @@
       <c r="S2" t="s">
         <v>3</v>
       </c>
-      <c r="T2" s="19" t="s">
+      <c r="T2" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="U2" s="19"/>
-      <c r="V2" s="19"/>
-      <c r="W2" s="19"/>
-      <c r="X2" s="19"/>
+      <c r="U2" s="20"/>
+      <c r="V2" s="20"/>
+      <c r="W2" s="20"/>
+      <c r="X2" s="20"/>
     </row>
     <row r="3" spans="1:24" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="20" t="s">
+      <c r="A3" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="20"/>
-      <c r="C3" s="20"/>
-      <c r="D3" s="20"/>
-      <c r="E3" s="20"/>
-      <c r="F3" s="20"/>
-      <c r="G3" s="20"/>
-      <c r="H3" s="20" t="s">
+      <c r="B3" s="21"/>
+      <c r="C3" s="21"/>
+      <c r="D3" s="21"/>
+      <c r="E3" s="21"/>
+      <c r="F3" s="21"/>
+      <c r="G3" s="21"/>
+      <c r="H3" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="I3" s="20"/>
-      <c r="J3" s="20"/>
-      <c r="K3" s="20"/>
-      <c r="L3" s="20"/>
-      <c r="M3" s="20" t="s">
+      <c r="I3" s="21"/>
+      <c r="J3" s="21"/>
+      <c r="K3" s="21"/>
+      <c r="L3" s="21"/>
+      <c r="M3" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="N3" s="20"/>
-      <c r="O3" s="20"/>
-      <c r="P3" s="20"/>
-      <c r="Q3" s="20"/>
-      <c r="R3" s="20"/>
+      <c r="N3" s="21"/>
+      <c r="O3" s="21"/>
+      <c r="P3" s="21"/>
+      <c r="Q3" s="21"/>
+      <c r="R3" s="21"/>
       <c r="S3" t="s">
         <v>8</v>
       </c>
-      <c r="T3" s="20" t="s">
-        <v>2</v>
-      </c>
-      <c r="U3" s="20"/>
-      <c r="V3" s="20"/>
-      <c r="W3" s="20"/>
-      <c r="X3" s="20"/>
+      <c r="T3" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="U3" s="21"/>
+      <c r="V3" s="21"/>
+      <c r="W3" s="21"/>
+      <c r="X3" s="21"/>
     </row>
     <row r="4" spans="1:24" x14ac:dyDescent="0.15">
-      <c r="A4" s="11" t="s">
+      <c r="A4" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="9" t="s">
+      <c r="B4" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="17"/>
-      <c r="D4" s="17"/>
-      <c r="E4" s="17"/>
-      <c r="F4" s="17"/>
-      <c r="G4" s="11" t="s">
+      <c r="C4" s="18"/>
+      <c r="D4" s="18"/>
+      <c r="E4" s="18"/>
+      <c r="F4" s="18"/>
+      <c r="G4" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="H4" s="9" t="s">
+      <c r="H4" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="I4" s="17"/>
-      <c r="J4" s="17"/>
-      <c r="K4" s="17"/>
-      <c r="L4" s="17"/>
-      <c r="M4" s="24" t="s">
+      <c r="I4" s="18"/>
+      <c r="J4" s="18"/>
+      <c r="K4" s="18"/>
+      <c r="L4" s="18"/>
+      <c r="M4" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="N4" s="9" t="s">
+      <c r="N4" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="17"/>
-      <c r="P4" s="17"/>
-      <c r="Q4" s="17"/>
-      <c r="R4" s="17"/>
-      <c r="S4" s="11" t="s">
+      <c r="O4" s="18"/>
+      <c r="P4" s="18"/>
+      <c r="Q4" s="18"/>
+      <c r="R4" s="18"/>
+      <c r="S4" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="T4" s="11" t="s">
+      <c r="T4" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="U4" s="11"/>
-      <c r="V4" s="11"/>
-      <c r="W4" s="11"/>
-      <c r="X4" s="11"/>
+      <c r="U4" s="12"/>
+      <c r="V4" s="12"/>
+      <c r="W4" s="12"/>
+      <c r="X4" s="12"/>
     </row>
     <row r="5" spans="1:24" x14ac:dyDescent="0.15">
-      <c r="A5" s="11"/>
-      <c r="B5" s="9" t="s">
+      <c r="A5" s="12"/>
+      <c r="B5" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="C5" s="17"/>
-      <c r="D5" s="17"/>
-      <c r="E5" s="17"/>
-      <c r="F5" s="10"/>
-      <c r="G5" s="11"/>
-      <c r="H5" s="9" t="s">
+      <c r="C5" s="18"/>
+      <c r="D5" s="18"/>
+      <c r="E5" s="18"/>
+      <c r="F5" s="11"/>
+      <c r="G5" s="12"/>
+      <c r="H5" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="I5" s="17"/>
-      <c r="J5" s="17"/>
-      <c r="K5" s="17"/>
-      <c r="L5" s="10"/>
-      <c r="M5" s="25"/>
-      <c r="N5" s="9" t="s">
+      <c r="I5" s="18"/>
+      <c r="J5" s="18"/>
+      <c r="K5" s="18"/>
+      <c r="L5" s="11"/>
+      <c r="M5" s="26"/>
+      <c r="N5" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="O5" s="17"/>
-      <c r="P5" s="17"/>
-      <c r="Q5" s="17"/>
-      <c r="R5" s="10"/>
-      <c r="S5" s="11"/>
-      <c r="T5" s="9" t="s">
+      <c r="O5" s="18"/>
+      <c r="P5" s="18"/>
+      <c r="Q5" s="18"/>
+      <c r="R5" s="11"/>
+      <c r="S5" s="12"/>
+      <c r="T5" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="U5" s="17"/>
-      <c r="V5" s="17"/>
-      <c r="W5" s="17"/>
-      <c r="X5" s="10"/>
+      <c r="U5" s="18"/>
+      <c r="V5" s="18"/>
+      <c r="W5" s="18"/>
+      <c r="X5" s="11"/>
     </row>
     <row r="6" spans="1:24" x14ac:dyDescent="0.15">
-      <c r="A6" s="11"/>
+      <c r="A6" s="12"/>
       <c r="B6" s="2" t="s">
         <v>12</v>
       </c>
@@ -7871,7 +7871,7 @@
       <c r="F6" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="G6" s="11"/>
+      <c r="G6" s="12"/>
       <c r="H6" s="2" t="s">
         <v>12</v>
       </c>
@@ -7887,7 +7887,7 @@
       <c r="L6" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="M6" s="26"/>
+      <c r="M6" s="27"/>
       <c r="N6" s="2" t="s">
         <v>12</v>
       </c>
@@ -7903,7 +7903,7 @@
       <c r="R6" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="S6" s="11"/>
+      <c r="S6" s="12"/>
       <c r="T6" s="2" t="s">
         <v>12</v>
       </c>
@@ -8433,15 +8433,15 @@
       <c r="P26" s="4"/>
       <c r="Q26" s="4"/>
       <c r="R26" s="4"/>
-      <c r="S26" s="37" t="s">
+      <c r="S26" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="T26" s="34" t="s">
+      <c r="T26" s="35" t="s">
         <v>15</v>
       </c>
-      <c r="U26" s="35"/>
-      <c r="V26" s="35"/>
-      <c r="W26" s="36"/>
+      <c r="U26" s="36"/>
+      <c r="V26" s="36"/>
+      <c r="W26" s="37"/>
       <c r="X26" s="4" t="s">
         <v>2</v>
       </c>
@@ -8465,14 +8465,14 @@
       <c r="P27" s="4"/>
       <c r="Q27" s="4"/>
       <c r="R27" s="4"/>
-      <c r="S27" s="27" t="s">
+      <c r="S27" s="28" t="s">
         <v>16</v>
       </c>
-      <c r="T27" s="28"/>
-      <c r="U27" s="28"/>
-      <c r="V27" s="28"/>
-      <c r="W27" s="28"/>
-      <c r="X27" s="29"/>
+      <c r="T27" s="29"/>
+      <c r="U27" s="29"/>
+      <c r="V27" s="29"/>
+      <c r="W27" s="29"/>
+      <c r="X27" s="30"/>
     </row>
     <row r="28" spans="1:24" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="3"/>
@@ -8493,16 +8493,16 @@
       <c r="P28" s="4"/>
       <c r="Q28" s="4"/>
       <c r="R28" s="4"/>
-      <c r="S28" s="37" t="s">
+      <c r="S28" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="T28" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="U28" s="30"/>
-      <c r="V28" s="30"/>
-      <c r="W28" s="30"/>
-      <c r="X28" s="16"/>
+      <c r="T28" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="U28" s="31"/>
+      <c r="V28" s="31"/>
+      <c r="W28" s="31"/>
+      <c r="X28" s="17"/>
     </row>
     <row r="29" spans="1:24" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="3"/>
@@ -8523,16 +8523,16 @@
       <c r="P29" s="4"/>
       <c r="Q29" s="4"/>
       <c r="R29" s="4"/>
-      <c r="S29" s="37" t="s">
+      <c r="S29" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="T29" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="U29" s="30"/>
-      <c r="V29" s="30"/>
-      <c r="W29" s="30"/>
-      <c r="X29" s="16"/>
+      <c r="T29" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="U29" s="31"/>
+      <c r="V29" s="31"/>
+      <c r="W29" s="31"/>
+      <c r="X29" s="17"/>
     </row>
     <row r="30" spans="1:24" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="3"/>
@@ -8553,16 +8553,16 @@
       <c r="P30" s="4"/>
       <c r="Q30" s="4"/>
       <c r="R30" s="4"/>
-      <c r="S30" s="37" t="s">
+      <c r="S30" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="T30" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="U30" s="30"/>
-      <c r="V30" s="30"/>
-      <c r="W30" s="30"/>
-      <c r="X30" s="16"/>
+      <c r="T30" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="U30" s="31"/>
+      <c r="V30" s="31"/>
+      <c r="W30" s="31"/>
+      <c r="X30" s="17"/>
     </row>
     <row r="31" spans="1:24" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="3"/>
@@ -8583,16 +8583,16 @@
       <c r="P31" s="4"/>
       <c r="Q31" s="4"/>
       <c r="R31" s="4"/>
-      <c r="S31" s="37" t="s">
+      <c r="S31" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="T31" s="31" t="s">
-        <v>2</v>
-      </c>
-      <c r="U31" s="32"/>
-      <c r="V31" s="32"/>
-      <c r="W31" s="32"/>
-      <c r="X31" s="33"/>
+      <c r="T31" s="32" t="s">
+        <v>2</v>
+      </c>
+      <c r="U31" s="33"/>
+      <c r="V31" s="33"/>
+      <c r="W31" s="33"/>
+      <c r="X31" s="34"/>
     </row>
     <row r="32" spans="1:24" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="3"/>
@@ -8613,16 +8613,16 @@
       <c r="P32" s="4"/>
       <c r="Q32" s="4"/>
       <c r="R32" s="4"/>
-      <c r="S32" s="37" t="s">
+      <c r="S32" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="T32" s="21" t="s">
-        <v>2</v>
-      </c>
-      <c r="U32" s="22"/>
-      <c r="V32" s="22"/>
-      <c r="W32" s="22"/>
-      <c r="X32" s="23"/>
+      <c r="T32" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="U32" s="23"/>
+      <c r="V32" s="23"/>
+      <c r="W32" s="23"/>
+      <c r="X32" s="24"/>
     </row>
     <row r="33" spans="1:24" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="3"/>
@@ -8643,16 +8643,16 @@
       <c r="P33" s="4"/>
       <c r="Q33" s="4"/>
       <c r="R33" s="4"/>
-      <c r="S33" s="37" t="s">
+      <c r="S33" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="T33" s="21" t="s">
-        <v>2</v>
-      </c>
-      <c r="U33" s="22"/>
-      <c r="V33" s="22"/>
-      <c r="W33" s="22"/>
-      <c r="X33" s="23"/>
+      <c r="T33" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="U33" s="23"/>
+      <c r="V33" s="23"/>
+      <c r="W33" s="23"/>
+      <c r="X33" s="24"/>
     </row>
   </sheetData>
   <mergeCells count="29">
@@ -8706,7 +8706,7 @@
   <dimension ref="A1:X33"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="A4" sqref="A1:A1048576"/>
+      <selection activeCell="M23" sqref="M23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -8722,43 +8722,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" ht="24.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="19" t="s">
         <v>32</v>
       </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
-      <c r="E1" s="18"/>
-      <c r="F1" s="18"/>
-      <c r="G1" s="18"/>
-      <c r="H1" s="18"/>
-      <c r="I1" s="18"/>
-      <c r="J1" s="18"/>
-      <c r="K1" s="18"/>
-      <c r="L1" s="18"/>
-      <c r="M1" s="18"/>
-      <c r="N1" s="18"/>
-      <c r="O1" s="18"/>
-      <c r="P1" s="18"/>
-      <c r="Q1" s="18"/>
-      <c r="R1" s="18"/>
-      <c r="S1" s="18"/>
-      <c r="T1" s="18"/>
-      <c r="U1" s="18"/>
-      <c r="V1" s="18"/>
-      <c r="W1" s="18"/>
-      <c r="X1" s="18"/>
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
+      <c r="F1" s="19"/>
+      <c r="G1" s="19"/>
+      <c r="H1" s="19"/>
+      <c r="I1" s="19"/>
+      <c r="J1" s="19"/>
+      <c r="K1" s="19"/>
+      <c r="L1" s="19"/>
+      <c r="M1" s="19"/>
+      <c r="N1" s="19"/>
+      <c r="O1" s="19"/>
+      <c r="P1" s="19"/>
+      <c r="Q1" s="19"/>
+      <c r="R1" s="19"/>
+      <c r="S1" s="19"/>
+      <c r="T1" s="19"/>
+      <c r="U1" s="19"/>
+      <c r="V1" s="19"/>
+      <c r="W1" s="19"/>
+      <c r="X1" s="19"/>
     </row>
     <row r="2" spans="1:24" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="19" t="s">
+      <c r="A2" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="19"/>
-      <c r="C2" s="19"/>
-      <c r="D2" s="19"/>
-      <c r="E2" s="19"/>
-      <c r="F2" s="19"/>
-      <c r="G2" s="19"/>
+      <c r="B2" s="20"/>
+      <c r="C2" s="20"/>
+      <c r="D2" s="20"/>
+      <c r="E2" s="20"/>
+      <c r="F2" s="20"/>
+      <c r="G2" s="20"/>
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
       <c r="J2" s="1"/>
@@ -8773,128 +8773,128 @@
       <c r="S2" t="s">
         <v>3</v>
       </c>
-      <c r="T2" s="19" t="s">
+      <c r="T2" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="U2" s="19"/>
-      <c r="V2" s="19"/>
-      <c r="W2" s="19"/>
-      <c r="X2" s="19"/>
+      <c r="U2" s="20"/>
+      <c r="V2" s="20"/>
+      <c r="W2" s="20"/>
+      <c r="X2" s="20"/>
     </row>
     <row r="3" spans="1:24" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="20" t="s">
+      <c r="A3" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="20"/>
-      <c r="C3" s="20"/>
-      <c r="D3" s="20"/>
-      <c r="E3" s="20"/>
-      <c r="F3" s="20"/>
-      <c r="G3" s="20"/>
-      <c r="H3" s="20" t="s">
+      <c r="B3" s="21"/>
+      <c r="C3" s="21"/>
+      <c r="D3" s="21"/>
+      <c r="E3" s="21"/>
+      <c r="F3" s="21"/>
+      <c r="G3" s="21"/>
+      <c r="H3" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="I3" s="20"/>
-      <c r="J3" s="20"/>
-      <c r="K3" s="20"/>
-      <c r="L3" s="20"/>
-      <c r="M3" s="20" t="s">
+      <c r="I3" s="21"/>
+      <c r="J3" s="21"/>
+      <c r="K3" s="21"/>
+      <c r="L3" s="21"/>
+      <c r="M3" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="N3" s="20"/>
-      <c r="O3" s="20"/>
-      <c r="P3" s="20"/>
-      <c r="Q3" s="20"/>
-      <c r="R3" s="20"/>
+      <c r="N3" s="21"/>
+      <c r="O3" s="21"/>
+      <c r="P3" s="21"/>
+      <c r="Q3" s="21"/>
+      <c r="R3" s="21"/>
       <c r="S3" t="s">
         <v>8</v>
       </c>
-      <c r="T3" s="20" t="s">
-        <v>2</v>
-      </c>
-      <c r="U3" s="20"/>
-      <c r="V3" s="20"/>
-      <c r="W3" s="20"/>
-      <c r="X3" s="20"/>
+      <c r="T3" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="U3" s="21"/>
+      <c r="V3" s="21"/>
+      <c r="W3" s="21"/>
+      <c r="X3" s="21"/>
     </row>
     <row r="4" spans="1:24" x14ac:dyDescent="0.15">
-      <c r="A4" s="11" t="s">
+      <c r="A4" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="9" t="s">
+      <c r="B4" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="17"/>
-      <c r="D4" s="17"/>
-      <c r="E4" s="17"/>
-      <c r="F4" s="17"/>
-      <c r="G4" s="11" t="s">
+      <c r="C4" s="18"/>
+      <c r="D4" s="18"/>
+      <c r="E4" s="18"/>
+      <c r="F4" s="18"/>
+      <c r="G4" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="H4" s="9" t="s">
+      <c r="H4" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="I4" s="17"/>
-      <c r="J4" s="17"/>
-      <c r="K4" s="17"/>
-      <c r="L4" s="17"/>
-      <c r="M4" s="24" t="s">
+      <c r="I4" s="18"/>
+      <c r="J4" s="18"/>
+      <c r="K4" s="18"/>
+      <c r="L4" s="18"/>
+      <c r="M4" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="N4" s="9" t="s">
+      <c r="N4" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="17"/>
-      <c r="P4" s="17"/>
-      <c r="Q4" s="17"/>
-      <c r="R4" s="17"/>
-      <c r="S4" s="11" t="s">
+      <c r="O4" s="18"/>
+      <c r="P4" s="18"/>
+      <c r="Q4" s="18"/>
+      <c r="R4" s="18"/>
+      <c r="S4" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="T4" s="11" t="s">
+      <c r="T4" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="U4" s="11"/>
-      <c r="V4" s="11"/>
-      <c r="W4" s="11"/>
-      <c r="X4" s="11"/>
+      <c r="U4" s="12"/>
+      <c r="V4" s="12"/>
+      <c r="W4" s="12"/>
+      <c r="X4" s="12"/>
     </row>
     <row r="5" spans="1:24" x14ac:dyDescent="0.15">
-      <c r="A5" s="11"/>
-      <c r="B5" s="9" t="s">
+      <c r="A5" s="12"/>
+      <c r="B5" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="C5" s="17"/>
-      <c r="D5" s="17"/>
-      <c r="E5" s="17"/>
-      <c r="F5" s="10"/>
-      <c r="G5" s="11"/>
-      <c r="H5" s="9" t="s">
+      <c r="C5" s="18"/>
+      <c r="D5" s="18"/>
+      <c r="E5" s="18"/>
+      <c r="F5" s="11"/>
+      <c r="G5" s="12"/>
+      <c r="H5" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="I5" s="17"/>
-      <c r="J5" s="17"/>
-      <c r="K5" s="17"/>
-      <c r="L5" s="10"/>
-      <c r="M5" s="25"/>
-      <c r="N5" s="9" t="s">
+      <c r="I5" s="18"/>
+      <c r="J5" s="18"/>
+      <c r="K5" s="18"/>
+      <c r="L5" s="11"/>
+      <c r="M5" s="26"/>
+      <c r="N5" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="O5" s="17"/>
-      <c r="P5" s="17"/>
-      <c r="Q5" s="17"/>
-      <c r="R5" s="10"/>
-      <c r="S5" s="11"/>
-      <c r="T5" s="9" t="s">
+      <c r="O5" s="18"/>
+      <c r="P5" s="18"/>
+      <c r="Q5" s="18"/>
+      <c r="R5" s="11"/>
+      <c r="S5" s="12"/>
+      <c r="T5" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="U5" s="17"/>
-      <c r="V5" s="17"/>
-      <c r="W5" s="17"/>
-      <c r="X5" s="10"/>
+      <c r="U5" s="18"/>
+      <c r="V5" s="18"/>
+      <c r="W5" s="18"/>
+      <c r="X5" s="11"/>
     </row>
     <row r="6" spans="1:24" x14ac:dyDescent="0.15">
-      <c r="A6" s="11"/>
+      <c r="A6" s="12"/>
       <c r="B6" s="2" t="s">
         <v>12</v>
       </c>
@@ -8910,7 +8910,7 @@
       <c r="F6" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="G6" s="11"/>
+      <c r="G6" s="12"/>
       <c r="H6" s="2" t="s">
         <v>12</v>
       </c>
@@ -8926,7 +8926,7 @@
       <c r="L6" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="M6" s="26"/>
+      <c r="M6" s="27"/>
       <c r="N6" s="2" t="s">
         <v>12</v>
       </c>
@@ -8942,7 +8942,7 @@
       <c r="R6" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="S6" s="11"/>
+      <c r="S6" s="12"/>
       <c r="T6" s="2" t="s">
         <v>12</v>
       </c>
@@ -9472,15 +9472,15 @@
       <c r="P26" s="4"/>
       <c r="Q26" s="4"/>
       <c r="R26" s="4"/>
-      <c r="S26" s="37" t="s">
+      <c r="S26" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="T26" s="34" t="s">
+      <c r="T26" s="35" t="s">
         <v>15</v>
       </c>
-      <c r="U26" s="35"/>
-      <c r="V26" s="35"/>
-      <c r="W26" s="36"/>
+      <c r="U26" s="36"/>
+      <c r="V26" s="36"/>
+      <c r="W26" s="37"/>
       <c r="X26" s="4" t="s">
         <v>2</v>
       </c>
@@ -9504,14 +9504,14 @@
       <c r="P27" s="4"/>
       <c r="Q27" s="4"/>
       <c r="R27" s="4"/>
-      <c r="S27" s="27" t="s">
+      <c r="S27" s="28" t="s">
         <v>16</v>
       </c>
-      <c r="T27" s="28"/>
-      <c r="U27" s="28"/>
-      <c r="V27" s="28"/>
-      <c r="W27" s="28"/>
-      <c r="X27" s="29"/>
+      <c r="T27" s="29"/>
+      <c r="U27" s="29"/>
+      <c r="V27" s="29"/>
+      <c r="W27" s="29"/>
+      <c r="X27" s="30"/>
     </row>
     <row r="28" spans="1:24" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="3"/>
@@ -9532,16 +9532,16 @@
       <c r="P28" s="4"/>
       <c r="Q28" s="4"/>
       <c r="R28" s="4"/>
-      <c r="S28" s="37" t="s">
+      <c r="S28" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="T28" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="U28" s="30"/>
-      <c r="V28" s="30"/>
-      <c r="W28" s="30"/>
-      <c r="X28" s="16"/>
+      <c r="T28" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="U28" s="31"/>
+      <c r="V28" s="31"/>
+      <c r="W28" s="31"/>
+      <c r="X28" s="17"/>
     </row>
     <row r="29" spans="1:24" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="3"/>
@@ -9562,16 +9562,16 @@
       <c r="P29" s="4"/>
       <c r="Q29" s="4"/>
       <c r="R29" s="4"/>
-      <c r="S29" s="37" t="s">
+      <c r="S29" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="T29" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="U29" s="30"/>
-      <c r="V29" s="30"/>
-      <c r="W29" s="30"/>
-      <c r="X29" s="16"/>
+      <c r="T29" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="U29" s="31"/>
+      <c r="V29" s="31"/>
+      <c r="W29" s="31"/>
+      <c r="X29" s="17"/>
     </row>
     <row r="30" spans="1:24" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="3"/>
@@ -9592,16 +9592,16 @@
       <c r="P30" s="4"/>
       <c r="Q30" s="4"/>
       <c r="R30" s="4"/>
-      <c r="S30" s="37" t="s">
+      <c r="S30" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="T30" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="U30" s="30"/>
-      <c r="V30" s="30"/>
-      <c r="W30" s="30"/>
-      <c r="X30" s="16"/>
+      <c r="T30" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="U30" s="31"/>
+      <c r="V30" s="31"/>
+      <c r="W30" s="31"/>
+      <c r="X30" s="17"/>
     </row>
     <row r="31" spans="1:24" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="3"/>
@@ -9622,16 +9622,16 @@
       <c r="P31" s="4"/>
       <c r="Q31" s="4"/>
       <c r="R31" s="4"/>
-      <c r="S31" s="37" t="s">
+      <c r="S31" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="T31" s="31" t="s">
-        <v>2</v>
-      </c>
-      <c r="U31" s="32"/>
-      <c r="V31" s="32"/>
-      <c r="W31" s="32"/>
-      <c r="X31" s="33"/>
+      <c r="T31" s="32" t="s">
+        <v>2</v>
+      </c>
+      <c r="U31" s="33"/>
+      <c r="V31" s="33"/>
+      <c r="W31" s="33"/>
+      <c r="X31" s="34"/>
     </row>
     <row r="32" spans="1:24" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="3"/>
@@ -9652,16 +9652,16 @@
       <c r="P32" s="4"/>
       <c r="Q32" s="4"/>
       <c r="R32" s="4"/>
-      <c r="S32" s="37" t="s">
+      <c r="S32" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="T32" s="21" t="s">
-        <v>2</v>
-      </c>
-      <c r="U32" s="22"/>
-      <c r="V32" s="22"/>
-      <c r="W32" s="22"/>
-      <c r="X32" s="23"/>
+      <c r="T32" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="U32" s="23"/>
+      <c r="V32" s="23"/>
+      <c r="W32" s="23"/>
+      <c r="X32" s="24"/>
     </row>
     <row r="33" spans="1:24" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="3"/>
@@ -9682,16 +9682,16 @@
       <c r="P33" s="4"/>
       <c r="Q33" s="4"/>
       <c r="R33" s="4"/>
-      <c r="S33" s="37" t="s">
+      <c r="S33" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="T33" s="21" t="s">
-        <v>2</v>
-      </c>
-      <c r="U33" s="22"/>
-      <c r="V33" s="22"/>
-      <c r="W33" s="22"/>
-      <c r="X33" s="23"/>
+      <c r="T33" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="U33" s="23"/>
+      <c r="V33" s="23"/>
+      <c r="W33" s="23"/>
+      <c r="X33" s="24"/>
     </row>
   </sheetData>
   <mergeCells count="29">
@@ -9716,14 +9716,14 @@
     <mergeCell ref="N5:R5"/>
     <mergeCell ref="T5:X5"/>
     <mergeCell ref="T3:X3"/>
+    <mergeCell ref="S27:X27"/>
+    <mergeCell ref="T26:W26"/>
     <mergeCell ref="T33:X33"/>
     <mergeCell ref="T28:X28"/>
     <mergeCell ref="T29:X29"/>
     <mergeCell ref="T30:X30"/>
     <mergeCell ref="T31:X31"/>
     <mergeCell ref="T32:X32"/>
-    <mergeCell ref="S27:X27"/>
-    <mergeCell ref="T26:W26"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.9055118110236221" right="0.78740157480314965" top="0.74803149606299213" bottom="0.74803149606299213" header="0.47244094488188981" footer="0.47244094488188981"/>
@@ -9744,8 +9744,8 @@
   </sheetPr>
   <dimension ref="A1:X33"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="T29" sqref="T29:X29"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="V21" sqref="V21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -9761,43 +9761,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" ht="24.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="19" t="s">
         <v>32</v>
       </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
-      <c r="E1" s="18"/>
-      <c r="F1" s="18"/>
-      <c r="G1" s="18"/>
-      <c r="H1" s="18"/>
-      <c r="I1" s="18"/>
-      <c r="J1" s="18"/>
-      <c r="K1" s="18"/>
-      <c r="L1" s="18"/>
-      <c r="M1" s="18"/>
-      <c r="N1" s="18"/>
-      <c r="O1" s="18"/>
-      <c r="P1" s="18"/>
-      <c r="Q1" s="18"/>
-      <c r="R1" s="18"/>
-      <c r="S1" s="18"/>
-      <c r="T1" s="18"/>
-      <c r="U1" s="18"/>
-      <c r="V1" s="18"/>
-      <c r="W1" s="18"/>
-      <c r="X1" s="18"/>
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
+      <c r="F1" s="19"/>
+      <c r="G1" s="19"/>
+      <c r="H1" s="19"/>
+      <c r="I1" s="19"/>
+      <c r="J1" s="19"/>
+      <c r="K1" s="19"/>
+      <c r="L1" s="19"/>
+      <c r="M1" s="19"/>
+      <c r="N1" s="19"/>
+      <c r="O1" s="19"/>
+      <c r="P1" s="19"/>
+      <c r="Q1" s="19"/>
+      <c r="R1" s="19"/>
+      <c r="S1" s="19"/>
+      <c r="T1" s="19"/>
+      <c r="U1" s="19"/>
+      <c r="V1" s="19"/>
+      <c r="W1" s="19"/>
+      <c r="X1" s="19"/>
     </row>
     <row r="2" spans="1:24" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="19" t="s">
+      <c r="A2" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="19"/>
-      <c r="C2" s="19"/>
-      <c r="D2" s="19"/>
-      <c r="E2" s="19"/>
-      <c r="F2" s="19"/>
-      <c r="G2" s="19"/>
+      <c r="B2" s="20"/>
+      <c r="C2" s="20"/>
+      <c r="D2" s="20"/>
+      <c r="E2" s="20"/>
+      <c r="F2" s="20"/>
+      <c r="G2" s="20"/>
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
       <c r="J2" s="1"/>
@@ -9812,128 +9812,128 @@
       <c r="S2" t="s">
         <v>3</v>
       </c>
-      <c r="T2" s="19" t="s">
+      <c r="T2" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="U2" s="19"/>
-      <c r="V2" s="19"/>
-      <c r="W2" s="19"/>
-      <c r="X2" s="19"/>
+      <c r="U2" s="20"/>
+      <c r="V2" s="20"/>
+      <c r="W2" s="20"/>
+      <c r="X2" s="20"/>
     </row>
     <row r="3" spans="1:24" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="20" t="s">
+      <c r="A3" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="20"/>
-      <c r="C3" s="20"/>
-      <c r="D3" s="20"/>
-      <c r="E3" s="20"/>
-      <c r="F3" s="20"/>
-      <c r="G3" s="20"/>
-      <c r="H3" s="20" t="s">
+      <c r="B3" s="21"/>
+      <c r="C3" s="21"/>
+      <c r="D3" s="21"/>
+      <c r="E3" s="21"/>
+      <c r="F3" s="21"/>
+      <c r="G3" s="21"/>
+      <c r="H3" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="I3" s="20"/>
-      <c r="J3" s="20"/>
-      <c r="K3" s="20"/>
-      <c r="L3" s="20"/>
-      <c r="M3" s="20" t="s">
+      <c r="I3" s="21"/>
+      <c r="J3" s="21"/>
+      <c r="K3" s="21"/>
+      <c r="L3" s="21"/>
+      <c r="M3" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="N3" s="20"/>
-      <c r="O3" s="20"/>
-      <c r="P3" s="20"/>
-      <c r="Q3" s="20"/>
-      <c r="R3" s="20"/>
+      <c r="N3" s="21"/>
+      <c r="O3" s="21"/>
+      <c r="P3" s="21"/>
+      <c r="Q3" s="21"/>
+      <c r="R3" s="21"/>
       <c r="S3" t="s">
         <v>8</v>
       </c>
-      <c r="T3" s="20" t="s">
-        <v>2</v>
-      </c>
-      <c r="U3" s="20"/>
-      <c r="V3" s="20"/>
-      <c r="W3" s="20"/>
-      <c r="X3" s="20"/>
+      <c r="T3" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="U3" s="21"/>
+      <c r="V3" s="21"/>
+      <c r="W3" s="21"/>
+      <c r="X3" s="21"/>
     </row>
     <row r="4" spans="1:24" x14ac:dyDescent="0.15">
-      <c r="A4" s="11" t="s">
+      <c r="A4" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="9" t="s">
+      <c r="B4" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="17"/>
-      <c r="D4" s="17"/>
-      <c r="E4" s="17"/>
-      <c r="F4" s="17"/>
-      <c r="G4" s="11" t="s">
+      <c r="C4" s="18"/>
+      <c r="D4" s="18"/>
+      <c r="E4" s="18"/>
+      <c r="F4" s="18"/>
+      <c r="G4" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="H4" s="9" t="s">
+      <c r="H4" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="I4" s="17"/>
-      <c r="J4" s="17"/>
-      <c r="K4" s="17"/>
-      <c r="L4" s="17"/>
-      <c r="M4" s="24" t="s">
+      <c r="I4" s="18"/>
+      <c r="J4" s="18"/>
+      <c r="K4" s="18"/>
+      <c r="L4" s="18"/>
+      <c r="M4" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="N4" s="9" t="s">
+      <c r="N4" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="17"/>
-      <c r="P4" s="17"/>
-      <c r="Q4" s="17"/>
-      <c r="R4" s="17"/>
-      <c r="S4" s="11" t="s">
+      <c r="O4" s="18"/>
+      <c r="P4" s="18"/>
+      <c r="Q4" s="18"/>
+      <c r="R4" s="18"/>
+      <c r="S4" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="T4" s="11" t="s">
+      <c r="T4" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="U4" s="11"/>
-      <c r="V4" s="11"/>
-      <c r="W4" s="11"/>
-      <c r="X4" s="11"/>
+      <c r="U4" s="12"/>
+      <c r="V4" s="12"/>
+      <c r="W4" s="12"/>
+      <c r="X4" s="12"/>
     </row>
     <row r="5" spans="1:24" x14ac:dyDescent="0.15">
-      <c r="A5" s="11"/>
-      <c r="B5" s="9" t="s">
+      <c r="A5" s="12"/>
+      <c r="B5" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="C5" s="17"/>
-      <c r="D5" s="17"/>
-      <c r="E5" s="17"/>
-      <c r="F5" s="10"/>
-      <c r="G5" s="11"/>
-      <c r="H5" s="9" t="s">
+      <c r="C5" s="18"/>
+      <c r="D5" s="18"/>
+      <c r="E5" s="18"/>
+      <c r="F5" s="11"/>
+      <c r="G5" s="12"/>
+      <c r="H5" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="I5" s="17"/>
-      <c r="J5" s="17"/>
-      <c r="K5" s="17"/>
-      <c r="L5" s="10"/>
-      <c r="M5" s="25"/>
-      <c r="N5" s="9" t="s">
+      <c r="I5" s="18"/>
+      <c r="J5" s="18"/>
+      <c r="K5" s="18"/>
+      <c r="L5" s="11"/>
+      <c r="M5" s="26"/>
+      <c r="N5" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="O5" s="17"/>
-      <c r="P5" s="17"/>
-      <c r="Q5" s="17"/>
-      <c r="R5" s="10"/>
-      <c r="S5" s="11"/>
-      <c r="T5" s="9" t="s">
+      <c r="O5" s="18"/>
+      <c r="P5" s="18"/>
+      <c r="Q5" s="18"/>
+      <c r="R5" s="11"/>
+      <c r="S5" s="12"/>
+      <c r="T5" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="U5" s="17"/>
-      <c r="V5" s="17"/>
-      <c r="W5" s="17"/>
-      <c r="X5" s="10"/>
+      <c r="U5" s="18"/>
+      <c r="V5" s="18"/>
+      <c r="W5" s="18"/>
+      <c r="X5" s="11"/>
     </row>
     <row r="6" spans="1:24" x14ac:dyDescent="0.15">
-      <c r="A6" s="11"/>
+      <c r="A6" s="12"/>
       <c r="B6" s="2" t="s">
         <v>12</v>
       </c>
@@ -9949,7 +9949,7 @@
       <c r="F6" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="G6" s="11"/>
+      <c r="G6" s="12"/>
       <c r="H6" s="2" t="s">
         <v>12</v>
       </c>
@@ -9965,7 +9965,7 @@
       <c r="L6" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="M6" s="26"/>
+      <c r="M6" s="27"/>
       <c r="N6" s="2" t="s">
         <v>12</v>
       </c>
@@ -9981,7 +9981,7 @@
       <c r="R6" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="S6" s="11"/>
+      <c r="S6" s="12"/>
       <c r="T6" s="2" t="s">
         <v>12</v>
       </c>
@@ -10511,15 +10511,15 @@
       <c r="P26" s="4"/>
       <c r="Q26" s="4"/>
       <c r="R26" s="4"/>
-      <c r="S26" s="37" t="s">
+      <c r="S26" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="T26" s="34" t="s">
+      <c r="T26" s="35" t="s">
         <v>15</v>
       </c>
-      <c r="U26" s="35"/>
-      <c r="V26" s="35"/>
-      <c r="W26" s="36"/>
+      <c r="U26" s="36"/>
+      <c r="V26" s="36"/>
+      <c r="W26" s="37"/>
       <c r="X26" s="4" t="s">
         <v>2</v>
       </c>
@@ -10543,14 +10543,14 @@
       <c r="P27" s="4"/>
       <c r="Q27" s="4"/>
       <c r="R27" s="4"/>
-      <c r="S27" s="27" t="s">
+      <c r="S27" s="28" t="s">
         <v>16</v>
       </c>
-      <c r="T27" s="28"/>
-      <c r="U27" s="28"/>
-      <c r="V27" s="28"/>
-      <c r="W27" s="28"/>
-      <c r="X27" s="29"/>
+      <c r="T27" s="29"/>
+      <c r="U27" s="29"/>
+      <c r="V27" s="29"/>
+      <c r="W27" s="29"/>
+      <c r="X27" s="30"/>
     </row>
     <row r="28" spans="1:24" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="3"/>
@@ -10571,16 +10571,16 @@
       <c r="P28" s="4"/>
       <c r="Q28" s="4"/>
       <c r="R28" s="4"/>
-      <c r="S28" s="37" t="s">
+      <c r="S28" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="T28" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="U28" s="30"/>
-      <c r="V28" s="30"/>
-      <c r="W28" s="30"/>
-      <c r="X28" s="16"/>
+      <c r="T28" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="U28" s="31"/>
+      <c r="V28" s="31"/>
+      <c r="W28" s="31"/>
+      <c r="X28" s="17"/>
     </row>
     <row r="29" spans="1:24" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="3"/>
@@ -10601,16 +10601,16 @@
       <c r="P29" s="4"/>
       <c r="Q29" s="4"/>
       <c r="R29" s="4"/>
-      <c r="S29" s="37" t="s">
+      <c r="S29" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="T29" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="U29" s="30"/>
-      <c r="V29" s="30"/>
-      <c r="W29" s="30"/>
-      <c r="X29" s="16"/>
+      <c r="T29" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="U29" s="31"/>
+      <c r="V29" s="31"/>
+      <c r="W29" s="31"/>
+      <c r="X29" s="17"/>
     </row>
     <row r="30" spans="1:24" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="3"/>
@@ -10631,16 +10631,16 @@
       <c r="P30" s="4"/>
       <c r="Q30" s="4"/>
       <c r="R30" s="4"/>
-      <c r="S30" s="37" t="s">
+      <c r="S30" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="T30" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="U30" s="30"/>
-      <c r="V30" s="30"/>
-      <c r="W30" s="30"/>
-      <c r="X30" s="16"/>
+      <c r="T30" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="U30" s="31"/>
+      <c r="V30" s="31"/>
+      <c r="W30" s="31"/>
+      <c r="X30" s="17"/>
     </row>
     <row r="31" spans="1:24" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="3"/>
@@ -10661,16 +10661,16 @@
       <c r="P31" s="4"/>
       <c r="Q31" s="4"/>
       <c r="R31" s="4"/>
-      <c r="S31" s="37" t="s">
+      <c r="S31" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="T31" s="31" t="s">
-        <v>2</v>
-      </c>
-      <c r="U31" s="32"/>
-      <c r="V31" s="32"/>
-      <c r="W31" s="32"/>
-      <c r="X31" s="33"/>
+      <c r="T31" s="32" t="s">
+        <v>2</v>
+      </c>
+      <c r="U31" s="33"/>
+      <c r="V31" s="33"/>
+      <c r="W31" s="33"/>
+      <c r="X31" s="34"/>
     </row>
     <row r="32" spans="1:24" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="3"/>
@@ -10691,16 +10691,16 @@
       <c r="P32" s="4"/>
       <c r="Q32" s="4"/>
       <c r="R32" s="4"/>
-      <c r="S32" s="37" t="s">
+      <c r="S32" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="T32" s="21" t="s">
-        <v>2</v>
-      </c>
-      <c r="U32" s="22"/>
-      <c r="V32" s="22"/>
-      <c r="W32" s="22"/>
-      <c r="X32" s="23"/>
+      <c r="T32" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="U32" s="23"/>
+      <c r="V32" s="23"/>
+      <c r="W32" s="23"/>
+      <c r="X32" s="24"/>
     </row>
     <row r="33" spans="1:24" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="3"/>
@@ -10721,16 +10721,16 @@
       <c r="P33" s="4"/>
       <c r="Q33" s="4"/>
       <c r="R33" s="4"/>
-      <c r="S33" s="37" t="s">
+      <c r="S33" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="T33" s="21" t="s">
-        <v>2</v>
-      </c>
-      <c r="U33" s="22"/>
-      <c r="V33" s="22"/>
-      <c r="W33" s="22"/>
-      <c r="X33" s="23"/>
+      <c r="T33" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="U33" s="23"/>
+      <c r="V33" s="23"/>
+      <c r="W33" s="23"/>
+      <c r="X33" s="24"/>
     </row>
   </sheetData>
   <mergeCells count="29">
@@ -10755,14 +10755,14 @@
     <mergeCell ref="N5:R5"/>
     <mergeCell ref="T5:X5"/>
     <mergeCell ref="T3:X3"/>
+    <mergeCell ref="S27:X27"/>
+    <mergeCell ref="T26:W26"/>
     <mergeCell ref="T33:X33"/>
     <mergeCell ref="T28:X28"/>
     <mergeCell ref="T29:X29"/>
     <mergeCell ref="T30:X30"/>
     <mergeCell ref="T31:X31"/>
     <mergeCell ref="T32:X32"/>
-    <mergeCell ref="S27:X27"/>
-    <mergeCell ref="T26:W26"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.9055118110236221" right="0.78740157480314965" top="0.74803149606299213" bottom="0.74803149606299213" header="0.47244094488188981" footer="0.47244094488188981"/>
@@ -10796,30 +10796,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
-      <c r="E1" s="18"/>
-      <c r="F1" s="18"/>
-      <c r="G1" s="18"/>
-      <c r="H1" s="18"/>
-      <c r="I1" s="18"/>
-      <c r="J1" s="18"/>
-      <c r="K1" s="18"/>
-      <c r="L1" s="18"/>
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
+      <c r="F1" s="19"/>
+      <c r="G1" s="19"/>
+      <c r="H1" s="19"/>
+      <c r="I1" s="19"/>
+      <c r="J1" s="19"/>
+      <c r="K1" s="19"/>
+      <c r="L1" s="19"/>
     </row>
     <row r="2" spans="1:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="19" t="s">
+      <c r="A2" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="19"/>
-      <c r="C2" s="19" t="s">
-        <v>2</v>
-      </c>
-      <c r="D2" s="19"/>
+      <c r="B2" s="20"/>
+      <c r="C2" s="20" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="20"/>
       <c r="E2" t="s">
         <v>2</v>
       </c>
@@ -10838,110 +10838,110 @@
       <c r="J2" t="s">
         <v>3</v>
       </c>
-      <c r="K2" s="19" t="s">
+      <c r="K2" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="L2" s="19"/>
+      <c r="L2" s="20"/>
     </row>
     <row r="3" spans="1:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="20" t="s">
+      <c r="A3" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="20"/>
-      <c r="C3" s="20"/>
-      <c r="D3" s="20"/>
-      <c r="E3" s="20" t="s">
+      <c r="B3" s="21"/>
+      <c r="C3" s="21"/>
+      <c r="D3" s="21"/>
+      <c r="E3" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="F3" s="20"/>
-      <c r="G3" s="20" t="s">
+      <c r="F3" s="21"/>
+      <c r="G3" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="H3" s="20"/>
-      <c r="I3" s="20"/>
+      <c r="H3" s="21"/>
+      <c r="I3" s="21"/>
       <c r="J3" t="s">
         <v>8</v>
       </c>
-      <c r="K3" s="20" t="s">
-        <v>2</v>
-      </c>
-      <c r="L3" s="20"/>
+      <c r="K3" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="L3" s="21"/>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A4" s="11" t="s">
+      <c r="A4" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="9" t="s">
+      <c r="B4" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="17"/>
-      <c r="D4" s="11" t="s">
+      <c r="C4" s="18"/>
+      <c r="D4" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="E4" s="9" t="s">
+      <c r="E4" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="F4" s="17"/>
-      <c r="G4" s="11" t="s">
+      <c r="F4" s="18"/>
+      <c r="G4" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="H4" s="9" t="s">
+      <c r="H4" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="I4" s="17"/>
-      <c r="J4" s="11" t="s">
+      <c r="I4" s="18"/>
+      <c r="J4" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="K4" s="11" t="s">
+      <c r="K4" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="L4" s="11"/>
+      <c r="L4" s="12"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A5" s="11"/>
-      <c r="B5" s="9" t="s">
+      <c r="A5" s="12"/>
+      <c r="B5" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="10"/>
-      <c r="D5" s="11"/>
-      <c r="E5" s="9" t="s">
+      <c r="C5" s="11"/>
+      <c r="D5" s="12"/>
+      <c r="E5" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="F5" s="10"/>
-      <c r="G5" s="11"/>
-      <c r="H5" s="9" t="s">
+      <c r="F5" s="11"/>
+      <c r="G5" s="12"/>
+      <c r="H5" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="I5" s="10"/>
-      <c r="J5" s="11"/>
-      <c r="K5" s="11" t="s">
+      <c r="I5" s="11"/>
+      <c r="J5" s="12"/>
+      <c r="K5" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="L5" s="11"/>
+      <c r="L5" s="12"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A6" s="11"/>
+      <c r="A6" s="12"/>
       <c r="B6" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D6" s="11"/>
+      <c r="D6" s="12"/>
       <c r="E6" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F6" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="G6" s="11"/>
+      <c r="G6" s="12"/>
       <c r="H6" s="2" t="s">
         <v>12</v>
       </c>
       <c r="I6" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="J6" s="11"/>
+      <c r="J6" s="12"/>
       <c r="K6" s="2" t="s">
         <v>12</v>
       </c>
@@ -11245,11 +11245,11 @@
       <c r="G27" s="5"/>
       <c r="H27" s="2"/>
       <c r="I27" s="2"/>
-      <c r="J27" s="12" t="s">
+      <c r="J27" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="K27" s="13"/>
-      <c r="L27" s="14"/>
+      <c r="K27" s="14"/>
+      <c r="L27" s="15"/>
     </row>
     <row r="28" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="5"/>
@@ -11264,10 +11264,10 @@
       <c r="J28" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="K28" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="L28" s="10"/>
+      <c r="K28" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="L28" s="11"/>
     </row>
     <row r="29" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="5"/>
@@ -11282,10 +11282,10 @@
       <c r="J29" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="K29" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="L29" s="10"/>
+      <c r="K29" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="L29" s="11"/>
     </row>
     <row r="30" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="5"/>
@@ -11300,10 +11300,10 @@
       <c r="J30" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="K30" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="L30" s="16"/>
+      <c r="K30" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="L30" s="17"/>
     </row>
     <row r="31" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="5"/>
@@ -11318,10 +11318,10 @@
       <c r="J31" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="K31" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="L31" s="10"/>
+      <c r="K31" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="L31" s="11"/>
     </row>
     <row r="32" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="5"/>
@@ -11336,10 +11336,10 @@
       <c r="J32" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="K32" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="L32" s="10"/>
+      <c r="K32" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="L32" s="11"/>
     </row>
     <row r="33" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="5"/>
@@ -11354,10 +11354,10 @@
       <c r="J33" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="K33" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="L33" s="10"/>
+      <c r="K33" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="L33" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="28">
@@ -11420,30 +11420,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
-      <c r="E1" s="18"/>
-      <c r="F1" s="18"/>
-      <c r="G1" s="18"/>
-      <c r="H1" s="18"/>
-      <c r="I1" s="18"/>
-      <c r="J1" s="18"/>
-      <c r="K1" s="18"/>
-      <c r="L1" s="18"/>
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
+      <c r="F1" s="19"/>
+      <c r="G1" s="19"/>
+      <c r="H1" s="19"/>
+      <c r="I1" s="19"/>
+      <c r="J1" s="19"/>
+      <c r="K1" s="19"/>
+      <c r="L1" s="19"/>
     </row>
     <row r="2" spans="1:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="19" t="s">
+      <c r="A2" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="19"/>
-      <c r="C2" s="19" t="s">
-        <v>2</v>
-      </c>
-      <c r="D2" s="19"/>
+      <c r="B2" s="20"/>
+      <c r="C2" s="20" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="20"/>
       <c r="E2" t="s">
         <v>2</v>
       </c>
@@ -11462,110 +11462,110 @@
       <c r="J2" t="s">
         <v>3</v>
       </c>
-      <c r="K2" s="19" t="s">
+      <c r="K2" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="L2" s="19"/>
+      <c r="L2" s="20"/>
     </row>
     <row r="3" spans="1:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="20" t="s">
+      <c r="A3" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="20"/>
-      <c r="C3" s="20"/>
-      <c r="D3" s="20"/>
-      <c r="E3" s="20" t="s">
+      <c r="B3" s="21"/>
+      <c r="C3" s="21"/>
+      <c r="D3" s="21"/>
+      <c r="E3" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="F3" s="20"/>
-      <c r="G3" s="20" t="s">
+      <c r="F3" s="21"/>
+      <c r="G3" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="H3" s="20"/>
-      <c r="I3" s="20"/>
+      <c r="H3" s="21"/>
+      <c r="I3" s="21"/>
       <c r="J3" t="s">
         <v>8</v>
       </c>
-      <c r="K3" s="20" t="s">
-        <v>2</v>
-      </c>
-      <c r="L3" s="20"/>
+      <c r="K3" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="L3" s="21"/>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A4" s="11" t="s">
+      <c r="A4" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="9" t="s">
+      <c r="B4" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="17"/>
-      <c r="D4" s="11" t="s">
+      <c r="C4" s="18"/>
+      <c r="D4" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="E4" s="9" t="s">
+      <c r="E4" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="F4" s="17"/>
-      <c r="G4" s="11" t="s">
+      <c r="F4" s="18"/>
+      <c r="G4" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="H4" s="9" t="s">
+      <c r="H4" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="I4" s="17"/>
-      <c r="J4" s="11" t="s">
+      <c r="I4" s="18"/>
+      <c r="J4" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="K4" s="11" t="s">
+      <c r="K4" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="L4" s="11"/>
+      <c r="L4" s="12"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A5" s="11"/>
-      <c r="B5" s="9" t="s">
+      <c r="A5" s="12"/>
+      <c r="B5" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="10"/>
-      <c r="D5" s="11"/>
-      <c r="E5" s="9" t="s">
+      <c r="C5" s="11"/>
+      <c r="D5" s="12"/>
+      <c r="E5" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="F5" s="10"/>
-      <c r="G5" s="11"/>
-      <c r="H5" s="9" t="s">
+      <c r="F5" s="11"/>
+      <c r="G5" s="12"/>
+      <c r="H5" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="I5" s="10"/>
-      <c r="J5" s="11"/>
-      <c r="K5" s="11" t="s">
+      <c r="I5" s="11"/>
+      <c r="J5" s="12"/>
+      <c r="K5" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="L5" s="11"/>
+      <c r="L5" s="12"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A6" s="11"/>
+      <c r="A6" s="12"/>
       <c r="B6" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D6" s="11"/>
+      <c r="D6" s="12"/>
       <c r="E6" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F6" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="G6" s="11"/>
+      <c r="G6" s="12"/>
       <c r="H6" s="2" t="s">
         <v>12</v>
       </c>
       <c r="I6" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="J6" s="11"/>
+      <c r="J6" s="12"/>
       <c r="K6" s="2" t="s">
         <v>12</v>
       </c>
@@ -11869,11 +11869,11 @@
       <c r="G27" s="5"/>
       <c r="H27" s="2"/>
       <c r="I27" s="2"/>
-      <c r="J27" s="12" t="s">
+      <c r="J27" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="K27" s="13"/>
-      <c r="L27" s="14"/>
+      <c r="K27" s="14"/>
+      <c r="L27" s="15"/>
     </row>
     <row r="28" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="5"/>
@@ -11888,10 +11888,10 @@
       <c r="J28" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="K28" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="L28" s="10"/>
+      <c r="K28" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="L28" s="11"/>
     </row>
     <row r="29" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="5"/>
@@ -11906,10 +11906,10 @@
       <c r="J29" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="K29" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="L29" s="10"/>
+      <c r="K29" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="L29" s="11"/>
     </row>
     <row r="30" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="5"/>
@@ -11924,10 +11924,10 @@
       <c r="J30" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="K30" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="L30" s="16"/>
+      <c r="K30" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="L30" s="17"/>
     </row>
     <row r="31" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="5"/>
@@ -11942,10 +11942,10 @@
       <c r="J31" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="K31" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="L31" s="10"/>
+      <c r="K31" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="L31" s="11"/>
     </row>
     <row r="32" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="5"/>
@@ -11960,10 +11960,10 @@
       <c r="J32" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="K32" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="L32" s="10"/>
+      <c r="K32" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="L32" s="11"/>
     </row>
     <row r="33" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="5"/>
@@ -11978,10 +11978,10 @@
       <c r="J33" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="K33" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="L33" s="10"/>
+      <c r="K33" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="L33" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="28">
@@ -12044,30 +12044,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
-      <c r="E1" s="18"/>
-      <c r="F1" s="18"/>
-      <c r="G1" s="18"/>
-      <c r="H1" s="18"/>
-      <c r="I1" s="18"/>
-      <c r="J1" s="18"/>
-      <c r="K1" s="18"/>
-      <c r="L1" s="18"/>
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
+      <c r="F1" s="19"/>
+      <c r="G1" s="19"/>
+      <c r="H1" s="19"/>
+      <c r="I1" s="19"/>
+      <c r="J1" s="19"/>
+      <c r="K1" s="19"/>
+      <c r="L1" s="19"/>
     </row>
     <row r="2" spans="1:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="19" t="s">
+      <c r="A2" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="19"/>
-      <c r="C2" s="19" t="s">
-        <v>2</v>
-      </c>
-      <c r="D2" s="19"/>
+      <c r="B2" s="20"/>
+      <c r="C2" s="20" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="20"/>
       <c r="E2" t="s">
         <v>2</v>
       </c>
@@ -12086,110 +12086,110 @@
       <c r="J2" t="s">
         <v>3</v>
       </c>
-      <c r="K2" s="19" t="s">
+      <c r="K2" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="L2" s="19"/>
+      <c r="L2" s="20"/>
     </row>
     <row r="3" spans="1:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="20" t="s">
+      <c r="A3" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="20"/>
-      <c r="C3" s="20"/>
-      <c r="D3" s="20"/>
-      <c r="E3" s="20" t="s">
+      <c r="B3" s="21"/>
+      <c r="C3" s="21"/>
+      <c r="D3" s="21"/>
+      <c r="E3" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="F3" s="20"/>
-      <c r="G3" s="20" t="s">
+      <c r="F3" s="21"/>
+      <c r="G3" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="H3" s="20"/>
-      <c r="I3" s="20"/>
+      <c r="H3" s="21"/>
+      <c r="I3" s="21"/>
       <c r="J3" t="s">
         <v>8</v>
       </c>
-      <c r="K3" s="20" t="s">
-        <v>2</v>
-      </c>
-      <c r="L3" s="20"/>
+      <c r="K3" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="L3" s="21"/>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A4" s="11" t="s">
+      <c r="A4" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="9" t="s">
+      <c r="B4" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="17"/>
-      <c r="D4" s="11" t="s">
+      <c r="C4" s="18"/>
+      <c r="D4" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="E4" s="9" t="s">
+      <c r="E4" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="F4" s="17"/>
-      <c r="G4" s="11" t="s">
+      <c r="F4" s="18"/>
+      <c r="G4" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="H4" s="9" t="s">
+      <c r="H4" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="I4" s="17"/>
-      <c r="J4" s="11" t="s">
+      <c r="I4" s="18"/>
+      <c r="J4" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="K4" s="11" t="s">
+      <c r="K4" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="L4" s="11"/>
+      <c r="L4" s="12"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A5" s="11"/>
-      <c r="B5" s="9" t="s">
+      <c r="A5" s="12"/>
+      <c r="B5" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="10"/>
-      <c r="D5" s="11"/>
-      <c r="E5" s="9" t="s">
+      <c r="C5" s="11"/>
+      <c r="D5" s="12"/>
+      <c r="E5" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="F5" s="10"/>
-      <c r="G5" s="11"/>
-      <c r="H5" s="9" t="s">
+      <c r="F5" s="11"/>
+      <c r="G5" s="12"/>
+      <c r="H5" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="I5" s="10"/>
-      <c r="J5" s="11"/>
-      <c r="K5" s="11" t="s">
+      <c r="I5" s="11"/>
+      <c r="J5" s="12"/>
+      <c r="K5" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="L5" s="11"/>
+      <c r="L5" s="12"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A6" s="11"/>
+      <c r="A6" s="12"/>
       <c r="B6" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D6" s="11"/>
+      <c r="D6" s="12"/>
       <c r="E6" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F6" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="G6" s="11"/>
+      <c r="G6" s="12"/>
       <c r="H6" s="2" t="s">
         <v>12</v>
       </c>
       <c r="I6" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="J6" s="11"/>
+      <c r="J6" s="12"/>
       <c r="K6" s="2" t="s">
         <v>12</v>
       </c>
@@ -12493,11 +12493,11 @@
       <c r="G27" s="5"/>
       <c r="H27" s="2"/>
       <c r="I27" s="2"/>
-      <c r="J27" s="12" t="s">
+      <c r="J27" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="K27" s="13"/>
-      <c r="L27" s="14"/>
+      <c r="K27" s="14"/>
+      <c r="L27" s="15"/>
     </row>
     <row r="28" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="5"/>
@@ -12512,10 +12512,10 @@
       <c r="J28" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="K28" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="L28" s="10"/>
+      <c r="K28" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="L28" s="11"/>
     </row>
     <row r="29" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="5"/>
@@ -12530,10 +12530,10 @@
       <c r="J29" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="K29" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="L29" s="10"/>
+      <c r="K29" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="L29" s="11"/>
     </row>
     <row r="30" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="5"/>
@@ -12548,10 +12548,10 @@
       <c r="J30" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="K30" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="L30" s="16"/>
+      <c r="K30" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="L30" s="17"/>
     </row>
     <row r="31" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="5"/>
@@ -12566,10 +12566,10 @@
       <c r="J31" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="K31" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="L31" s="10"/>
+      <c r="K31" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="L31" s="11"/>
     </row>
     <row r="32" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="5"/>
@@ -12584,10 +12584,10 @@
       <c r="J32" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="K32" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="L32" s="10"/>
+      <c r="K32" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="L32" s="11"/>
     </row>
     <row r="33" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="5"/>
@@ -12602,10 +12602,10 @@
       <c r="J33" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="K33" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="L33" s="10"/>
+      <c r="K33" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="L33" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="28">
@@ -12668,30 +12668,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
-      <c r="E1" s="18"/>
-      <c r="F1" s="18"/>
-      <c r="G1" s="18"/>
-      <c r="H1" s="18"/>
-      <c r="I1" s="18"/>
-      <c r="J1" s="18"/>
-      <c r="K1" s="18"/>
-      <c r="L1" s="18"/>
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
+      <c r="F1" s="19"/>
+      <c r="G1" s="19"/>
+      <c r="H1" s="19"/>
+      <c r="I1" s="19"/>
+      <c r="J1" s="19"/>
+      <c r="K1" s="19"/>
+      <c r="L1" s="19"/>
     </row>
     <row r="2" spans="1:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="19" t="s">
+      <c r="A2" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="19"/>
-      <c r="C2" s="19" t="s">
-        <v>2</v>
-      </c>
-      <c r="D2" s="19"/>
+      <c r="B2" s="20"/>
+      <c r="C2" s="20" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="20"/>
       <c r="E2" t="s">
         <v>2</v>
       </c>
@@ -12710,110 +12710,110 @@
       <c r="J2" t="s">
         <v>3</v>
       </c>
-      <c r="K2" s="19" t="s">
+      <c r="K2" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="L2" s="19"/>
+      <c r="L2" s="20"/>
     </row>
     <row r="3" spans="1:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="20" t="s">
+      <c r="A3" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="20"/>
-      <c r="C3" s="20"/>
-      <c r="D3" s="20"/>
-      <c r="E3" s="20" t="s">
+      <c r="B3" s="21"/>
+      <c r="C3" s="21"/>
+      <c r="D3" s="21"/>
+      <c r="E3" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="F3" s="20"/>
-      <c r="G3" s="20" t="s">
+      <c r="F3" s="21"/>
+      <c r="G3" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="H3" s="20"/>
-      <c r="I3" s="20"/>
+      <c r="H3" s="21"/>
+      <c r="I3" s="21"/>
       <c r="J3" t="s">
         <v>8</v>
       </c>
-      <c r="K3" s="20" t="s">
-        <v>2</v>
-      </c>
-      <c r="L3" s="20"/>
+      <c r="K3" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="L3" s="21"/>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A4" s="11" t="s">
+      <c r="A4" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="9" t="s">
+      <c r="B4" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="17"/>
-      <c r="D4" s="11" t="s">
+      <c r="C4" s="18"/>
+      <c r="D4" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="E4" s="9" t="s">
+      <c r="E4" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="F4" s="17"/>
-      <c r="G4" s="11" t="s">
+      <c r="F4" s="18"/>
+      <c r="G4" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="H4" s="9" t="s">
+      <c r="H4" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="I4" s="17"/>
-      <c r="J4" s="11" t="s">
+      <c r="I4" s="18"/>
+      <c r="J4" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="K4" s="11" t="s">
+      <c r="K4" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="L4" s="11"/>
+      <c r="L4" s="12"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A5" s="11"/>
-      <c r="B5" s="9" t="s">
+      <c r="A5" s="12"/>
+      <c r="B5" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="10"/>
-      <c r="D5" s="11"/>
-      <c r="E5" s="9" t="s">
+      <c r="C5" s="11"/>
+      <c r="D5" s="12"/>
+      <c r="E5" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="F5" s="10"/>
-      <c r="G5" s="11"/>
-      <c r="H5" s="9" t="s">
+      <c r="F5" s="11"/>
+      <c r="G5" s="12"/>
+      <c r="H5" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="I5" s="10"/>
-      <c r="J5" s="11"/>
-      <c r="K5" s="11" t="s">
+      <c r="I5" s="11"/>
+      <c r="J5" s="12"/>
+      <c r="K5" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="L5" s="11"/>
+      <c r="L5" s="12"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A6" s="11"/>
+      <c r="A6" s="12"/>
       <c r="B6" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D6" s="11"/>
+      <c r="D6" s="12"/>
       <c r="E6" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F6" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="G6" s="11"/>
+      <c r="G6" s="12"/>
       <c r="H6" s="2" t="s">
         <v>12</v>
       </c>
       <c r="I6" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="J6" s="11"/>
+      <c r="J6" s="12"/>
       <c r="K6" s="2" t="s">
         <v>12</v>
       </c>
@@ -13117,11 +13117,11 @@
       <c r="G27" s="5"/>
       <c r="H27" s="2"/>
       <c r="I27" s="2"/>
-      <c r="J27" s="12" t="s">
+      <c r="J27" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="K27" s="13"/>
-      <c r="L27" s="14"/>
+      <c r="K27" s="14"/>
+      <c r="L27" s="15"/>
     </row>
     <row r="28" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="5"/>
@@ -13136,10 +13136,10 @@
       <c r="J28" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="K28" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="L28" s="10"/>
+      <c r="K28" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="L28" s="11"/>
     </row>
     <row r="29" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="5"/>
@@ -13154,10 +13154,10 @@
       <c r="J29" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="K29" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="L29" s="10"/>
+      <c r="K29" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="L29" s="11"/>
     </row>
     <row r="30" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="5"/>
@@ -13172,10 +13172,10 @@
       <c r="J30" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="K30" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="L30" s="16"/>
+      <c r="K30" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="L30" s="17"/>
     </row>
     <row r="31" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="5"/>
@@ -13190,10 +13190,10 @@
       <c r="J31" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="K31" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="L31" s="10"/>
+      <c r="K31" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="L31" s="11"/>
     </row>
     <row r="32" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="5"/>
@@ -13208,10 +13208,10 @@
       <c r="J32" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="K32" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="L32" s="10"/>
+      <c r="K32" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="L32" s="11"/>
     </row>
     <row r="33" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="5"/>
@@ -13226,10 +13226,10 @@
       <c r="J33" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="K33" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="L33" s="10"/>
+      <c r="K33" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="L33" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="28">
@@ -13292,30 +13292,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
-      <c r="E1" s="18"/>
-      <c r="F1" s="18"/>
-      <c r="G1" s="18"/>
-      <c r="H1" s="18"/>
-      <c r="I1" s="18"/>
-      <c r="J1" s="18"/>
-      <c r="K1" s="18"/>
-      <c r="L1" s="18"/>
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
+      <c r="F1" s="19"/>
+      <c r="G1" s="19"/>
+      <c r="H1" s="19"/>
+      <c r="I1" s="19"/>
+      <c r="J1" s="19"/>
+      <c r="K1" s="19"/>
+      <c r="L1" s="19"/>
     </row>
     <row r="2" spans="1:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="19" t="s">
+      <c r="A2" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="19"/>
-      <c r="C2" s="19" t="s">
-        <v>2</v>
-      </c>
-      <c r="D2" s="19"/>
+      <c r="B2" s="20"/>
+      <c r="C2" s="20" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="20"/>
       <c r="E2" t="s">
         <v>2</v>
       </c>
@@ -13334,110 +13334,110 @@
       <c r="J2" t="s">
         <v>3</v>
       </c>
-      <c r="K2" s="19" t="s">
+      <c r="K2" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="L2" s="19"/>
+      <c r="L2" s="20"/>
     </row>
     <row r="3" spans="1:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="20" t="s">
+      <c r="A3" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="20"/>
-      <c r="C3" s="20"/>
-      <c r="D3" s="20"/>
-      <c r="E3" s="20" t="s">
+      <c r="B3" s="21"/>
+      <c r="C3" s="21"/>
+      <c r="D3" s="21"/>
+      <c r="E3" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="F3" s="20"/>
-      <c r="G3" s="20" t="s">
+      <c r="F3" s="21"/>
+      <c r="G3" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="H3" s="20"/>
-      <c r="I3" s="20"/>
+      <c r="H3" s="21"/>
+      <c r="I3" s="21"/>
       <c r="J3" t="s">
         <v>8</v>
       </c>
-      <c r="K3" s="20" t="s">
-        <v>2</v>
-      </c>
-      <c r="L3" s="20"/>
+      <c r="K3" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="L3" s="21"/>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A4" s="11" t="s">
+      <c r="A4" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="9" t="s">
+      <c r="B4" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="17"/>
-      <c r="D4" s="11" t="s">
+      <c r="C4" s="18"/>
+      <c r="D4" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="E4" s="9" t="s">
+      <c r="E4" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="F4" s="17"/>
-      <c r="G4" s="11" t="s">
+      <c r="F4" s="18"/>
+      <c r="G4" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="H4" s="9" t="s">
+      <c r="H4" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="I4" s="17"/>
-      <c r="J4" s="11" t="s">
+      <c r="I4" s="18"/>
+      <c r="J4" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="K4" s="11" t="s">
+      <c r="K4" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="L4" s="11"/>
+      <c r="L4" s="12"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A5" s="11"/>
-      <c r="B5" s="9" t="s">
+      <c r="A5" s="12"/>
+      <c r="B5" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="10"/>
-      <c r="D5" s="11"/>
-      <c r="E5" s="9" t="s">
+      <c r="C5" s="11"/>
+      <c r="D5" s="12"/>
+      <c r="E5" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="F5" s="10"/>
-      <c r="G5" s="11"/>
-      <c r="H5" s="9" t="s">
+      <c r="F5" s="11"/>
+      <c r="G5" s="12"/>
+      <c r="H5" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="I5" s="10"/>
-      <c r="J5" s="11"/>
-      <c r="K5" s="11" t="s">
+      <c r="I5" s="11"/>
+      <c r="J5" s="12"/>
+      <c r="K5" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="L5" s="11"/>
+      <c r="L5" s="12"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A6" s="11"/>
+      <c r="A6" s="12"/>
       <c r="B6" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D6" s="11"/>
+      <c r="D6" s="12"/>
       <c r="E6" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F6" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="G6" s="11"/>
+      <c r="G6" s="12"/>
       <c r="H6" s="2" t="s">
         <v>12</v>
       </c>
       <c r="I6" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="J6" s="11"/>
+      <c r="J6" s="12"/>
       <c r="K6" s="2" t="s">
         <v>12</v>
       </c>
@@ -13741,11 +13741,11 @@
       <c r="G27" s="5"/>
       <c r="H27" s="2"/>
       <c r="I27" s="2"/>
-      <c r="J27" s="12" t="s">
+      <c r="J27" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="K27" s="13"/>
-      <c r="L27" s="14"/>
+      <c r="K27" s="14"/>
+      <c r="L27" s="15"/>
     </row>
     <row r="28" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="5"/>
@@ -13760,10 +13760,10 @@
       <c r="J28" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="K28" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="L28" s="10"/>
+      <c r="K28" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="L28" s="11"/>
     </row>
     <row r="29" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="5"/>
@@ -13778,10 +13778,10 @@
       <c r="J29" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="K29" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="L29" s="10"/>
+      <c r="K29" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="L29" s="11"/>
     </row>
     <row r="30" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="5"/>
@@ -13796,10 +13796,10 @@
       <c r="J30" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="K30" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="L30" s="16"/>
+      <c r="K30" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="L30" s="17"/>
     </row>
     <row r="31" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="5"/>
@@ -13814,10 +13814,10 @@
       <c r="J31" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="K31" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="L31" s="10"/>
+      <c r="K31" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="L31" s="11"/>
     </row>
     <row r="32" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="5"/>
@@ -13832,10 +13832,10 @@
       <c r="J32" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="K32" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="L32" s="10"/>
+      <c r="K32" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="L32" s="11"/>
     </row>
     <row r="33" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="5"/>
@@ -13850,10 +13850,10 @@
       <c r="J33" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="K33" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="L33" s="10"/>
+      <c r="K33" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="L33" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="28">
@@ -13903,7 +13903,7 @@
   </sheetPr>
   <dimension ref="A1:X33"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" zoomScalePageLayoutView="85" workbookViewId="0">
+    <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection activeCell="V12" sqref="V12"/>
     </sheetView>
   </sheetViews>
@@ -13920,43 +13920,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" ht="24.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
-      <c r="E1" s="18"/>
-      <c r="F1" s="18"/>
-      <c r="G1" s="18"/>
-      <c r="H1" s="18"/>
-      <c r="I1" s="18"/>
-      <c r="J1" s="18"/>
-      <c r="K1" s="18"/>
-      <c r="L1" s="18"/>
-      <c r="M1" s="18"/>
-      <c r="N1" s="18"/>
-      <c r="O1" s="18"/>
-      <c r="P1" s="18"/>
-      <c r="Q1" s="18"/>
-      <c r="R1" s="18"/>
-      <c r="S1" s="18"/>
-      <c r="T1" s="18"/>
-      <c r="U1" s="18"/>
-      <c r="V1" s="18"/>
-      <c r="W1" s="18"/>
-      <c r="X1" s="18"/>
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
+      <c r="F1" s="19"/>
+      <c r="G1" s="19"/>
+      <c r="H1" s="19"/>
+      <c r="I1" s="19"/>
+      <c r="J1" s="19"/>
+      <c r="K1" s="19"/>
+      <c r="L1" s="19"/>
+      <c r="M1" s="19"/>
+      <c r="N1" s="19"/>
+      <c r="O1" s="19"/>
+      <c r="P1" s="19"/>
+      <c r="Q1" s="19"/>
+      <c r="R1" s="19"/>
+      <c r="S1" s="19"/>
+      <c r="T1" s="19"/>
+      <c r="U1" s="19"/>
+      <c r="V1" s="19"/>
+      <c r="W1" s="19"/>
+      <c r="X1" s="19"/>
     </row>
     <row r="2" spans="1:24" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="19" t="s">
+      <c r="A2" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="19"/>
-      <c r="C2" s="19"/>
-      <c r="D2" s="19"/>
-      <c r="E2" s="19"/>
-      <c r="F2" s="19"/>
-      <c r="G2" s="19"/>
+      <c r="B2" s="20"/>
+      <c r="C2" s="20"/>
+      <c r="D2" s="20"/>
+      <c r="E2" s="20"/>
+      <c r="F2" s="20"/>
+      <c r="G2" s="20"/>
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
       <c r="J2" s="1"/>
@@ -13971,128 +13971,128 @@
       <c r="S2" t="s">
         <v>3</v>
       </c>
-      <c r="T2" s="19" t="s">
+      <c r="T2" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="U2" s="19"/>
-      <c r="V2" s="19"/>
-      <c r="W2" s="19"/>
-      <c r="X2" s="19"/>
+      <c r="U2" s="20"/>
+      <c r="V2" s="20"/>
+      <c r="W2" s="20"/>
+      <c r="X2" s="20"/>
     </row>
     <row r="3" spans="1:24" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="20" t="s">
+      <c r="A3" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="20"/>
-      <c r="C3" s="20"/>
-      <c r="D3" s="20"/>
-      <c r="E3" s="20"/>
-      <c r="F3" s="20"/>
-      <c r="G3" s="20"/>
-      <c r="H3" s="20" t="s">
+      <c r="B3" s="21"/>
+      <c r="C3" s="21"/>
+      <c r="D3" s="21"/>
+      <c r="E3" s="21"/>
+      <c r="F3" s="21"/>
+      <c r="G3" s="21"/>
+      <c r="H3" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="I3" s="20"/>
-      <c r="J3" s="20"/>
-      <c r="K3" s="20"/>
-      <c r="L3" s="20"/>
-      <c r="M3" s="20" t="s">
+      <c r="I3" s="21"/>
+      <c r="J3" s="21"/>
+      <c r="K3" s="21"/>
+      <c r="L3" s="21"/>
+      <c r="M3" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="N3" s="20"/>
-      <c r="O3" s="20"/>
-      <c r="P3" s="20"/>
-      <c r="Q3" s="20"/>
-      <c r="R3" s="20"/>
+      <c r="N3" s="21"/>
+      <c r="O3" s="21"/>
+      <c r="P3" s="21"/>
+      <c r="Q3" s="21"/>
+      <c r="R3" s="21"/>
       <c r="S3" t="s">
         <v>8</v>
       </c>
-      <c r="T3" s="20" t="s">
-        <v>2</v>
-      </c>
-      <c r="U3" s="20"/>
-      <c r="V3" s="20"/>
-      <c r="W3" s="20"/>
-      <c r="X3" s="20"/>
+      <c r="T3" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="U3" s="21"/>
+      <c r="V3" s="21"/>
+      <c r="W3" s="21"/>
+      <c r="X3" s="21"/>
     </row>
     <row r="4" spans="1:24" x14ac:dyDescent="0.15">
-      <c r="A4" s="11" t="s">
+      <c r="A4" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="9" t="s">
+      <c r="B4" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="17"/>
-      <c r="D4" s="17"/>
-      <c r="E4" s="17"/>
-      <c r="F4" s="17"/>
-      <c r="G4" s="11" t="s">
+      <c r="C4" s="18"/>
+      <c r="D4" s="18"/>
+      <c r="E4" s="18"/>
+      <c r="F4" s="18"/>
+      <c r="G4" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="H4" s="9" t="s">
+      <c r="H4" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="I4" s="17"/>
-      <c r="J4" s="17"/>
-      <c r="K4" s="17"/>
-      <c r="L4" s="17"/>
-      <c r="M4" s="24" t="s">
+      <c r="I4" s="18"/>
+      <c r="J4" s="18"/>
+      <c r="K4" s="18"/>
+      <c r="L4" s="18"/>
+      <c r="M4" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="N4" s="9" t="s">
+      <c r="N4" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="17"/>
-      <c r="P4" s="17"/>
-      <c r="Q4" s="17"/>
-      <c r="R4" s="17"/>
-      <c r="S4" s="11" t="s">
+      <c r="O4" s="18"/>
+      <c r="P4" s="18"/>
+      <c r="Q4" s="18"/>
+      <c r="R4" s="18"/>
+      <c r="S4" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="T4" s="11" t="s">
+      <c r="T4" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="U4" s="11"/>
-      <c r="V4" s="11"/>
-      <c r="W4" s="11"/>
-      <c r="X4" s="11"/>
+      <c r="U4" s="12"/>
+      <c r="V4" s="12"/>
+      <c r="W4" s="12"/>
+      <c r="X4" s="12"/>
     </row>
     <row r="5" spans="1:24" x14ac:dyDescent="0.15">
-      <c r="A5" s="11"/>
-      <c r="B5" s="9" t="s">
+      <c r="A5" s="12"/>
+      <c r="B5" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="C5" s="17"/>
-      <c r="D5" s="17"/>
-      <c r="E5" s="17"/>
-      <c r="F5" s="10"/>
-      <c r="G5" s="11"/>
-      <c r="H5" s="9" t="s">
+      <c r="C5" s="18"/>
+      <c r="D5" s="18"/>
+      <c r="E5" s="18"/>
+      <c r="F5" s="11"/>
+      <c r="G5" s="12"/>
+      <c r="H5" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="I5" s="17"/>
-      <c r="J5" s="17"/>
-      <c r="K5" s="17"/>
-      <c r="L5" s="10"/>
-      <c r="M5" s="25"/>
-      <c r="N5" s="9" t="s">
+      <c r="I5" s="18"/>
+      <c r="J5" s="18"/>
+      <c r="K5" s="18"/>
+      <c r="L5" s="11"/>
+      <c r="M5" s="26"/>
+      <c r="N5" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="O5" s="17"/>
-      <c r="P5" s="17"/>
-      <c r="Q5" s="17"/>
-      <c r="R5" s="10"/>
-      <c r="S5" s="11"/>
-      <c r="T5" s="11" t="s">
+      <c r="O5" s="18"/>
+      <c r="P5" s="18"/>
+      <c r="Q5" s="18"/>
+      <c r="R5" s="11"/>
+      <c r="S5" s="12"/>
+      <c r="T5" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="U5" s="11"/>
-      <c r="V5" s="11"/>
-      <c r="W5" s="11"/>
-      <c r="X5" s="11"/>
+      <c r="U5" s="12"/>
+      <c r="V5" s="12"/>
+      <c r="W5" s="12"/>
+      <c r="X5" s="12"/>
     </row>
     <row r="6" spans="1:24" x14ac:dyDescent="0.15">
-      <c r="A6" s="11"/>
+      <c r="A6" s="12"/>
       <c r="B6" s="2" t="s">
         <v>12</v>
       </c>
@@ -14108,7 +14108,7 @@
       <c r="F6" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="G6" s="11"/>
+      <c r="G6" s="12"/>
       <c r="H6" s="2" t="s">
         <v>12</v>
       </c>
@@ -14124,7 +14124,7 @@
       <c r="L6" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="M6" s="26"/>
+      <c r="M6" s="27"/>
       <c r="N6" s="2" t="s">
         <v>12</v>
       </c>
@@ -14140,7 +14140,7 @@
       <c r="R6" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="S6" s="11"/>
+      <c r="S6" s="12"/>
       <c r="T6" s="2" t="s">
         <v>12</v>
       </c>
@@ -14670,15 +14670,15 @@
       <c r="P26" s="4"/>
       <c r="Q26" s="4"/>
       <c r="R26" s="4"/>
-      <c r="S26" s="37" t="s">
+      <c r="S26" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="T26" s="34" t="s">
+      <c r="T26" s="35" t="s">
         <v>15</v>
       </c>
-      <c r="U26" s="35"/>
-      <c r="V26" s="35"/>
-      <c r="W26" s="36"/>
+      <c r="U26" s="36"/>
+      <c r="V26" s="36"/>
+      <c r="W26" s="37"/>
       <c r="X26" s="4" t="s">
         <v>2</v>
       </c>
@@ -14702,14 +14702,14 @@
       <c r="P27" s="4"/>
       <c r="Q27" s="4"/>
       <c r="R27" s="4"/>
-      <c r="S27" s="27" t="s">
+      <c r="S27" s="28" t="s">
         <v>16</v>
       </c>
-      <c r="T27" s="28"/>
-      <c r="U27" s="28"/>
-      <c r="V27" s="28"/>
-      <c r="W27" s="28"/>
-      <c r="X27" s="29"/>
+      <c r="T27" s="29"/>
+      <c r="U27" s="29"/>
+      <c r="V27" s="29"/>
+      <c r="W27" s="29"/>
+      <c r="X27" s="30"/>
     </row>
     <row r="28" spans="1:24" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="3"/>
@@ -14730,16 +14730,16 @@
       <c r="P28" s="4"/>
       <c r="Q28" s="4"/>
       <c r="R28" s="4"/>
-      <c r="S28" s="37" t="s">
+      <c r="S28" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="T28" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="U28" s="30"/>
-      <c r="V28" s="30"/>
-      <c r="W28" s="30"/>
-      <c r="X28" s="16"/>
+      <c r="T28" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="U28" s="31"/>
+      <c r="V28" s="31"/>
+      <c r="W28" s="31"/>
+      <c r="X28" s="17"/>
     </row>
     <row r="29" spans="1:24" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="3"/>
@@ -14760,16 +14760,16 @@
       <c r="P29" s="4"/>
       <c r="Q29" s="4"/>
       <c r="R29" s="4"/>
-      <c r="S29" s="37" t="s">
+      <c r="S29" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="T29" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="U29" s="30"/>
-      <c r="V29" s="30"/>
-      <c r="W29" s="30"/>
-      <c r="X29" s="16"/>
+      <c r="T29" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="U29" s="31"/>
+      <c r="V29" s="31"/>
+      <c r="W29" s="31"/>
+      <c r="X29" s="17"/>
     </row>
     <row r="30" spans="1:24" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="3"/>
@@ -14790,16 +14790,16 @@
       <c r="P30" s="4"/>
       <c r="Q30" s="4"/>
       <c r="R30" s="4"/>
-      <c r="S30" s="37" t="s">
+      <c r="S30" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="T30" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="U30" s="30"/>
-      <c r="V30" s="30"/>
-      <c r="W30" s="30"/>
-      <c r="X30" s="16"/>
+      <c r="T30" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="U30" s="31"/>
+      <c r="V30" s="31"/>
+      <c r="W30" s="31"/>
+      <c r="X30" s="17"/>
     </row>
     <row r="31" spans="1:24" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="3"/>
@@ -14820,16 +14820,16 @@
       <c r="P31" s="4"/>
       <c r="Q31" s="4"/>
       <c r="R31" s="4"/>
-      <c r="S31" s="37" t="s">
+      <c r="S31" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="T31" s="31" t="s">
-        <v>2</v>
-      </c>
-      <c r="U31" s="32"/>
-      <c r="V31" s="32"/>
-      <c r="W31" s="32"/>
-      <c r="X31" s="33"/>
+      <c r="T31" s="32" t="s">
+        <v>2</v>
+      </c>
+      <c r="U31" s="33"/>
+      <c r="V31" s="33"/>
+      <c r="W31" s="33"/>
+      <c r="X31" s="34"/>
     </row>
     <row r="32" spans="1:24" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="3"/>
@@ -14850,16 +14850,16 @@
       <c r="P32" s="4"/>
       <c r="Q32" s="4"/>
       <c r="R32" s="4"/>
-      <c r="S32" s="37" t="s">
+      <c r="S32" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="T32" s="21" t="s">
-        <v>2</v>
-      </c>
-      <c r="U32" s="22"/>
-      <c r="V32" s="22"/>
-      <c r="W32" s="22"/>
-      <c r="X32" s="23"/>
+      <c r="T32" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="U32" s="23"/>
+      <c r="V32" s="23"/>
+      <c r="W32" s="23"/>
+      <c r="X32" s="24"/>
     </row>
     <row r="33" spans="1:24" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="3"/>
@@ -14880,16 +14880,16 @@
       <c r="P33" s="4"/>
       <c r="Q33" s="4"/>
       <c r="R33" s="4"/>
-      <c r="S33" s="37" t="s">
+      <c r="S33" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="T33" s="21" t="s">
-        <v>2</v>
-      </c>
-      <c r="U33" s="22"/>
-      <c r="V33" s="22"/>
-      <c r="W33" s="22"/>
-      <c r="X33" s="23"/>
+      <c r="T33" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="U33" s="23"/>
+      <c r="V33" s="23"/>
+      <c r="W33" s="23"/>
+      <c r="X33" s="24"/>
     </row>
   </sheetData>
   <mergeCells count="29">
@@ -14959,43 +14959,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" ht="24.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
-      <c r="E1" s="18"/>
-      <c r="F1" s="18"/>
-      <c r="G1" s="18"/>
-      <c r="H1" s="18"/>
-      <c r="I1" s="18"/>
-      <c r="J1" s="18"/>
-      <c r="K1" s="18"/>
-      <c r="L1" s="18"/>
-      <c r="M1" s="18"/>
-      <c r="N1" s="18"/>
-      <c r="O1" s="18"/>
-      <c r="P1" s="18"/>
-      <c r="Q1" s="18"/>
-      <c r="R1" s="18"/>
-      <c r="S1" s="18"/>
-      <c r="T1" s="18"/>
-      <c r="U1" s="18"/>
-      <c r="V1" s="18"/>
-      <c r="W1" s="18"/>
-      <c r="X1" s="18"/>
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
+      <c r="F1" s="19"/>
+      <c r="G1" s="19"/>
+      <c r="H1" s="19"/>
+      <c r="I1" s="19"/>
+      <c r="J1" s="19"/>
+      <c r="K1" s="19"/>
+      <c r="L1" s="19"/>
+      <c r="M1" s="19"/>
+      <c r="N1" s="19"/>
+      <c r="O1" s="19"/>
+      <c r="P1" s="19"/>
+      <c r="Q1" s="19"/>
+      <c r="R1" s="19"/>
+      <c r="S1" s="19"/>
+      <c r="T1" s="19"/>
+      <c r="U1" s="19"/>
+      <c r="V1" s="19"/>
+      <c r="W1" s="19"/>
+      <c r="X1" s="19"/>
     </row>
     <row r="2" spans="1:24" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="19" t="s">
+      <c r="A2" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="19"/>
-      <c r="C2" s="19"/>
-      <c r="D2" s="19"/>
-      <c r="E2" s="19"/>
-      <c r="F2" s="19"/>
-      <c r="G2" s="19"/>
+      <c r="B2" s="20"/>
+      <c r="C2" s="20"/>
+      <c r="D2" s="20"/>
+      <c r="E2" s="20"/>
+      <c r="F2" s="20"/>
+      <c r="G2" s="20"/>
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
       <c r="J2" s="1"/>
@@ -15010,128 +15010,128 @@
       <c r="S2" t="s">
         <v>3</v>
       </c>
-      <c r="T2" s="19" t="s">
+      <c r="T2" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="U2" s="19"/>
-      <c r="V2" s="19"/>
-      <c r="W2" s="19"/>
-      <c r="X2" s="19"/>
+      <c r="U2" s="20"/>
+      <c r="V2" s="20"/>
+      <c r="W2" s="20"/>
+      <c r="X2" s="20"/>
     </row>
     <row r="3" spans="1:24" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="20" t="s">
+      <c r="A3" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="20"/>
-      <c r="C3" s="20"/>
-      <c r="D3" s="20"/>
-      <c r="E3" s="20"/>
-      <c r="F3" s="20"/>
-      <c r="G3" s="20"/>
-      <c r="H3" s="20" t="s">
+      <c r="B3" s="21"/>
+      <c r="C3" s="21"/>
+      <c r="D3" s="21"/>
+      <c r="E3" s="21"/>
+      <c r="F3" s="21"/>
+      <c r="G3" s="21"/>
+      <c r="H3" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="I3" s="20"/>
-      <c r="J3" s="20"/>
-      <c r="K3" s="20"/>
-      <c r="L3" s="20"/>
-      <c r="M3" s="20" t="s">
+      <c r="I3" s="21"/>
+      <c r="J3" s="21"/>
+      <c r="K3" s="21"/>
+      <c r="L3" s="21"/>
+      <c r="M3" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="N3" s="20"/>
-      <c r="O3" s="20"/>
-      <c r="P3" s="20"/>
-      <c r="Q3" s="20"/>
-      <c r="R3" s="20"/>
+      <c r="N3" s="21"/>
+      <c r="O3" s="21"/>
+      <c r="P3" s="21"/>
+      <c r="Q3" s="21"/>
+      <c r="R3" s="21"/>
       <c r="S3" t="s">
         <v>8</v>
       </c>
-      <c r="T3" s="20" t="s">
-        <v>2</v>
-      </c>
-      <c r="U3" s="20"/>
-      <c r="V3" s="20"/>
-      <c r="W3" s="20"/>
-      <c r="X3" s="20"/>
+      <c r="T3" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="U3" s="21"/>
+      <c r="V3" s="21"/>
+      <c r="W3" s="21"/>
+      <c r="X3" s="21"/>
     </row>
     <row r="4" spans="1:24" x14ac:dyDescent="0.15">
-      <c r="A4" s="11" t="s">
+      <c r="A4" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="9" t="s">
+      <c r="B4" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="17"/>
-      <c r="D4" s="17"/>
-      <c r="E4" s="17"/>
-      <c r="F4" s="17"/>
-      <c r="G4" s="11" t="s">
+      <c r="C4" s="18"/>
+      <c r="D4" s="18"/>
+      <c r="E4" s="18"/>
+      <c r="F4" s="18"/>
+      <c r="G4" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="H4" s="9" t="s">
+      <c r="H4" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="I4" s="17"/>
-      <c r="J4" s="17"/>
-      <c r="K4" s="17"/>
-      <c r="L4" s="17"/>
-      <c r="M4" s="24" t="s">
+      <c r="I4" s="18"/>
+      <c r="J4" s="18"/>
+      <c r="K4" s="18"/>
+      <c r="L4" s="18"/>
+      <c r="M4" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="N4" s="9" t="s">
+      <c r="N4" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="17"/>
-      <c r="P4" s="17"/>
-      <c r="Q4" s="17"/>
-      <c r="R4" s="17"/>
-      <c r="S4" s="11" t="s">
+      <c r="O4" s="18"/>
+      <c r="P4" s="18"/>
+      <c r="Q4" s="18"/>
+      <c r="R4" s="18"/>
+      <c r="S4" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="T4" s="11" t="s">
+      <c r="T4" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="U4" s="11"/>
-      <c r="V4" s="11"/>
-      <c r="W4" s="11"/>
-      <c r="X4" s="11"/>
+      <c r="U4" s="12"/>
+      <c r="V4" s="12"/>
+      <c r="W4" s="12"/>
+      <c r="X4" s="12"/>
     </row>
     <row r="5" spans="1:24" x14ac:dyDescent="0.15">
-      <c r="A5" s="11"/>
-      <c r="B5" s="9" t="s">
+      <c r="A5" s="12"/>
+      <c r="B5" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="C5" s="17"/>
-      <c r="D5" s="17"/>
-      <c r="E5" s="17"/>
-      <c r="F5" s="10"/>
-      <c r="G5" s="11"/>
-      <c r="H5" s="9" t="s">
+      <c r="C5" s="18"/>
+      <c r="D5" s="18"/>
+      <c r="E5" s="18"/>
+      <c r="F5" s="11"/>
+      <c r="G5" s="12"/>
+      <c r="H5" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="I5" s="17"/>
-      <c r="J5" s="17"/>
-      <c r="K5" s="17"/>
-      <c r="L5" s="10"/>
-      <c r="M5" s="25"/>
-      <c r="N5" s="9" t="s">
+      <c r="I5" s="18"/>
+      <c r="J5" s="18"/>
+      <c r="K5" s="18"/>
+      <c r="L5" s="11"/>
+      <c r="M5" s="26"/>
+      <c r="N5" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="O5" s="17"/>
-      <c r="P5" s="17"/>
-      <c r="Q5" s="17"/>
-      <c r="R5" s="10"/>
-      <c r="S5" s="11"/>
-      <c r="T5" s="9" t="s">
+      <c r="O5" s="18"/>
+      <c r="P5" s="18"/>
+      <c r="Q5" s="18"/>
+      <c r="R5" s="11"/>
+      <c r="S5" s="12"/>
+      <c r="T5" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="U5" s="17"/>
-      <c r="V5" s="17"/>
-      <c r="W5" s="17"/>
-      <c r="X5" s="10"/>
+      <c r="U5" s="18"/>
+      <c r="V5" s="18"/>
+      <c r="W5" s="18"/>
+      <c r="X5" s="11"/>
     </row>
     <row r="6" spans="1:24" x14ac:dyDescent="0.15">
-      <c r="A6" s="11"/>
+      <c r="A6" s="12"/>
       <c r="B6" s="2" t="s">
         <v>12</v>
       </c>
@@ -15147,7 +15147,7 @@
       <c r="F6" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="G6" s="11"/>
+      <c r="G6" s="12"/>
       <c r="H6" s="2" t="s">
         <v>12</v>
       </c>
@@ -15163,7 +15163,7 @@
       <c r="L6" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="M6" s="26"/>
+      <c r="M6" s="27"/>
       <c r="N6" s="2" t="s">
         <v>12</v>
       </c>
@@ -15179,7 +15179,7 @@
       <c r="R6" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="S6" s="11"/>
+      <c r="S6" s="12"/>
       <c r="T6" s="2" t="s">
         <v>12</v>
       </c>
@@ -15709,15 +15709,15 @@
       <c r="P26" s="4"/>
       <c r="Q26" s="4"/>
       <c r="R26" s="4"/>
-      <c r="S26" s="37" t="s">
+      <c r="S26" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="T26" s="34" t="s">
+      <c r="T26" s="35" t="s">
         <v>15</v>
       </c>
-      <c r="U26" s="35"/>
-      <c r="V26" s="35"/>
-      <c r="W26" s="36"/>
+      <c r="U26" s="36"/>
+      <c r="V26" s="36"/>
+      <c r="W26" s="37"/>
       <c r="X26" s="4" t="s">
         <v>2</v>
       </c>
@@ -15741,14 +15741,14 @@
       <c r="P27" s="4"/>
       <c r="Q27" s="4"/>
       <c r="R27" s="4"/>
-      <c r="S27" s="27" t="s">
+      <c r="S27" s="28" t="s">
         <v>16</v>
       </c>
-      <c r="T27" s="28"/>
-      <c r="U27" s="28"/>
-      <c r="V27" s="28"/>
-      <c r="W27" s="28"/>
-      <c r="X27" s="29"/>
+      <c r="T27" s="29"/>
+      <c r="U27" s="29"/>
+      <c r="V27" s="29"/>
+      <c r="W27" s="29"/>
+      <c r="X27" s="30"/>
     </row>
     <row r="28" spans="1:24" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="3"/>
@@ -15769,16 +15769,16 @@
       <c r="P28" s="4"/>
       <c r="Q28" s="4"/>
       <c r="R28" s="4"/>
-      <c r="S28" s="37" t="s">
+      <c r="S28" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="T28" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="U28" s="30"/>
-      <c r="V28" s="30"/>
-      <c r="W28" s="30"/>
-      <c r="X28" s="16"/>
+      <c r="T28" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="U28" s="31"/>
+      <c r="V28" s="31"/>
+      <c r="W28" s="31"/>
+      <c r="X28" s="17"/>
     </row>
     <row r="29" spans="1:24" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="3"/>
@@ -15799,16 +15799,16 @@
       <c r="P29" s="4"/>
       <c r="Q29" s="4"/>
       <c r="R29" s="4"/>
-      <c r="S29" s="37" t="s">
+      <c r="S29" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="T29" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="U29" s="30"/>
-      <c r="V29" s="30"/>
-      <c r="W29" s="30"/>
-      <c r="X29" s="16"/>
+      <c r="T29" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="U29" s="31"/>
+      <c r="V29" s="31"/>
+      <c r="W29" s="31"/>
+      <c r="X29" s="17"/>
     </row>
     <row r="30" spans="1:24" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="3"/>
@@ -15829,16 +15829,16 @@
       <c r="P30" s="4"/>
       <c r="Q30" s="4"/>
       <c r="R30" s="4"/>
-      <c r="S30" s="37" t="s">
+      <c r="S30" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="T30" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="U30" s="30"/>
-      <c r="V30" s="30"/>
-      <c r="W30" s="30"/>
-      <c r="X30" s="16"/>
+      <c r="T30" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="U30" s="31"/>
+      <c r="V30" s="31"/>
+      <c r="W30" s="31"/>
+      <c r="X30" s="17"/>
     </row>
     <row r="31" spans="1:24" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="3"/>
@@ -15859,16 +15859,16 @@
       <c r="P31" s="4"/>
       <c r="Q31" s="4"/>
       <c r="R31" s="4"/>
-      <c r="S31" s="37" t="s">
+      <c r="S31" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="T31" s="31" t="s">
-        <v>2</v>
-      </c>
-      <c r="U31" s="32"/>
-      <c r="V31" s="32"/>
-      <c r="W31" s="32"/>
-      <c r="X31" s="33"/>
+      <c r="T31" s="32" t="s">
+        <v>2</v>
+      </c>
+      <c r="U31" s="33"/>
+      <c r="V31" s="33"/>
+      <c r="W31" s="33"/>
+      <c r="X31" s="34"/>
     </row>
     <row r="32" spans="1:24" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="3"/>
@@ -15889,16 +15889,16 @@
       <c r="P32" s="4"/>
       <c r="Q32" s="4"/>
       <c r="R32" s="4"/>
-      <c r="S32" s="37" t="s">
+      <c r="S32" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="T32" s="21" t="s">
-        <v>2</v>
-      </c>
-      <c r="U32" s="22"/>
-      <c r="V32" s="22"/>
-      <c r="W32" s="22"/>
-      <c r="X32" s="23"/>
+      <c r="T32" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="U32" s="23"/>
+      <c r="V32" s="23"/>
+      <c r="W32" s="23"/>
+      <c r="X32" s="24"/>
     </row>
     <row r="33" spans="1:24" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="3"/>
@@ -15919,16 +15919,16 @@
       <c r="P33" s="4"/>
       <c r="Q33" s="4"/>
       <c r="R33" s="4"/>
-      <c r="S33" s="37" t="s">
+      <c r="S33" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="T33" s="21" t="s">
-        <v>2</v>
-      </c>
-      <c r="U33" s="22"/>
-      <c r="V33" s="22"/>
-      <c r="W33" s="22"/>
-      <c r="X33" s="23"/>
+      <c r="T33" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="U33" s="23"/>
+      <c r="V33" s="23"/>
+      <c r="W33" s="23"/>
+      <c r="X33" s="24"/>
     </row>
   </sheetData>
   <mergeCells count="29">
@@ -15981,7 +15981,7 @@
   </sheetPr>
   <dimension ref="A1:X33"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection activeCell="J17" sqref="J17"/>
     </sheetView>
   </sheetViews>
@@ -15998,43 +15998,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" ht="24.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
-      <c r="E1" s="18"/>
-      <c r="F1" s="18"/>
-      <c r="G1" s="18"/>
-      <c r="H1" s="18"/>
-      <c r="I1" s="18"/>
-      <c r="J1" s="18"/>
-      <c r="K1" s="18"/>
-      <c r="L1" s="18"/>
-      <c r="M1" s="18"/>
-      <c r="N1" s="18"/>
-      <c r="O1" s="18"/>
-      <c r="P1" s="18"/>
-      <c r="Q1" s="18"/>
-      <c r="R1" s="18"/>
-      <c r="S1" s="18"/>
-      <c r="T1" s="18"/>
-      <c r="U1" s="18"/>
-      <c r="V1" s="18"/>
-      <c r="W1" s="18"/>
-      <c r="X1" s="18"/>
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
+      <c r="F1" s="19"/>
+      <c r="G1" s="19"/>
+      <c r="H1" s="19"/>
+      <c r="I1" s="19"/>
+      <c r="J1" s="19"/>
+      <c r="K1" s="19"/>
+      <c r="L1" s="19"/>
+      <c r="M1" s="19"/>
+      <c r="N1" s="19"/>
+      <c r="O1" s="19"/>
+      <c r="P1" s="19"/>
+      <c r="Q1" s="19"/>
+      <c r="R1" s="19"/>
+      <c r="S1" s="19"/>
+      <c r="T1" s="19"/>
+      <c r="U1" s="19"/>
+      <c r="V1" s="19"/>
+      <c r="W1" s="19"/>
+      <c r="X1" s="19"/>
     </row>
     <row r="2" spans="1:24" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="19" t="s">
+      <c r="A2" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="19"/>
-      <c r="C2" s="19"/>
-      <c r="D2" s="19"/>
-      <c r="E2" s="19"/>
-      <c r="F2" s="19"/>
-      <c r="G2" s="19"/>
+      <c r="B2" s="20"/>
+      <c r="C2" s="20"/>
+      <c r="D2" s="20"/>
+      <c r="E2" s="20"/>
+      <c r="F2" s="20"/>
+      <c r="G2" s="20"/>
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
       <c r="J2" s="1"/>
@@ -16049,128 +16049,128 @@
       <c r="S2" t="s">
         <v>3</v>
       </c>
-      <c r="T2" s="19" t="s">
+      <c r="T2" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="U2" s="19"/>
-      <c r="V2" s="19"/>
-      <c r="W2" s="19"/>
-      <c r="X2" s="19"/>
+      <c r="U2" s="20"/>
+      <c r="V2" s="20"/>
+      <c r="W2" s="20"/>
+      <c r="X2" s="20"/>
     </row>
     <row r="3" spans="1:24" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="20" t="s">
+      <c r="A3" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="20"/>
-      <c r="C3" s="20"/>
-      <c r="D3" s="20"/>
-      <c r="E3" s="20"/>
-      <c r="F3" s="20"/>
-      <c r="G3" s="20"/>
-      <c r="H3" s="20" t="s">
+      <c r="B3" s="21"/>
+      <c r="C3" s="21"/>
+      <c r="D3" s="21"/>
+      <c r="E3" s="21"/>
+      <c r="F3" s="21"/>
+      <c r="G3" s="21"/>
+      <c r="H3" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="I3" s="20"/>
-      <c r="J3" s="20"/>
-      <c r="K3" s="20"/>
-      <c r="L3" s="20"/>
-      <c r="M3" s="20" t="s">
+      <c r="I3" s="21"/>
+      <c r="J3" s="21"/>
+      <c r="K3" s="21"/>
+      <c r="L3" s="21"/>
+      <c r="M3" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="N3" s="20"/>
-      <c r="O3" s="20"/>
-      <c r="P3" s="20"/>
-      <c r="Q3" s="20"/>
-      <c r="R3" s="20"/>
+      <c r="N3" s="21"/>
+      <c r="O3" s="21"/>
+      <c r="P3" s="21"/>
+      <c r="Q3" s="21"/>
+      <c r="R3" s="21"/>
       <c r="S3" t="s">
         <v>8</v>
       </c>
-      <c r="T3" s="20" t="s">
-        <v>2</v>
-      </c>
-      <c r="U3" s="20"/>
-      <c r="V3" s="20"/>
-      <c r="W3" s="20"/>
-      <c r="X3" s="20"/>
+      <c r="T3" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="U3" s="21"/>
+      <c r="V3" s="21"/>
+      <c r="W3" s="21"/>
+      <c r="X3" s="21"/>
     </row>
     <row r="4" spans="1:24" x14ac:dyDescent="0.15">
-      <c r="A4" s="11" t="s">
+      <c r="A4" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="9" t="s">
+      <c r="B4" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="17"/>
-      <c r="D4" s="17"/>
-      <c r="E4" s="17"/>
-      <c r="F4" s="17"/>
-      <c r="G4" s="11" t="s">
+      <c r="C4" s="18"/>
+      <c r="D4" s="18"/>
+      <c r="E4" s="18"/>
+      <c r="F4" s="18"/>
+      <c r="G4" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="H4" s="9" t="s">
+      <c r="H4" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="I4" s="17"/>
-      <c r="J4" s="17"/>
-      <c r="K4" s="17"/>
-      <c r="L4" s="17"/>
-      <c r="M4" s="24" t="s">
+      <c r="I4" s="18"/>
+      <c r="J4" s="18"/>
+      <c r="K4" s="18"/>
+      <c r="L4" s="18"/>
+      <c r="M4" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="N4" s="9" t="s">
+      <c r="N4" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="17"/>
-      <c r="P4" s="17"/>
-      <c r="Q4" s="17"/>
-      <c r="R4" s="17"/>
-      <c r="S4" s="11" t="s">
+      <c r="O4" s="18"/>
+      <c r="P4" s="18"/>
+      <c r="Q4" s="18"/>
+      <c r="R4" s="18"/>
+      <c r="S4" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="T4" s="11" t="s">
+      <c r="T4" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="U4" s="11"/>
-      <c r="V4" s="11"/>
-      <c r="W4" s="11"/>
-      <c r="X4" s="11"/>
+      <c r="U4" s="12"/>
+      <c r="V4" s="12"/>
+      <c r="W4" s="12"/>
+      <c r="X4" s="12"/>
     </row>
     <row r="5" spans="1:24" x14ac:dyDescent="0.15">
-      <c r="A5" s="11"/>
-      <c r="B5" s="9" t="s">
+      <c r="A5" s="12"/>
+      <c r="B5" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="C5" s="17"/>
-      <c r="D5" s="17"/>
-      <c r="E5" s="17"/>
-      <c r="F5" s="10"/>
-      <c r="G5" s="11"/>
-      <c r="H5" s="9" t="s">
+      <c r="C5" s="18"/>
+      <c r="D5" s="18"/>
+      <c r="E5" s="18"/>
+      <c r="F5" s="11"/>
+      <c r="G5" s="12"/>
+      <c r="H5" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="I5" s="17"/>
-      <c r="J5" s="17"/>
-      <c r="K5" s="17"/>
-      <c r="L5" s="10"/>
-      <c r="M5" s="25"/>
-      <c r="N5" s="9" t="s">
+      <c r="I5" s="18"/>
+      <c r="J5" s="18"/>
+      <c r="K5" s="18"/>
+      <c r="L5" s="11"/>
+      <c r="M5" s="26"/>
+      <c r="N5" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="O5" s="17"/>
-      <c r="P5" s="17"/>
-      <c r="Q5" s="17"/>
-      <c r="R5" s="10"/>
-      <c r="S5" s="11"/>
-      <c r="T5" s="9" t="s">
+      <c r="O5" s="18"/>
+      <c r="P5" s="18"/>
+      <c r="Q5" s="18"/>
+      <c r="R5" s="11"/>
+      <c r="S5" s="12"/>
+      <c r="T5" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="U5" s="17"/>
-      <c r="V5" s="17"/>
-      <c r="W5" s="17"/>
-      <c r="X5" s="10"/>
+      <c r="U5" s="18"/>
+      <c r="V5" s="18"/>
+      <c r="W5" s="18"/>
+      <c r="X5" s="11"/>
     </row>
     <row r="6" spans="1:24" x14ac:dyDescent="0.15">
-      <c r="A6" s="11"/>
+      <c r="A6" s="12"/>
       <c r="B6" s="2" t="s">
         <v>12</v>
       </c>
@@ -16186,7 +16186,7 @@
       <c r="F6" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="G6" s="11"/>
+      <c r="G6" s="12"/>
       <c r="H6" s="2" t="s">
         <v>12</v>
       </c>
@@ -16202,7 +16202,7 @@
       <c r="L6" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="M6" s="26"/>
+      <c r="M6" s="27"/>
       <c r="N6" s="2" t="s">
         <v>12</v>
       </c>
@@ -16218,7 +16218,7 @@
       <c r="R6" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="S6" s="11"/>
+      <c r="S6" s="12"/>
       <c r="T6" s="2" t="s">
         <v>12</v>
       </c>
@@ -16748,15 +16748,15 @@
       <c r="P26" s="4"/>
       <c r="Q26" s="4"/>
       <c r="R26" s="4"/>
-      <c r="S26" s="37" t="s">
+      <c r="S26" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="T26" s="34" t="s">
+      <c r="T26" s="35" t="s">
         <v>15</v>
       </c>
-      <c r="U26" s="35"/>
-      <c r="V26" s="35"/>
-      <c r="W26" s="36"/>
+      <c r="U26" s="36"/>
+      <c r="V26" s="36"/>
+      <c r="W26" s="37"/>
       <c r="X26" s="4" t="s">
         <v>2</v>
       </c>
@@ -16780,14 +16780,14 @@
       <c r="P27" s="4"/>
       <c r="Q27" s="4"/>
       <c r="R27" s="4"/>
-      <c r="S27" s="27" t="s">
+      <c r="S27" s="28" t="s">
         <v>16</v>
       </c>
-      <c r="T27" s="28"/>
-      <c r="U27" s="28"/>
-      <c r="V27" s="28"/>
-      <c r="W27" s="28"/>
-      <c r="X27" s="29"/>
+      <c r="T27" s="29"/>
+      <c r="U27" s="29"/>
+      <c r="V27" s="29"/>
+      <c r="W27" s="29"/>
+      <c r="X27" s="30"/>
     </row>
     <row r="28" spans="1:24" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="3"/>
@@ -16808,16 +16808,16 @@
       <c r="P28" s="4"/>
       <c r="Q28" s="4"/>
       <c r="R28" s="4"/>
-      <c r="S28" s="37" t="s">
+      <c r="S28" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="T28" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="U28" s="30"/>
-      <c r="V28" s="30"/>
-      <c r="W28" s="30"/>
-      <c r="X28" s="16"/>
+      <c r="T28" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="U28" s="31"/>
+      <c r="V28" s="31"/>
+      <c r="W28" s="31"/>
+      <c r="X28" s="17"/>
     </row>
     <row r="29" spans="1:24" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="3"/>
@@ -16838,16 +16838,16 @@
       <c r="P29" s="4"/>
       <c r="Q29" s="4"/>
       <c r="R29" s="4"/>
-      <c r="S29" s="37" t="s">
+      <c r="S29" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="T29" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="U29" s="30"/>
-      <c r="V29" s="30"/>
-      <c r="W29" s="30"/>
-      <c r="X29" s="16"/>
+      <c r="T29" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="U29" s="31"/>
+      <c r="V29" s="31"/>
+      <c r="W29" s="31"/>
+      <c r="X29" s="17"/>
     </row>
     <row r="30" spans="1:24" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="3"/>
@@ -16868,16 +16868,16 @@
       <c r="P30" s="4"/>
       <c r="Q30" s="4"/>
       <c r="R30" s="4"/>
-      <c r="S30" s="37" t="s">
+      <c r="S30" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="T30" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="U30" s="30"/>
-      <c r="V30" s="30"/>
-      <c r="W30" s="30"/>
-      <c r="X30" s="16"/>
+      <c r="T30" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="U30" s="31"/>
+      <c r="V30" s="31"/>
+      <c r="W30" s="31"/>
+      <c r="X30" s="17"/>
     </row>
     <row r="31" spans="1:24" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="3"/>
@@ -16898,16 +16898,16 @@
       <c r="P31" s="4"/>
       <c r="Q31" s="4"/>
       <c r="R31" s="4"/>
-      <c r="S31" s="37" t="s">
+      <c r="S31" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="T31" s="31" t="s">
-        <v>2</v>
-      </c>
-      <c r="U31" s="32"/>
-      <c r="V31" s="32"/>
-      <c r="W31" s="32"/>
-      <c r="X31" s="33"/>
+      <c r="T31" s="32" t="s">
+        <v>2</v>
+      </c>
+      <c r="U31" s="33"/>
+      <c r="V31" s="33"/>
+      <c r="W31" s="33"/>
+      <c r="X31" s="34"/>
     </row>
     <row r="32" spans="1:24" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="3"/>
@@ -16928,16 +16928,16 @@
       <c r="P32" s="4"/>
       <c r="Q32" s="4"/>
       <c r="R32" s="4"/>
-      <c r="S32" s="37" t="s">
+      <c r="S32" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="T32" s="21" t="s">
-        <v>2</v>
-      </c>
-      <c r="U32" s="22"/>
-      <c r="V32" s="22"/>
-      <c r="W32" s="22"/>
-      <c r="X32" s="23"/>
+      <c r="T32" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="U32" s="23"/>
+      <c r="V32" s="23"/>
+      <c r="W32" s="23"/>
+      <c r="X32" s="24"/>
     </row>
     <row r="33" spans="1:24" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="3"/>
@@ -16958,16 +16958,16 @@
       <c r="P33" s="4"/>
       <c r="Q33" s="4"/>
       <c r="R33" s="4"/>
-      <c r="S33" s="37" t="s">
+      <c r="S33" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="T33" s="21" t="s">
-        <v>2</v>
-      </c>
-      <c r="U33" s="22"/>
-      <c r="V33" s="22"/>
-      <c r="W33" s="22"/>
-      <c r="X33" s="23"/>
+      <c r="T33" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="U33" s="23"/>
+      <c r="V33" s="23"/>
+      <c r="W33" s="23"/>
+      <c r="X33" s="24"/>
     </row>
   </sheetData>
   <mergeCells count="29">
